--- a/teaching/financial_strategy/files/epr.xlsx
+++ b/teaching/financial_strategy/files/epr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\Github\ERP\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF279611-7392-45DA-A3E2-CEDA36BEB450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EEF50E-AA7A-4375-A191-BB95793E54D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -18,23 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$2:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -54,10 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,13 +56,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,17 +90,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -136,15 +105,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -267,10 +234,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Planilha1!$A$3:$A$380</c:f>
+              <c:f>Planilha1!$A$3:$A$378</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="378"/>
+                <c:ptCount val="376"/>
                 <c:pt idx="0">
                   <c:v>34700</c:v>
                 </c:pt>
@@ -1311,16 +1278,55 @@
                 </c:pt>
                 <c:pt idx="346">
                   <c:v>45231</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>45261</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>45627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$3:$B$380</c:f>
+              <c:f>Planilha1!$B$3:$B$378</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="378"/>
+                <c:ptCount val="376"/>
                 <c:pt idx="0">
                   <c:v>3.5906071097335332E-2</c:v>
                 </c:pt>
@@ -2327,40 +2333,79 @@
                   <c:v>0.1177</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>0.1172183756433729</c:v>
+                  <c:v>0.119570950843835</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>0.112566</c:v>
+                  <c:v>0.117893919965138</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>0.10406600000000001</c:v>
+                  <c:v>0.114166215748151</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>0.100060632666334</c:v>
+                  <c:v>0.106506091149822</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>9.7161250237506505E-2</c:v>
+                  <c:v>0.104972619878797</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>9.6838061660370997E-2</c:v>
+                  <c:v>0.106212619878797</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>8.4097029271563706E-2</c:v>
+                  <c:v>8.9786943876921502E-2</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>7.9421854001553702E-2</c:v>
+                  <c:v>8.5042290284176397E-2</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>8.8703735811575105E-2</c:v>
+                  <c:v>9.3402828335221205E-2</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>8.69610556503468E-2</c:v>
+                  <c:v>9.3593759783569305E-2</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>8.5154952330852907E-2</c:v>
+                  <c:v>8.9448833444429304E-2</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>9.2767735220062306E-2</c:v>
+                  <c:v>9.54667785258735E-2</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>9.2670036787301999E-2</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>8.9115758120277305E-2</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>8.9552263562969095E-2</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>9.1546890323989105E-2</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>8.8194059924412899E-2</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>9.31940896021691E-2</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>9.9626160666037494E-2</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>9.8254086785083294E-2</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>9.9822265355109505E-2</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>8.7638597939404303E-2</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>8.7543885983804498E-2</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>9.6474622830165099E-2</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>9.7281775111367597E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3442,30 +3487,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:RX356"/>
+  <dimension ref="A1:RX362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="C349" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="1" max="2" width="11.46875" customWidth="1"/>
+    <col min="5" max="5" width="12.46875" customWidth="1"/>
     <col min="40" max="40" width="9" customWidth="1"/>
-    <col min="498" max="498" width="9.140625" customWidth="1"/>
+    <col min="498" max="498" width="9.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:492" x14ac:dyDescent="0.5">
       <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="CG2" s="1"/>
@@ -3500,14 +3545,14 @@
       <c r="RM2" s="1"/>
       <c r="RX2" s="1"/>
     </row>
-    <row r="3" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A3" s="2">
         <v>34700</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="3">
         <v>3.5906071097335332E-2</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="5"/>
       <c r="CG3" s="1"/>
       <c r="CH3" s="1"/>
       <c r="CI3" s="1"/>
@@ -3538,14 +3583,14 @@
       <c r="RM3" s="1"/>
       <c r="RX3" s="1"/>
     </row>
-    <row r="4" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A4" s="2">
         <v>34731</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="3">
         <v>4.641371511935781E-2</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="5"/>
       <c r="CG4" s="1"/>
       <c r="CH4" s="1"/>
       <c r="CI4" s="1"/>
@@ -3576,14 +3621,14 @@
       <c r="RM4" s="1"/>
       <c r="RX4" s="1"/>
     </row>
-    <row r="5" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A5" s="2">
         <v>34759</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="3">
         <v>6.8188691890601116E-2</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="5"/>
       <c r="CG5" s="1"/>
       <c r="CH5" s="1"/>
       <c r="CI5" s="1"/>
@@ -3613,14 +3658,14 @@
       <c r="RM5" s="1"/>
       <c r="RX5" s="1"/>
     </row>
-    <row r="6" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A6" s="2">
         <v>34790</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="3">
         <v>9.0011601145643869E-2</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="5"/>
       <c r="CG6" s="1"/>
       <c r="CH6" s="1"/>
       <c r="CI6" s="1"/>
@@ -3648,14 +3693,14 @@
       <c r="RB6" s="1"/>
       <c r="RM6" s="1"/>
     </row>
-    <row r="7" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="7" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A7" s="2">
         <v>34820</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="3">
         <v>9.9496073670305801E-2</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="5"/>
       <c r="CG7" s="1"/>
       <c r="CH7" s="1"/>
       <c r="CI7" s="1"/>
@@ -3682,14 +3727,14 @@
       <c r="RB7" s="1"/>
       <c r="RM7" s="1"/>
     </row>
-    <row r="8" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A8" s="2">
         <v>34851</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="3">
         <v>0.11863771466397069</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="5"/>
       <c r="CG8" s="1"/>
       <c r="CH8" s="1"/>
       <c r="CI8" s="1"/>
@@ -3716,14 +3761,14 @@
       <c r="RB8" s="1"/>
       <c r="RM8" s="1"/>
     </row>
-    <row r="9" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A9" s="2">
         <v>34881</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="3">
         <v>0.1181146572660678</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="5"/>
       <c r="CG9" s="1"/>
       <c r="CH9" s="1"/>
       <c r="CI9" s="1"/>
@@ -3740,14 +3785,14 @@
       <c r="RB9" s="1"/>
       <c r="RM9" s="1"/>
     </row>
-    <row r="10" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="10" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A10" s="2">
         <v>34912</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="3">
         <v>0.11925440378813899</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="5"/>
       <c r="CG10" s="1"/>
       <c r="CH10" s="1"/>
       <c r="CI10" s="1"/>
@@ -3763,14 +3808,14 @@
       <c r="RB10" s="1"/>
       <c r="RM10" s="1"/>
     </row>
-    <row r="11" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="11" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A11" s="2">
         <v>34943</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="3">
         <v>8.0427229515112636E-2</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="5"/>
       <c r="CG11" s="1"/>
       <c r="CH11" s="1"/>
       <c r="CI11" s="1"/>
@@ -3786,14 +3831,14 @@
       <c r="RB11" s="1"/>
       <c r="RM11" s="1"/>
     </row>
-    <row r="12" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="12" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A12" s="2">
         <v>34973</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="3">
         <v>9.2888414728135582E-2</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="5"/>
       <c r="CG12" s="1"/>
       <c r="CH12" s="1"/>
       <c r="CI12" s="1"/>
@@ -3808,14 +3853,14 @@
       <c r="RB12" s="1"/>
       <c r="RM12" s="1"/>
     </row>
-    <row r="13" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="13" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A13" s="2">
         <v>35004</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="3">
         <v>0.10118496200041718</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="5"/>
       <c r="CG13" s="1"/>
       <c r="CH13" s="1"/>
       <c r="CI13" s="1"/>
@@ -3830,14 +3875,14 @@
       <c r="RB13" s="1"/>
       <c r="RM13" s="1"/>
     </row>
-    <row r="14" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="14" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A14" s="2">
         <v>35034</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="3">
         <v>0.10732542683580969</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="5"/>
       <c r="CG14" s="1"/>
       <c r="CH14" s="1"/>
       <c r="CI14" s="1"/>
@@ -3850,14 +3895,14 @@
       <c r="CP14" s="1"/>
       <c r="OY14" s="1"/>
     </row>
-    <row r="15" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="15" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A15" s="2">
         <v>35065</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="3">
         <v>9.1621260099534085E-2</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="5"/>
       <c r="CG15" s="1"/>
       <c r="CH15" s="1"/>
       <c r="CI15" s="1"/>
@@ -3870,732 +3915,732 @@
       <c r="CP15" s="1"/>
       <c r="OY15" s="1"/>
     </row>
-    <row r="16" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="16" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A16" s="2">
         <v>35096</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="3">
         <v>8.4905503970074639E-2</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="5"/>
       <c r="CP16" s="1"/>
     </row>
-    <row r="17" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+    <row r="17" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A17" s="2">
         <v>35125</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="3">
         <v>0.10049276040389069</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="5"/>
       <c r="CP17" s="1"/>
     </row>
-    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+    <row r="18" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A18" s="2">
         <v>35156</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="3">
         <v>9.6531384813158941E-2</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="5"/>
       <c r="CP18" s="1"/>
     </row>
-    <row r="19" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="19" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A19" s="2">
         <v>35186</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="3">
         <v>9.5088188666882692E-2</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="5"/>
       <c r="CP19" s="1"/>
     </row>
-    <row r="20" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+    <row r="20" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A20" s="2">
         <v>35217</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="3">
         <v>9.0796583575804307E-2</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="5"/>
       <c r="CP20" s="1"/>
     </row>
-    <row r="21" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+    <row r="21" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A21" s="2">
         <v>35247</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="3">
         <v>9.2623876599203819E-2</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="5"/>
       <c r="CP21" s="1"/>
     </row>
-    <row r="22" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+    <row r="22" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A22" s="2">
         <v>35278</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="3">
         <v>9.1099901245860898E-2</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="5"/>
       <c r="CP22" s="1"/>
     </row>
-    <row r="23" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+    <row r="23" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A23" s="2">
         <v>35309</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="3">
         <v>9.2854806609296375E-2</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="5"/>
       <c r="CP23" s="1"/>
     </row>
-    <row r="24" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+    <row r="24" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A24" s="2">
         <v>35339</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="3">
         <v>0.10127373741409153</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="5"/>
       <c r="CP24" s="1"/>
     </row>
-    <row r="25" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+    <row r="25" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A25" s="2">
         <v>35370</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="3">
         <v>0.10142804442282341</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="5"/>
       <c r="CP25" s="1"/>
     </row>
-    <row r="26" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+    <row r="26" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A26" s="2">
         <v>35400</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="3">
         <v>9.9700000278104189E-2</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="5"/>
       <c r="CP26" s="1"/>
     </row>
-    <row r="27" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+    <row r="27" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A27" s="2">
         <v>35431</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="3">
         <v>9.7052332691215076E-2</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="5"/>
       <c r="CP27" s="1"/>
     </row>
-    <row r="28" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+    <row r="28" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A28" s="2">
         <v>35462</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="3">
         <v>9.1057142830797522E-2</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="5"/>
       <c r="CP28" s="1"/>
     </row>
-    <row r="29" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+    <row r="29" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A29" s="2">
         <v>35490</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="3">
         <v>8.6177248797735806E-2</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="5"/>
       <c r="CP29" s="1"/>
     </row>
-    <row r="30" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+    <row r="30" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A30" s="2">
         <v>35521</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="3">
         <v>8.5066948095953776E-2</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
       <c r="CP30" s="1"/>
     </row>
-    <row r="31" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+    <row r="31" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A31" s="2">
         <v>35551</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="3">
         <v>9.7288837160340563E-2</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
       <c r="CP31" s="1"/>
     </row>
-    <row r="32" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+    <row r="32" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A32" s="2">
         <v>35582</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="3">
         <v>9.6957468174919514E-2</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
       <c r="CP32" s="1"/>
     </row>
-    <row r="33" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+    <row r="33" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A33" s="2">
         <v>35612</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="3">
         <v>9.8258192485687817E-2</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
       <c r="CP33" s="1"/>
     </row>
-    <row r="34" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+    <row r="34" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A34" s="2">
         <v>35643</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="3">
         <v>0.10071108991221206</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="L34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="L34" s="8"/>
       <c r="CP34" s="1"/>
     </row>
-    <row r="35" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+    <row r="35" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A35" s="2">
         <v>35674</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="3">
         <v>9.4101292650451321E-2</v>
       </c>
-      <c r="C35" s="9"/>
+      <c r="C35" s="5"/>
       <c r="CP35" s="1"/>
     </row>
-    <row r="36" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+    <row r="36" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A36" s="2">
         <v>35704</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="3">
         <v>0.1022443853346008</v>
       </c>
-      <c r="C36" s="9"/>
+      <c r="C36" s="5"/>
       <c r="CP36" s="1"/>
     </row>
-    <row r="37" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+    <row r="37" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A37" s="2">
         <v>35735</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="3">
         <v>0.11673503599412813</v>
       </c>
-      <c r="C37" s="9"/>
+      <c r="C37" s="5"/>
       <c r="CP37" s="1"/>
     </row>
-    <row r="38" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+    <row r="38" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A38" s="2">
         <v>35765</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="3">
         <v>0.12868892588777975</v>
       </c>
-      <c r="C38" s="9"/>
+      <c r="C38" s="5"/>
       <c r="CP38" s="1"/>
     </row>
-    <row r="39" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+    <row r="39" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A39" s="2">
         <v>35796</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="3">
         <v>0.13246738378006745</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="5"/>
       <c r="CP39" s="1"/>
     </row>
-    <row r="40" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+    <row r="40" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A40" s="2">
         <v>35827</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="3">
         <v>0.12192540989307418</v>
       </c>
-      <c r="C40" s="9"/>
+      <c r="C40" s="5"/>
       <c r="CP40" s="1"/>
     </row>
-    <row r="41" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+    <row r="41" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A41" s="2">
         <v>35855</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="3">
         <v>0.11858185629167939</v>
       </c>
-      <c r="C41" s="9"/>
+      <c r="C41" s="5"/>
       <c r="CP41" s="1"/>
     </row>
-    <row r="42" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+    <row r="42" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A42" s="2">
         <v>35886</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="3">
         <v>0.11009539820274278</v>
       </c>
-      <c r="C42" s="9"/>
+      <c r="C42" s="5"/>
       <c r="CP42" s="1"/>
     </row>
-    <row r="43" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+    <row r="43" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A43" s="2">
         <v>35916</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="3">
         <v>0.14815671762109539</v>
       </c>
-      <c r="C43" s="9"/>
+      <c r="C43" s="5"/>
       <c r="CP43" s="1"/>
     </row>
-    <row r="44" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+    <row r="44" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A44" s="2">
         <v>35947</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="3">
         <v>0.16414072309545738</v>
       </c>
-      <c r="C44" s="9"/>
+      <c r="C44" s="5"/>
       <c r="CP44" s="1"/>
     </row>
-    <row r="45" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+    <row r="45" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A45" s="2">
         <v>35977</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="3">
         <v>0.15684487547919845</v>
       </c>
-      <c r="C45" s="9"/>
+      <c r="C45" s="5"/>
       <c r="CP45" s="1"/>
     </row>
-    <row r="46" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+    <row r="46" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A46" s="2">
         <v>36008</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="3">
         <v>0.20761986410571115</v>
       </c>
-      <c r="C46" s="9"/>
+      <c r="C46" s="5"/>
       <c r="CP46" s="1"/>
     </row>
-    <row r="47" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+    <row r="47" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A47" s="2">
         <v>36039</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="3">
         <v>0.26488372425157419</v>
       </c>
-      <c r="C47" s="9"/>
+      <c r="C47" s="5"/>
       <c r="CP47" s="1"/>
     </row>
-    <row r="48" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+    <row r="48" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A48" s="2">
         <v>36069</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="3">
         <v>0.27386908893169182</v>
       </c>
-      <c r="C48" s="9"/>
+      <c r="C48" s="5"/>
       <c r="CP48" s="1"/>
     </row>
-    <row r="49" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+    <row r="49" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A49" s="2">
         <v>36100</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="3">
         <v>0.23368482800820384</v>
       </c>
-      <c r="C49" s="9"/>
+      <c r="C49" s="5"/>
       <c r="CP49" s="1"/>
     </row>
-    <row r="50" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+    <row r="50" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A50" s="2">
         <v>36130</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="3">
         <v>0.19728157436806892</v>
       </c>
-      <c r="C50" s="9"/>
+      <c r="C50" s="5"/>
       <c r="CP50" s="1"/>
     </row>
-    <row r="51" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+    <row r="51" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A51" s="2">
         <v>36161</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="3">
         <v>0.18849719620951449</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="3"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
       <c r="CP51" s="1"/>
     </row>
-    <row r="52" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+    <row r="52" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A52" s="2">
         <v>36192</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="3">
         <v>0.17879547863724937</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="3"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
       <c r="CP52" s="1"/>
     </row>
-    <row r="53" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+    <row r="53" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A53" s="2">
         <v>36220</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="3">
         <v>0.19521218246374467</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="3"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
       <c r="CP53" s="1"/>
     </row>
-    <row r="54" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+    <row r="54" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A54" s="2">
         <v>36251</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="3">
         <v>0.17667737273699313</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="3"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
       <c r="CP54" s="1"/>
     </row>
-    <row r="55" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
+    <row r="55" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A55" s="2">
         <v>36281</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="3">
         <v>0.17240854293261376</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="3"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
       <c r="CP55" s="1"/>
     </row>
-    <row r="56" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
+    <row r="56" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A56" s="2">
         <v>36312</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="3">
         <v>0.15905547118167043</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="3"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
       <c r="CP56" s="1"/>
     </row>
-    <row r="57" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
+    <row r="57" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A57" s="2">
         <v>36342</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="3">
         <v>0.15865389804394955</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="3"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
       <c r="CP57" s="1"/>
     </row>
-    <row r="58" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
+    <row r="58" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A58" s="2">
         <v>36373</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="3">
         <v>0.15275419272689961</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="3"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
       <c r="CP58" s="1"/>
     </row>
-    <row r="59" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
+    <row r="59" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A59" s="2">
         <v>36404</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="3">
         <v>0.13159865421370617</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="3"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
       <c r="CP59" s="1"/>
     </row>
-    <row r="60" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
+    <row r="60" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A60" s="2">
         <v>36434</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="3">
         <v>0.12196728595845485</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="3"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
       <c r="CP60" s="1"/>
     </row>
-    <row r="61" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
+    <row r="61" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A61" s="2">
         <v>36465</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="3">
         <v>0.10437517943413213</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="3"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
       <c r="CP61" s="1"/>
     </row>
-    <row r="62" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
+    <row r="62" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A62" s="2">
         <v>36495</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="3">
         <v>8.4895285767080067E-2</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="3"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
       <c r="CP62" s="1"/>
     </row>
-    <row r="63" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
+    <row r="63" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A63" s="2">
         <v>36526</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="3">
         <v>8.0964220165040707E-2</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="3"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
       <c r="CP63" s="1"/>
     </row>
-    <row r="64" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
+    <row r="64" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A64" s="2">
         <v>36557</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="3">
         <v>8.5143819747368649E-2</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="3"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
       <c r="CP64" s="1"/>
     </row>
-    <row r="65" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
+    <row r="65" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A65" s="2">
         <v>36586</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="3">
         <v>9.4432793059799777E-2</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
       <c r="CP65" s="1"/>
     </row>
-    <row r="66" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
+    <row r="66" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A66" s="2">
         <v>36617</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="3">
         <v>0.1068984082862578</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
       <c r="CP66" s="1"/>
     </row>
-    <row r="67" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
+    <row r="67" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A67" s="2">
         <v>36647</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="3">
         <v>0.10194024162250852</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
       <c r="CP67" s="1"/>
     </row>
-    <row r="68" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
+    <row r="68" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A68" s="2">
         <v>36678</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="3">
         <v>0.11520688931942046</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
       <c r="CP68" s="1"/>
     </row>
-    <row r="69" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
+    <row r="69" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A69" s="2">
         <v>36708</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="3">
         <v>0.10847862629401375</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="E69" s="3"/>
+      <c r="C69" s="5"/>
+      <c r="E69" s="6"/>
       <c r="CP69" s="1"/>
     </row>
-    <row r="70" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
+    <row r="70" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A70" s="2">
         <v>36739</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="3">
         <v>0.11669317806908461</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="E70" s="3"/>
+      <c r="C70" s="5"/>
+      <c r="E70" s="6"/>
       <c r="CP70" s="1"/>
     </row>
-    <row r="71" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
+    <row r="71" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A71" s="2">
         <v>36770</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="3">
         <v>0.12461879502315275</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="E71" s="3"/>
+      <c r="C71" s="5"/>
+      <c r="E71" s="6"/>
       <c r="CP71" s="1"/>
     </row>
-    <row r="72" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
+    <row r="72" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A72" s="2">
         <v>36800</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="3">
         <v>0.12350351608453644</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="E72" s="3"/>
+      <c r="C72" s="5"/>
+      <c r="E72" s="6"/>
       <c r="CP72" s="1"/>
     </row>
-    <row r="73" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
+    <row r="73" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A73" s="2">
         <v>36831</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="3">
         <v>0.13624280260074831</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="E73" s="3"/>
+      <c r="C73" s="5"/>
+      <c r="E73" s="6"/>
       <c r="CP73" s="1"/>
     </row>
-    <row r="74" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
+    <row r="74" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A74" s="2">
         <v>36861</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="3">
         <v>0.10449451374749155</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="E74" s="3"/>
+      <c r="C74" s="5"/>
+      <c r="E74" s="6"/>
       <c r="CP74" s="1"/>
     </row>
-    <row r="75" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
+    <row r="75" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A75" s="2">
         <v>36892</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="3">
         <v>9.8078739800215115E-2</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="E75" s="3"/>
+      <c r="C75" s="5"/>
+      <c r="E75" s="6"/>
       <c r="CP75" s="1"/>
     </row>
-    <row r="76" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
+    <row r="76" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A76" s="2">
         <v>36923</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="3">
         <v>9.4986612102584869E-2</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="E76" s="3"/>
+      <c r="C76" s="5"/>
+      <c r="E76" s="6"/>
       <c r="CP76" s="1"/>
     </row>
-    <row r="77" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
+    <row r="77" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A77" s="2">
         <v>36951</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="3">
         <v>0.10943199261845223</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="E77" s="3"/>
+      <c r="C77" s="5"/>
+      <c r="E77" s="6"/>
       <c r="CP77" s="1"/>
     </row>
-    <row r="78" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
+    <row r="78" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A78" s="2">
         <v>36982</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="3">
         <v>0.10230821441197835</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="E78" s="3"/>
+      <c r="C78" s="5"/>
+      <c r="E78" s="6"/>
       <c r="CP78" s="1"/>
     </row>
-    <row r="79" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
+    <row r="79" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A79" s="2">
         <v>37012</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="3">
         <v>0.11448510925596571</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="E79" s="3"/>
+      <c r="C79" s="5"/>
+      <c r="E79" s="6"/>
       <c r="CP79" s="1"/>
     </row>
-    <row r="80" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
+    <row r="80" spans="1:94" x14ac:dyDescent="0.5">
+      <c r="A80" s="2">
         <v>37043</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="3">
         <v>0.12205193419326613</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="E80" s="3"/>
+      <c r="C80" s="5"/>
+      <c r="E80" s="6"/>
       <c r="CP80" s="1"/>
     </row>
-    <row r="81" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
+    <row r="81" spans="1:206" x14ac:dyDescent="0.5">
+      <c r="A81" s="2">
         <v>37073</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="3">
         <v>0.12472087316217893</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="E81" s="3"/>
+      <c r="C81" s="5"/>
+      <c r="E81" s="6"/>
       <c r="CP81" s="1"/>
       <c r="DC81" s="1"/>
       <c r="DE81" s="1"/>
@@ -4606,14 +4651,14 @@
       <c r="DJ81" s="1"/>
       <c r="DK81" s="1"/>
     </row>
-    <row r="82" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
+    <row r="82" spans="1:206" x14ac:dyDescent="0.5">
+      <c r="A82" s="2">
         <v>37104</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="3">
         <v>0.13164962330151575</v>
       </c>
-      <c r="C82" s="9"/>
+      <c r="C82" s="5"/>
       <c r="CP82" s="1"/>
       <c r="DC82" s="1"/>
       <c r="DE82" s="1"/>
@@ -4624,14 +4669,14 @@
       <c r="DJ82" s="1"/>
       <c r="DK82" s="1"/>
     </row>
-    <row r="83" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
+    <row r="83" spans="1:206" x14ac:dyDescent="0.5">
+      <c r="A83" s="2">
         <v>37135</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="3">
         <v>0.16920274455915726</v>
       </c>
-      <c r="C83" s="9"/>
+      <c r="C83" s="5"/>
       <c r="CP83" s="1"/>
       <c r="DC83" s="1"/>
       <c r="DE83" s="1"/>
@@ -4643,14 +4688,14 @@
       <c r="DK83" s="1"/>
       <c r="FQ83" s="1"/>
     </row>
-    <row r="84" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
+    <row r="84" spans="1:206" x14ac:dyDescent="0.5">
+      <c r="A84" s="2">
         <v>37165</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="3">
         <v>0.16487384010580458</v>
       </c>
-      <c r="C84" s="9"/>
+      <c r="C84" s="5"/>
       <c r="CP84" s="1"/>
       <c r="DC84" s="1"/>
       <c r="DE84" s="1"/>
@@ -4662,14 +4707,14 @@
       <c r="DK84" s="1"/>
       <c r="FQ84" s="1"/>
     </row>
-    <row r="85" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A85" s="6">
+    <row r="85" spans="1:206" x14ac:dyDescent="0.5">
+      <c r="A85" s="2">
         <v>37196</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="3">
         <v>0.14485365882340293</v>
       </c>
-      <c r="C85" s="9"/>
+      <c r="C85" s="5"/>
       <c r="CP85" s="1"/>
       <c r="DC85" s="1"/>
       <c r="DE85" s="1"/>
@@ -4681,14 +4726,14 @@
       <c r="DK85" s="1"/>
       <c r="FQ85" s="1"/>
     </row>
-    <row r="86" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
+    <row r="86" spans="1:206" x14ac:dyDescent="0.5">
+      <c r="A86" s="2">
         <v>37226</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="3">
         <v>0.12057147500114479</v>
       </c>
-      <c r="C86" s="9"/>
+      <c r="C86" s="5"/>
       <c r="CP86" s="1"/>
       <c r="DC86" s="1"/>
       <c r="DE86" s="1"/>
@@ -4700,14 +4745,14 @@
       <c r="DK86" s="1"/>
       <c r="FQ86" s="1"/>
     </row>
-    <row r="87" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A87" s="6">
+    <row r="87" spans="1:206" x14ac:dyDescent="0.5">
+      <c r="A87" s="2">
         <v>37257</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="3">
         <v>0.12028644057053653</v>
       </c>
-      <c r="C87" s="9"/>
+      <c r="C87" s="5"/>
       <c r="CP87" s="1"/>
       <c r="DC87" s="1"/>
       <c r="DE87" s="1"/>
@@ -4719,14 +4764,14 @@
       <c r="DK87" s="1"/>
       <c r="FQ87" s="1"/>
     </row>
-    <row r="88" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A88" s="6">
+    <row r="88" spans="1:206" x14ac:dyDescent="0.5">
+      <c r="A88" s="2">
         <v>37288</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="3">
         <v>0.11585635189852062</v>
       </c>
-      <c r="C88" s="9"/>
+      <c r="C88" s="5"/>
       <c r="CP88" s="1"/>
       <c r="DC88" s="1"/>
       <c r="DE88" s="1"/>
@@ -4738,14 +4783,14 @@
       <c r="DK88" s="1"/>
       <c r="FQ88" s="1"/>
     </row>
-    <row r="89" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A89" s="6">
+    <row r="89" spans="1:206" x14ac:dyDescent="0.5">
+      <c r="A89" s="2">
         <v>37316</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="3">
         <v>0.12274527752297042</v>
       </c>
-      <c r="C89" s="9"/>
+      <c r="C89" s="5"/>
       <c r="CP89" s="1"/>
       <c r="DC89" s="1"/>
       <c r="DE89" s="1"/>
@@ -4758,14 +4803,14 @@
       <c r="EJ89" s="1"/>
       <c r="FQ89" s="1"/>
     </row>
-    <row r="90" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A90" s="6">
+    <row r="90" spans="1:206" x14ac:dyDescent="0.5">
+      <c r="A90" s="2">
         <v>37347</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="3">
         <v>0.12101568147782529</v>
       </c>
-      <c r="C90" s="9"/>
+      <c r="C90" s="5"/>
       <c r="CP90" s="1"/>
       <c r="DC90" s="1"/>
       <c r="DE90" s="1"/>
@@ -4778,14 +4823,14 @@
       <c r="EJ90" s="1"/>
       <c r="FQ90" s="1"/>
     </row>
-    <row r="91" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A91" s="6">
+    <row r="91" spans="1:206" x14ac:dyDescent="0.5">
+      <c r="A91" s="2">
         <v>37377</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="3">
         <v>0.13834911739732181</v>
       </c>
-      <c r="C91" s="9"/>
+      <c r="C91" s="5"/>
       <c r="CP91" s="1"/>
       <c r="DC91" s="1"/>
       <c r="DE91" s="1"/>
@@ -4798,14 +4843,14 @@
       <c r="EJ91" s="1"/>
       <c r="FQ91" s="1"/>
     </row>
-    <row r="92" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A92" s="6">
+    <row r="92" spans="1:206" x14ac:dyDescent="0.5">
+      <c r="A92" s="2">
         <v>37408</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="3">
         <v>0.13898444661446926</v>
       </c>
-      <c r="C92" s="9"/>
+      <c r="C92" s="5"/>
       <c r="CP92" s="1"/>
       <c r="DC92" s="1"/>
       <c r="DE92" s="1"/>
@@ -4819,14 +4864,14 @@
       <c r="EU92" s="1"/>
       <c r="FQ92" s="1"/>
     </row>
-    <row r="93" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A93" s="6">
+    <row r="93" spans="1:206" x14ac:dyDescent="0.5">
+      <c r="A93" s="2">
         <v>37438</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="3">
         <v>0.15154676452080135</v>
       </c>
-      <c r="C93" s="9"/>
+      <c r="C93" s="5"/>
       <c r="CP93" s="1"/>
       <c r="DC93" s="1"/>
       <c r="DE93" s="1"/>
@@ -4840,14 +4885,14 @@
       <c r="EU93" s="1"/>
       <c r="FQ93" s="1"/>
     </row>
-    <row r="94" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A94" s="6">
+    <row r="94" spans="1:206" x14ac:dyDescent="0.5">
+      <c r="A94" s="2">
         <v>37469</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="3">
         <v>0.14914501917668246</v>
       </c>
-      <c r="C94" s="9"/>
+      <c r="C94" s="5"/>
       <c r="CP94" s="1"/>
       <c r="DC94" s="1"/>
       <c r="DE94" s="1"/>
@@ -4861,14 +4906,14 @@
       <c r="EU94" s="1"/>
       <c r="FQ94" s="1"/>
     </row>
-    <row r="95" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A95" s="6">
+    <row r="95" spans="1:206" x14ac:dyDescent="0.5">
+      <c r="A95" s="2">
         <v>37500</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="3">
         <v>0.17729158577688089</v>
       </c>
-      <c r="C95" s="9"/>
+      <c r="C95" s="5"/>
       <c r="CP95" s="1"/>
       <c r="DC95" s="1"/>
       <c r="DE95" s="1"/>
@@ -4883,14 +4928,14 @@
       <c r="FQ95" s="1"/>
       <c r="GX95" s="1"/>
     </row>
-    <row r="96" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A96" s="6">
+    <row r="96" spans="1:206" x14ac:dyDescent="0.5">
+      <c r="A96" s="2">
         <v>37530</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="3">
         <v>0.16158417270187989</v>
       </c>
-      <c r="C96" s="9"/>
+      <c r="C96" s="5"/>
       <c r="CP96" s="1"/>
       <c r="DC96" s="1"/>
       <c r="DE96" s="1"/>
@@ -4905,14 +4950,14 @@
       <c r="FQ96" s="1"/>
       <c r="GX96" s="1"/>
     </row>
-    <row r="97" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A97" s="6">
+    <row r="97" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A97" s="2">
         <v>37561</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="3">
         <v>0.15765516285709646</v>
       </c>
-      <c r="C97" s="9"/>
+      <c r="C97" s="5"/>
       <c r="CG97" s="1"/>
       <c r="CH97" s="1"/>
       <c r="CI97" s="1"/>
@@ -4937,14 +4982,14 @@
       <c r="GX97" s="1"/>
       <c r="QQ97" s="1"/>
     </row>
-    <row r="98" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A98" s="6">
+    <row r="98" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A98" s="2">
         <v>37591</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B98" s="3">
         <v>0.16155516390609645</v>
       </c>
-      <c r="C98" s="9"/>
+      <c r="C98" s="5"/>
       <c r="CG98" s="1"/>
       <c r="CH98" s="1"/>
       <c r="CI98" s="1"/>
@@ -4969,14 +5014,14 @@
       <c r="GX98" s="1"/>
       <c r="QQ98" s="1"/>
     </row>
-    <row r="99" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A99" s="6">
+    <row r="99" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A99" s="2">
         <v>37622</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="3">
         <v>0.16721818984210535</v>
       </c>
-      <c r="C99" s="9"/>
+      <c r="C99" s="5"/>
       <c r="CG99" s="1"/>
       <c r="CH99" s="1"/>
       <c r="CI99" s="1"/>
@@ -5010,14 +5055,14 @@
       <c r="GX99" s="1"/>
       <c r="QQ99" s="1"/>
     </row>
-    <row r="100" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A100" s="6">
+    <row r="100" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A100" s="2">
         <v>37653</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100" s="3">
         <v>0.16873740603929704</v>
       </c>
-      <c r="C100" s="9"/>
+      <c r="C100" s="5"/>
       <c r="CG100" s="1"/>
       <c r="CH100" s="1"/>
       <c r="CI100" s="1"/>
@@ -5061,14 +5106,14 @@
       <c r="OC100" s="1"/>
       <c r="QQ100" s="1"/>
     </row>
-    <row r="101" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A101" s="6">
+    <row r="101" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A101" s="2">
         <v>37681</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101" s="3">
         <v>0.17960657789052537</v>
       </c>
-      <c r="C101" s="9"/>
+      <c r="C101" s="5"/>
       <c r="CG101" s="1"/>
       <c r="CH101" s="1"/>
       <c r="CI101" s="1"/>
@@ -5113,14 +5158,14 @@
       <c r="OC101" s="1"/>
       <c r="QQ101" s="1"/>
     </row>
-    <row r="102" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A102" s="6">
+    <row r="102" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A102" s="2">
         <v>37712</v>
       </c>
-      <c r="B102" s="7">
+      <c r="B102" s="3">
         <v>0.17370103158576525</v>
       </c>
-      <c r="C102" s="9"/>
+      <c r="C102" s="5"/>
       <c r="CG102" s="1"/>
       <c r="CH102" s="1"/>
       <c r="CI102" s="1"/>
@@ -5165,14 +5210,14 @@
       <c r="OC102" s="1"/>
       <c r="QQ102" s="1"/>
     </row>
-    <row r="103" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A103" s="6">
+    <row r="103" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A103" s="2">
         <v>37742</v>
       </c>
-      <c r="B103" s="7">
+      <c r="B103" s="3">
         <v>0.17745962817797939</v>
       </c>
-      <c r="C103" s="9"/>
+      <c r="C103" s="5"/>
       <c r="CG103" s="1"/>
       <c r="CH103" s="1"/>
       <c r="CI103" s="1"/>
@@ -5218,14 +5263,14 @@
       <c r="OC103" s="1"/>
       <c r="QQ103" s="1"/>
     </row>
-    <row r="104" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A104" s="6">
+    <row r="104" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A104" s="2">
         <v>37773</v>
       </c>
-      <c r="B104" s="7">
+      <c r="B104" s="3">
         <v>0.17353423821042152</v>
       </c>
-      <c r="C104" s="9"/>
+      <c r="C104" s="5"/>
       <c r="CG104" s="1"/>
       <c r="CH104" s="1"/>
       <c r="CI104" s="1"/>
@@ -5272,14 +5317,14 @@
       <c r="OC104" s="1"/>
       <c r="QQ104" s="1"/>
     </row>
-    <row r="105" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A105" s="6">
+    <row r="105" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A105" s="2">
         <v>37803</v>
       </c>
-      <c r="B105" s="7">
+      <c r="B105" s="3">
         <v>0.16443232371464103</v>
       </c>
-      <c r="C105" s="9"/>
+      <c r="C105" s="5"/>
       <c r="CG105" s="1"/>
       <c r="CH105" s="1"/>
       <c r="CI105" s="1"/>
@@ -5326,14 +5371,14 @@
       <c r="OC105" s="1"/>
       <c r="QQ105" s="1"/>
     </row>
-    <row r="106" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A106" s="6">
+    <row r="106" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A106" s="2">
         <v>37834</v>
       </c>
-      <c r="B106" s="7">
+      <c r="B106" s="3">
         <v>0.16083606998584948</v>
       </c>
-      <c r="C106" s="9"/>
+      <c r="C106" s="5"/>
       <c r="CG106" s="1"/>
       <c r="CH106" s="1"/>
       <c r="CI106" s="1"/>
@@ -5381,14 +5426,14 @@
       <c r="OC106" s="1"/>
       <c r="QQ106" s="1"/>
     </row>
-    <row r="107" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A107" s="6">
+    <row r="107" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A107" s="2">
         <v>37865</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B107" s="3">
         <v>0.19762447566023092</v>
       </c>
-      <c r="C107" s="9"/>
+      <c r="C107" s="5"/>
       <c r="CG107" s="1"/>
       <c r="CH107" s="1"/>
       <c r="CI107" s="1"/>
@@ -5440,14 +5485,14 @@
       <c r="QQ107" s="1"/>
       <c r="RX107" s="1"/>
     </row>
-    <row r="108" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A108" s="6">
+    <row r="108" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A108" s="2">
         <v>37895</v>
       </c>
-      <c r="B108" s="7">
+      <c r="B108" s="3">
         <v>0.18706253495325156</v>
       </c>
-      <c r="C108" s="9"/>
+      <c r="C108" s="5"/>
       <c r="CG108" s="1"/>
       <c r="CH108" s="1"/>
       <c r="CI108" s="1"/>
@@ -5499,14 +5544,14 @@
       <c r="QQ108" s="1"/>
       <c r="RX108" s="1"/>
     </row>
-    <row r="109" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A109" s="6">
+    <row r="109" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A109" s="2">
         <v>37926</v>
       </c>
-      <c r="B109" s="7">
+      <c r="B109" s="3">
         <v>0.18579912866791054</v>
       </c>
-      <c r="C109" s="9"/>
+      <c r="C109" s="5"/>
       <c r="CG109" s="1"/>
       <c r="CH109" s="1"/>
       <c r="CI109" s="1"/>
@@ -5560,14 +5605,14 @@
       <c r="QQ109" s="1"/>
       <c r="RX109" s="1"/>
     </row>
-    <row r="110" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A110" s="6">
+    <row r="110" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A110" s="2">
         <v>37956</v>
       </c>
-      <c r="B110" s="7">
+      <c r="B110" s="3">
         <v>0.15228963728645464</v>
       </c>
-      <c r="C110" s="9"/>
+      <c r="C110" s="5"/>
       <c r="CG110" s="1"/>
       <c r="CH110" s="1"/>
       <c r="CI110" s="1"/>
@@ -5623,14 +5668,14 @@
       <c r="QQ110" s="1"/>
       <c r="RX110" s="1"/>
     </row>
-    <row r="111" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A111" s="6">
+    <row r="111" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A111" s="2">
         <v>37987</v>
       </c>
-      <c r="B111" s="7">
+      <c r="B111" s="3">
         <v>0.14979423018271038</v>
       </c>
-      <c r="C111" s="9"/>
+      <c r="C111" s="5"/>
       <c r="CG111" s="1"/>
       <c r="CH111" s="1"/>
       <c r="CI111" s="1"/>
@@ -5686,14 +5731,14 @@
       <c r="QQ111" s="1"/>
       <c r="RX111" s="1"/>
     </row>
-    <row r="112" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A112" s="6">
+    <row r="112" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A112" s="2">
         <v>38018</v>
       </c>
-      <c r="B112" s="7">
+      <c r="B112" s="3">
         <v>0.15531103806729979</v>
       </c>
-      <c r="C112" s="9"/>
+      <c r="C112" s="5"/>
       <c r="CG112" s="1"/>
       <c r="CH112" s="1"/>
       <c r="CI112" s="1"/>
@@ -5749,14 +5794,14 @@
       <c r="QQ112" s="1"/>
       <c r="RX112" s="1"/>
     </row>
-    <row r="113" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A113" s="6">
+    <row r="113" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A113" s="2">
         <v>38047</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="3">
         <v>0.15189953279944524</v>
       </c>
-      <c r="C113" s="9"/>
+      <c r="C113" s="5"/>
       <c r="CG113" s="1"/>
       <c r="CH113" s="1"/>
       <c r="CI113" s="1"/>
@@ -5814,14 +5859,14 @@
       <c r="QQ113" s="1"/>
       <c r="RX113" s="1"/>
     </row>
-    <row r="114" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A114" s="6">
+    <row r="114" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A114" s="2">
         <v>38078</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114" s="3">
         <v>0.14238155308795486</v>
       </c>
-      <c r="C114" s="9"/>
+      <c r="C114" s="5"/>
       <c r="CG114" s="1"/>
       <c r="CH114" s="1"/>
       <c r="CI114" s="1"/>
@@ -5880,14 +5925,14 @@
       <c r="QQ114" s="1"/>
       <c r="RX114" s="1"/>
     </row>
-    <row r="115" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A115" s="6">
+    <row r="115" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A115" s="2">
         <v>38108</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115" s="3">
         <v>0.13993688563245948</v>
       </c>
-      <c r="C115" s="9"/>
+      <c r="C115" s="5"/>
       <c r="CG115" s="1"/>
       <c r="CH115" s="1"/>
       <c r="CI115" s="1"/>
@@ -5957,14 +6002,14 @@
       <c r="QQ115" s="1"/>
       <c r="RX115" s="1"/>
     </row>
-    <row r="116" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A116" s="6">
+    <row r="116" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A116" s="2">
         <v>38139</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116" s="3">
         <v>0.13205156859518685</v>
       </c>
-      <c r="C116" s="9"/>
+      <c r="C116" s="5"/>
       <c r="CG116" s="1"/>
       <c r="CH116" s="1"/>
       <c r="CI116" s="1"/>
@@ -6045,14 +6090,14 @@
       <c r="QQ116" s="1"/>
       <c r="RX116" s="1"/>
     </row>
-    <row r="117" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A117" s="6">
+    <row r="117" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A117" s="2">
         <v>38169</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117" s="3">
         <v>0.1321356483644931</v>
       </c>
-      <c r="C117" s="9"/>
+      <c r="C117" s="5"/>
       <c r="CG117" s="1"/>
       <c r="CH117" s="1"/>
       <c r="CI117" s="1"/>
@@ -6135,14 +6180,14 @@
       <c r="QQ117" s="1"/>
       <c r="RX117" s="1"/>
     </row>
-    <row r="118" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A118" s="6">
+    <row r="118" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A118" s="2">
         <v>38200</v>
       </c>
-      <c r="B118" s="7">
+      <c r="B118" s="3">
         <v>0.13235416398227642</v>
       </c>
-      <c r="C118" s="9"/>
+      <c r="C118" s="5"/>
       <c r="CG118" s="1"/>
       <c r="CH118" s="1"/>
       <c r="CI118" s="1"/>
@@ -6225,14 +6270,14 @@
       <c r="QQ118" s="1"/>
       <c r="RX118" s="1"/>
     </row>
-    <row r="119" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A119" s="6">
+    <row r="119" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A119" s="2">
         <v>38231</v>
       </c>
-      <c r="B119" s="7">
+      <c r="B119" s="3">
         <v>0.14198841003714582</v>
       </c>
-      <c r="C119" s="9"/>
+      <c r="C119" s="5"/>
       <c r="CG119" s="1"/>
       <c r="CH119" s="1"/>
       <c r="CI119" s="1"/>
@@ -6315,14 +6360,14 @@
       <c r="QQ119" s="1"/>
       <c r="RX119" s="1"/>
     </row>
-    <row r="120" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A120" s="6">
+    <row r="120" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A120" s="2">
         <v>38261</v>
       </c>
-      <c r="B120" s="7">
+      <c r="B120" s="3">
         <v>0.14054340020098038</v>
       </c>
-      <c r="C120" s="9"/>
+      <c r="C120" s="5"/>
       <c r="CG120" s="1"/>
       <c r="CH120" s="1"/>
       <c r="CI120" s="1"/>
@@ -6405,14 +6450,14 @@
       <c r="QQ120" s="1"/>
       <c r="RX120" s="1"/>
     </row>
-    <row r="121" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A121" s="6">
+    <row r="121" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A121" s="2">
         <v>38292</v>
       </c>
-      <c r="B121" s="7">
+      <c r="B121" s="3">
         <v>0.13208337856049901</v>
       </c>
-      <c r="C121" s="9"/>
+      <c r="C121" s="5"/>
       <c r="CG121" s="1"/>
       <c r="CH121" s="1"/>
       <c r="CI121" s="1"/>
@@ -6496,14 +6541,14 @@
       <c r="QQ121" s="1"/>
       <c r="RX121" s="1"/>
     </row>
-    <row r="122" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A122" s="6">
+    <row r="122" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A122" s="2">
         <v>38322</v>
       </c>
-      <c r="B122" s="7">
+      <c r="B122" s="3">
         <v>0.13722393226951568</v>
       </c>
-      <c r="C122" s="9"/>
+      <c r="C122" s="5"/>
       <c r="CG122" s="1"/>
       <c r="CH122" s="1"/>
       <c r="CI122" s="1"/>
@@ -6587,14 +6632,14 @@
       <c r="QQ122" s="1"/>
       <c r="RX122" s="1"/>
     </row>
-    <row r="123" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A123" s="6">
+    <row r="123" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A123" s="2">
         <v>38353</v>
       </c>
-      <c r="B123" s="7">
+      <c r="B123" s="3">
         <v>0.13998031470880479</v>
       </c>
-      <c r="C123" s="9"/>
+      <c r="C123" s="5"/>
       <c r="CG123" s="1"/>
       <c r="CH123" s="1"/>
       <c r="CI123" s="1"/>
@@ -6678,14 +6723,14 @@
       <c r="QQ123" s="1"/>
       <c r="RX123" s="1"/>
     </row>
-    <row r="124" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A124" s="6">
+    <row r="124" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A124" s="2">
         <v>38384</v>
       </c>
-      <c r="B124" s="7">
+      <c r="B124" s="3">
         <v>0.14381330437458539</v>
       </c>
-      <c r="C124" s="9"/>
+      <c r="C124" s="5"/>
       <c r="CG124" s="1"/>
       <c r="CH124" s="1"/>
       <c r="CI124" s="1"/>
@@ -6771,14 +6816,14 @@
       <c r="QQ124" s="1"/>
       <c r="RX124" s="1"/>
     </row>
-    <row r="125" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A125" s="6">
+    <row r="125" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A125" s="2">
         <v>38412</v>
       </c>
-      <c r="B125" s="7">
+      <c r="B125" s="3">
         <v>0.13883886128708484</v>
       </c>
-      <c r="C125" s="9"/>
+      <c r="C125" s="5"/>
       <c r="CG125" s="1"/>
       <c r="CH125" s="1"/>
       <c r="CI125" s="1"/>
@@ -6864,14 +6909,14 @@
       <c r="QQ125" s="1"/>
       <c r="RX125" s="1"/>
     </row>
-    <row r="126" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A126" s="6">
+    <row r="126" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A126" s="2">
         <v>38443</v>
       </c>
-      <c r="B126" s="7">
+      <c r="B126" s="3">
         <v>0.14223096597630486</v>
       </c>
-      <c r="C126" s="9"/>
+      <c r="C126" s="5"/>
       <c r="CG126" s="1"/>
       <c r="CH126" s="1"/>
       <c r="CI126" s="1"/>
@@ -6957,14 +7002,14 @@
       <c r="QQ126" s="1"/>
       <c r="RX126" s="1"/>
     </row>
-    <row r="127" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A127" s="6">
+    <row r="127" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A127" s="2">
         <v>38473</v>
       </c>
-      <c r="B127" s="7">
+      <c r="B127" s="3">
         <v>0.15130856651883109</v>
       </c>
-      <c r="C127" s="9"/>
+      <c r="C127" s="5"/>
       <c r="CG127" s="1"/>
       <c r="CH127" s="1"/>
       <c r="CI127" s="1"/>
@@ -7051,14 +7096,14 @@
       <c r="RM127" s="1"/>
       <c r="RX127" s="1"/>
     </row>
-    <row r="128" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A128" s="6">
+    <row r="128" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A128" s="2">
         <v>38504</v>
       </c>
-      <c r="B128" s="7">
+      <c r="B128" s="3">
         <v>0.17613645867084826</v>
       </c>
-      <c r="C128" s="9"/>
+      <c r="C128" s="5"/>
       <c r="CG128" s="1"/>
       <c r="CH128" s="1"/>
       <c r="CI128" s="1"/>
@@ -7146,14 +7191,14 @@
       <c r="RM128" s="1"/>
       <c r="RX128" s="1"/>
     </row>
-    <row r="129" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A129" s="6">
+    <row r="129" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A129" s="2">
         <v>38534</v>
       </c>
-      <c r="B129" s="7">
+      <c r="B129" s="3">
         <v>0.17526795031368764</v>
       </c>
-      <c r="C129" s="9"/>
+      <c r="C129" s="5"/>
       <c r="CG129" s="1"/>
       <c r="CH129" s="1"/>
       <c r="CI129" s="1"/>
@@ -7241,14 +7286,14 @@
       <c r="RM129" s="1"/>
       <c r="RX129" s="1"/>
     </row>
-    <row r="130" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A130" s="6">
+    <row r="130" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A130" s="2">
         <v>38565</v>
       </c>
-      <c r="B130" s="7">
+      <c r="B130" s="3">
         <v>0.17356897074457586</v>
       </c>
-      <c r="C130" s="9"/>
+      <c r="C130" s="5"/>
       <c r="CG130" s="1"/>
       <c r="CH130" s="1"/>
       <c r="CI130" s="1"/>
@@ -7336,14 +7381,14 @@
       <c r="RM130" s="1"/>
       <c r="RX130" s="1"/>
     </row>
-    <row r="131" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A131" s="6">
+    <row r="131" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A131" s="2">
         <v>38596</v>
       </c>
-      <c r="B131" s="7">
+      <c r="B131" s="3">
         <v>0.13496571144618535</v>
       </c>
-      <c r="C131" s="9"/>
+      <c r="C131" s="5"/>
       <c r="CG131" s="1"/>
       <c r="CH131" s="1"/>
       <c r="CI131" s="1"/>
@@ -7431,14 +7476,14 @@
       <c r="RM131" s="1"/>
       <c r="RX131" s="1"/>
     </row>
-    <row r="132" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A132" s="6">
+    <row r="132" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A132" s="2">
         <v>38626</v>
       </c>
-      <c r="B132" s="7">
+      <c r="B132" s="3">
         <v>0.13393339678506488</v>
       </c>
-      <c r="C132" s="9"/>
+      <c r="C132" s="5"/>
       <c r="CG132" s="1"/>
       <c r="CH132" s="1"/>
       <c r="CI132" s="1"/>
@@ -7526,14 +7571,14 @@
       <c r="RM132" s="1"/>
       <c r="RX132" s="1"/>
     </row>
-    <row r="133" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A133" s="6">
+    <row r="133" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A133" s="2">
         <v>38657</v>
       </c>
-      <c r="B133" s="7">
+      <c r="B133" s="3">
         <v>0.13831045015123039</v>
       </c>
-      <c r="C133" s="9"/>
+      <c r="C133" s="5"/>
       <c r="CG133" s="1"/>
       <c r="CH133" s="1"/>
       <c r="CI133" s="1"/>
@@ -7621,14 +7666,14 @@
       <c r="RM133" s="1"/>
       <c r="RX133" s="1"/>
     </row>
-    <row r="134" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A134" s="6">
+    <row r="134" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A134" s="2">
         <v>38687</v>
       </c>
-      <c r="B134" s="7">
+      <c r="B134" s="3">
         <v>0.12603299570326587</v>
       </c>
-      <c r="C134" s="9"/>
+      <c r="C134" s="5"/>
       <c r="CG134" s="1"/>
       <c r="CH134" s="1"/>
       <c r="CI134" s="1"/>
@@ -7716,14 +7761,14 @@
       <c r="RM134" s="1"/>
       <c r="RX134" s="1"/>
     </row>
-    <row r="135" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A135" s="6">
+    <row r="135" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A135" s="2">
         <v>38718</v>
       </c>
-      <c r="B135" s="7">
+      <c r="B135" s="3">
         <v>0.12251013261185581</v>
       </c>
-      <c r="C135" s="9"/>
+      <c r="C135" s="5"/>
       <c r="CG135" s="1"/>
       <c r="CH135" s="1"/>
       <c r="CI135" s="1"/>
@@ -7811,14 +7856,14 @@
       <c r="RM135" s="1"/>
       <c r="RX135" s="1"/>
     </row>
-    <row r="136" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A136" s="6">
+    <row r="136" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A136" s="2">
         <v>38749</v>
       </c>
-      <c r="B136" s="7">
+      <c r="B136" s="3">
         <v>0.11689155988668461</v>
       </c>
-      <c r="C136" s="9"/>
+      <c r="C136" s="5"/>
       <c r="CG136" s="1"/>
       <c r="CH136" s="1"/>
       <c r="CI136" s="1"/>
@@ -7906,14 +7951,14 @@
       <c r="RM136" s="1"/>
       <c r="RX136" s="1"/>
     </row>
-    <row r="137" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A137" s="6">
+    <row r="137" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A137" s="2">
         <v>38777</v>
       </c>
-      <c r="B137" s="7">
+      <c r="B137" s="3">
         <v>0.11182793411322625</v>
       </c>
-      <c r="C137" s="9"/>
+      <c r="C137" s="5"/>
       <c r="CG137" s="1"/>
       <c r="CH137" s="1"/>
       <c r="CI137" s="1"/>
@@ -8001,14 +8046,14 @@
       <c r="RM137" s="1"/>
       <c r="RX137" s="1"/>
     </row>
-    <row r="138" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A138" s="6">
+    <row r="138" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A138" s="2">
         <v>38808</v>
       </c>
-      <c r="B138" s="7">
+      <c r="B138" s="3">
         <v>0.1062966817216436</v>
       </c>
-      <c r="C138" s="9"/>
+      <c r="C138" s="5"/>
       <c r="CG138" s="1"/>
       <c r="CH138" s="1"/>
       <c r="CI138" s="1"/>
@@ -8096,14 +8141,14 @@
       <c r="RM138" s="1"/>
       <c r="RX138" s="1"/>
     </row>
-    <row r="139" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A139" s="6">
+    <row r="139" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A139" s="2">
         <v>38838</v>
       </c>
-      <c r="B139" s="7">
+      <c r="B139" s="3">
         <v>0.10685897585166657</v>
       </c>
-      <c r="C139" s="9"/>
+      <c r="C139" s="5"/>
       <c r="CG139" s="1"/>
       <c r="CH139" s="1"/>
       <c r="CI139" s="1"/>
@@ -8191,14 +8236,14 @@
       <c r="RM139" s="1"/>
       <c r="RX139" s="1"/>
     </row>
-    <row r="140" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A140" s="6">
+    <row r="140" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A140" s="2">
         <v>38869</v>
       </c>
-      <c r="B140" s="7">
+      <c r="B140" s="3">
         <v>0.10321059015113987</v>
       </c>
-      <c r="C140" s="9"/>
+      <c r="C140" s="5"/>
       <c r="CG140" s="1"/>
       <c r="CH140" s="1"/>
       <c r="CI140" s="1"/>
@@ -8286,14 +8331,14 @@
       <c r="RM140" s="1"/>
       <c r="RX140" s="1"/>
     </row>
-    <row r="141" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A141" s="6">
+    <row r="141" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A141" s="2">
         <v>38899</v>
       </c>
-      <c r="B141" s="7">
+      <c r="B141" s="3">
         <v>0.1042737605249823</v>
       </c>
-      <c r="C141" s="9"/>
+      <c r="C141" s="5"/>
       <c r="CG141" s="1"/>
       <c r="CH141" s="1"/>
       <c r="CI141" s="1"/>
@@ -8381,14 +8426,14 @@
       <c r="RM141" s="1"/>
       <c r="RX141" s="1"/>
     </row>
-    <row r="142" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A142" s="6">
+    <row r="142" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A142" s="2">
         <v>38930</v>
       </c>
-      <c r="B142" s="7">
+      <c r="B142" s="3">
         <v>9.9191823334113305E-2</v>
       </c>
-      <c r="C142" s="9"/>
+      <c r="C142" s="5"/>
       <c r="CG142" s="1"/>
       <c r="CH142" s="1"/>
       <c r="CI142" s="1"/>
@@ -8476,14 +8521,14 @@
       <c r="RM142" s="1"/>
       <c r="RX142" s="1"/>
     </row>
-    <row r="143" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A143" s="6">
+    <row r="143" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A143" s="2">
         <v>38961</v>
       </c>
-      <c r="B143" s="7">
+      <c r="B143" s="3">
         <v>9.7977952179741312E-2</v>
       </c>
-      <c r="C143" s="9"/>
+      <c r="C143" s="5"/>
       <c r="CG143" s="1"/>
       <c r="CH143" s="1"/>
       <c r="CI143" s="1"/>
@@ -8571,14 +8616,14 @@
       <c r="RM143" s="1"/>
       <c r="RX143" s="1"/>
     </row>
-    <row r="144" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A144" s="6">
+    <row r="144" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A144" s="2">
         <v>38991</v>
       </c>
-      <c r="B144" s="7">
+      <c r="B144" s="3">
         <v>9.5864636506678785E-2</v>
       </c>
-      <c r="C144" s="9"/>
+      <c r="C144" s="5"/>
       <c r="CG144" s="1"/>
       <c r="CH144" s="1"/>
       <c r="CI144" s="1"/>
@@ -8666,14 +8711,14 @@
       <c r="RM144" s="1"/>
       <c r="RX144" s="1"/>
     </row>
-    <row r="145" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A145" s="6">
+    <row r="145" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A145" s="2">
         <v>39022</v>
       </c>
-      <c r="B145" s="7">
+      <c r="B145" s="3">
         <v>8.8506947539146508E-2</v>
       </c>
-      <c r="C145" s="9"/>
+      <c r="C145" s="5"/>
       <c r="CG145" s="1"/>
       <c r="CH145" s="1"/>
       <c r="CI145" s="1"/>
@@ -8761,14 +8806,14 @@
       <c r="RM145" s="1"/>
       <c r="RX145" s="1"/>
     </row>
-    <row r="146" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A146" s="6">
+    <row r="146" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A146" s="2">
         <v>39052</v>
       </c>
-      <c r="B146" s="7">
+      <c r="B146" s="3">
         <v>8.2991557693164242E-2</v>
       </c>
-      <c r="C146" s="9"/>
+      <c r="C146" s="5"/>
       <c r="CG146" s="1"/>
       <c r="CH146" s="1"/>
       <c r="CI146" s="1"/>
@@ -8856,14 +8901,14 @@
       <c r="RM146" s="1"/>
       <c r="RX146" s="1"/>
     </row>
-    <row r="147" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A147" s="6">
+    <row r="147" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A147" s="2">
         <v>39083</v>
       </c>
-      <c r="B147" s="7">
+      <c r="B147" s="3">
         <v>7.7215118349207135E-2</v>
       </c>
-      <c r="C147" s="9"/>
+      <c r="C147" s="5"/>
       <c r="CG147" s="1"/>
       <c r="CH147" s="1"/>
       <c r="CI147" s="1"/>
@@ -8951,14 +8996,14 @@
       <c r="RM147" s="1"/>
       <c r="RX147" s="1"/>
     </row>
-    <row r="148" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A148" s="6">
+    <row r="148" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A148" s="2">
         <v>39114</v>
       </c>
-      <c r="B148" s="7">
+      <c r="B148" s="3">
         <v>7.9397037241236174E-2</v>
       </c>
-      <c r="C148" s="9"/>
+      <c r="C148" s="5"/>
       <c r="CG148" s="1"/>
       <c r="CH148" s="1"/>
       <c r="CI148" s="1"/>
@@ -9046,14 +9091,14 @@
       <c r="RM148" s="1"/>
       <c r="RX148" s="1"/>
     </row>
-    <row r="149" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A149" s="6">
+    <row r="149" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A149" s="2">
         <v>39142</v>
       </c>
-      <c r="B149" s="7">
+      <c r="B149" s="3">
         <v>9.5585255682960557E-2</v>
       </c>
-      <c r="C149" s="9"/>
+      <c r="C149" s="5"/>
       <c r="CG149" s="1"/>
       <c r="CH149" s="1"/>
       <c r="CI149" s="1"/>
@@ -9141,14 +9186,14 @@
       <c r="RM149" s="1"/>
       <c r="RX149" s="1"/>
     </row>
-    <row r="150" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A150" s="6">
+    <row r="150" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A150" s="2">
         <v>39173</v>
       </c>
-      <c r="B150" s="7">
+      <c r="B150" s="3">
         <v>8.580606474485139E-2</v>
       </c>
-      <c r="C150" s="9"/>
+      <c r="C150" s="5"/>
       <c r="CG150" s="1"/>
       <c r="CH150" s="1"/>
       <c r="CI150" s="1"/>
@@ -9236,14 +9281,14 @@
       <c r="RM150" s="1"/>
       <c r="RX150" s="1"/>
     </row>
-    <row r="151" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A151" s="6">
+    <row r="151" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A151" s="2">
         <v>39203</v>
       </c>
-      <c r="B151" s="7">
+      <c r="B151" s="3">
         <v>8.1207326443699546E-2</v>
       </c>
-      <c r="C151" s="9"/>
+      <c r="C151" s="5"/>
       <c r="CG151" s="1"/>
       <c r="CH151" s="1"/>
       <c r="CI151" s="1"/>
@@ -9331,14 +9376,14 @@
       <c r="RM151" s="1"/>
       <c r="RX151" s="1"/>
     </row>
-    <row r="152" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A152" s="6">
+    <row r="152" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A152" s="2">
         <v>39234</v>
       </c>
-      <c r="B152" s="7">
+      <c r="B152" s="3">
         <v>8.2961482672590375E-2</v>
       </c>
-      <c r="C152" s="9"/>
+      <c r="C152" s="5"/>
       <c r="CG152" s="1"/>
       <c r="CH152" s="1"/>
       <c r="CI152" s="1"/>
@@ -9426,14 +9471,14 @@
       <c r="RM152" s="1"/>
       <c r="RX152" s="1"/>
     </row>
-    <row r="153" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A153" s="6">
+    <row r="153" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A153" s="2">
         <v>39264</v>
       </c>
-      <c r="B153" s="7">
+      <c r="B153" s="3">
         <v>8.5322650599013228E-2</v>
       </c>
-      <c r="C153" s="9"/>
+      <c r="C153" s="5"/>
       <c r="CG153" s="1"/>
       <c r="CH153" s="1"/>
       <c r="CI153" s="1"/>
@@ -9521,14 +9566,14 @@
       <c r="RM153" s="1"/>
       <c r="RX153" s="1"/>
     </row>
-    <row r="154" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A154" s="6">
+    <row r="154" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A154" s="2">
         <v>39295</v>
       </c>
-      <c r="B154" s="7">
+      <c r="B154" s="3">
         <v>8.5340133244383914E-2</v>
       </c>
-      <c r="C154" s="9"/>
+      <c r="C154" s="5"/>
       <c r="CG154" s="1"/>
       <c r="CH154" s="1"/>
       <c r="CI154" s="1"/>
@@ -9616,14 +9661,14 @@
       <c r="RM154" s="1"/>
       <c r="RX154" s="1"/>
     </row>
-    <row r="155" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A155" s="6">
+    <row r="155" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A155" s="2">
         <v>39326</v>
       </c>
-      <c r="B155" s="7">
+      <c r="B155" s="3">
         <v>8.8928884093107091E-2</v>
       </c>
-      <c r="C155" s="9"/>
+      <c r="C155" s="5"/>
       <c r="CG155" s="1"/>
       <c r="CH155" s="1"/>
       <c r="CI155" s="1"/>
@@ -9711,14 +9756,14 @@
       <c r="RM155" s="1"/>
       <c r="RX155" s="1"/>
     </row>
-    <row r="156" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A156" s="6">
+    <row r="156" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A156" s="2">
         <v>39356</v>
       </c>
-      <c r="B156" s="7">
+      <c r="B156" s="3">
         <v>8.7744511396229033E-2</v>
       </c>
-      <c r="C156" s="9"/>
+      <c r="C156" s="5"/>
       <c r="CG156" s="1"/>
       <c r="CH156" s="1"/>
       <c r="CI156" s="1"/>
@@ -9806,14 +9851,14 @@
       <c r="RM156" s="1"/>
       <c r="RX156" s="1"/>
     </row>
-    <row r="157" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A157" s="6">
+    <row r="157" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A157" s="2">
         <v>39387</v>
       </c>
-      <c r="B157" s="7">
+      <c r="B157" s="3">
         <v>9.3737830955098772E-2</v>
       </c>
-      <c r="C157" s="9"/>
+      <c r="C157" s="5"/>
       <c r="CG157" s="1"/>
       <c r="CH157" s="1"/>
       <c r="CI157" s="1"/>
@@ -9901,14 +9946,14 @@
       <c r="RM157" s="1"/>
       <c r="RX157" s="1"/>
     </row>
-    <row r="158" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A158" s="6">
+    <row r="158" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A158" s="2">
         <v>39417</v>
       </c>
-      <c r="B158" s="7">
+      <c r="B158" s="3">
         <v>8.671239907127623E-2</v>
       </c>
-      <c r="C158" s="9"/>
+      <c r="C158" s="5"/>
       <c r="CG158" s="1"/>
       <c r="CH158" s="1"/>
       <c r="CI158" s="1"/>
@@ -9996,14 +10041,14 @@
       <c r="RM158" s="1"/>
       <c r="RX158" s="1"/>
     </row>
-    <row r="159" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A159" s="6">
+    <row r="159" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A159" s="2">
         <v>39448</v>
       </c>
-      <c r="B159" s="7">
+      <c r="B159" s="3">
         <v>9.417152259727482E-2</v>
       </c>
-      <c r="C159" s="9"/>
+      <c r="C159" s="5"/>
       <c r="CG159" s="1"/>
       <c r="CH159" s="1"/>
       <c r="CI159" s="1"/>
@@ -10091,14 +10136,14 @@
       <c r="RM159" s="1"/>
       <c r="RX159" s="1"/>
     </row>
-    <row r="160" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A160" s="6">
+    <row r="160" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A160" s="2">
         <v>39479</v>
       </c>
-      <c r="B160" s="7">
+      <c r="B160" s="3">
         <v>9.3871674916660583E-2</v>
       </c>
-      <c r="C160" s="9"/>
+      <c r="C160" s="5"/>
       <c r="CG160" s="1"/>
       <c r="CH160" s="1"/>
       <c r="CI160" s="1"/>
@@ -10186,14 +10231,14 @@
       <c r="RM160" s="1"/>
       <c r="RX160" s="1"/>
     </row>
-    <row r="161" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A161" s="6">
+    <row r="161" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A161" s="2">
         <v>39508</v>
       </c>
-      <c r="B161" s="7">
+      <c r="B161" s="3">
         <v>9.5682797110982654E-2</v>
       </c>
-      <c r="C161" s="9"/>
+      <c r="C161" s="5"/>
       <c r="CG161" s="1"/>
       <c r="CH161" s="1"/>
       <c r="CI161" s="1"/>
@@ -10281,14 +10326,14 @@
       <c r="RM161" s="1"/>
       <c r="RX161" s="1"/>
     </row>
-    <row r="162" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A162" s="6">
+    <row r="162" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A162" s="2">
         <v>39539</v>
       </c>
-      <c r="B162" s="7">
+      <c r="B162" s="3">
         <v>8.9221726200208809E-2</v>
       </c>
-      <c r="C162" s="9"/>
+      <c r="C162" s="5"/>
       <c r="CG162" s="1"/>
       <c r="CH162" s="1"/>
       <c r="CI162" s="1"/>
@@ -10376,14 +10421,14 @@
       <c r="RM162" s="1"/>
       <c r="RX162" s="1"/>
     </row>
-    <row r="163" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A163" s="6">
+    <row r="163" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A163" s="2">
         <v>39569</v>
       </c>
-      <c r="B163" s="7">
+      <c r="B163" s="3">
         <v>8.5276870884392231E-2</v>
       </c>
-      <c r="C163" s="9"/>
+      <c r="C163" s="5"/>
       <c r="CG163" s="1"/>
       <c r="CH163" s="1"/>
       <c r="CI163" s="1"/>
@@ -10471,14 +10516,14 @@
       <c r="RM163" s="1"/>
       <c r="RX163" s="1"/>
     </row>
-    <row r="164" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A164" s="6">
+    <row r="164" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A164" s="2">
         <v>39600</v>
       </c>
-      <c r="B164" s="7">
+      <c r="B164" s="3">
         <v>9.0760799631218497E-2</v>
       </c>
-      <c r="C164" s="9"/>
+      <c r="C164" s="5"/>
       <c r="CG164" s="1"/>
       <c r="CH164" s="1"/>
       <c r="CI164" s="1"/>
@@ -10566,14 +10611,14 @@
       <c r="RM164" s="1"/>
       <c r="RX164" s="1"/>
     </row>
-    <row r="165" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A165" s="6">
+    <row r="165" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A165" s="2">
         <v>39630</v>
       </c>
-      <c r="B165" s="7">
+      <c r="B165" s="3">
         <v>9.0094041432956906E-2</v>
       </c>
-      <c r="C165" s="9"/>
+      <c r="C165" s="5"/>
       <c r="CG165" s="1"/>
       <c r="CH165" s="1"/>
       <c r="CI165" s="1"/>
@@ -10661,14 +10706,14 @@
       <c r="RM165" s="1"/>
       <c r="RX165" s="1"/>
     </row>
-    <row r="166" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A166" s="6">
+    <row r="166" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A166" s="2">
         <v>39661</v>
       </c>
-      <c r="B166" s="7">
+      <c r="B166" s="3">
         <v>9.2978334258690121E-2</v>
       </c>
-      <c r="C166" s="9"/>
+      <c r="C166" s="5"/>
       <c r="CG166" s="1"/>
       <c r="CH166" s="1"/>
       <c r="CI166" s="1"/>
@@ -10756,14 +10801,14 @@
       <c r="RM166" s="1"/>
       <c r="RX166" s="1"/>
     </row>
-    <row r="167" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A167" s="6">
+    <row r="167" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A167" s="2">
         <v>39692</v>
       </c>
-      <c r="B167" s="7">
+      <c r="B167" s="3">
         <v>0.1049190744132513</v>
       </c>
-      <c r="C167" s="9"/>
+      <c r="C167" s="5"/>
       <c r="CG167" s="1"/>
       <c r="CH167" s="1"/>
       <c r="CI167" s="1"/>
@@ -10851,14 +10896,14 @@
       <c r="RM167" s="1"/>
       <c r="RX167" s="1"/>
     </row>
-    <row r="168" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A168" s="6">
+    <row r="168" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A168" s="2">
         <v>39722</v>
       </c>
-      <c r="B168" s="7">
+      <c r="B168" s="3">
         <v>0.1150227873640902</v>
       </c>
-      <c r="C168" s="9"/>
+      <c r="C168" s="5"/>
       <c r="CG168" s="1"/>
       <c r="CH168" s="1"/>
       <c r="CI168" s="1"/>
@@ -10946,14 +10991,14 @@
       <c r="RM168" s="1"/>
       <c r="RX168" s="1"/>
     </row>
-    <row r="169" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A169" s="6">
+    <row r="169" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A169" s="2">
         <v>39753</v>
       </c>
-      <c r="B169" s="7">
+      <c r="B169" s="3">
         <v>0.12713618920136005</v>
       </c>
-      <c r="C169" s="9"/>
+      <c r="C169" s="5"/>
       <c r="CG169" s="1"/>
       <c r="CH169" s="1"/>
       <c r="CI169" s="1"/>
@@ -11041,14 +11086,14 @@
       <c r="RM169" s="1"/>
       <c r="RX169" s="1"/>
     </row>
-    <row r="170" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A170" s="6">
+    <row r="170" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A170" s="2">
         <v>39783</v>
       </c>
-      <c r="B170" s="7">
+      <c r="B170" s="3">
         <v>0.14219604354597082</v>
       </c>
-      <c r="C170" s="9"/>
+      <c r="C170" s="5"/>
       <c r="CG170" s="1"/>
       <c r="CH170" s="1"/>
       <c r="CI170" s="1"/>
@@ -11136,14 +11181,14 @@
       <c r="RM170" s="1"/>
       <c r="RX170" s="1"/>
     </row>
-    <row r="171" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A171" s="6">
+    <row r="171" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A171" s="2">
         <v>39814</v>
       </c>
-      <c r="B171" s="7">
+      <c r="B171" s="3">
         <v>0.13409152093551951</v>
       </c>
-      <c r="C171" s="9"/>
+      <c r="C171" s="5"/>
       <c r="CG171" s="1"/>
       <c r="CH171" s="1"/>
       <c r="CI171" s="1"/>
@@ -11231,14 +11276,14 @@
       <c r="RM171" s="1"/>
       <c r="RX171" s="1"/>
     </row>
-    <row r="172" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A172" s="6">
+    <row r="172" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A172" s="2">
         <v>39845</v>
       </c>
-      <c r="B172" s="7">
+      <c r="B172" s="3">
         <v>0.1323173344014103</v>
       </c>
-      <c r="C172" s="9"/>
+      <c r="C172" s="5"/>
       <c r="CG172" s="1"/>
       <c r="CH172" s="1"/>
       <c r="CI172" s="1"/>
@@ -11326,14 +11371,14 @@
       <c r="RM172" s="1"/>
       <c r="RX172" s="1"/>
     </row>
-    <row r="173" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A173" s="6">
+    <row r="173" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A173" s="2">
         <v>39873</v>
       </c>
-      <c r="B173" s="7">
+      <c r="B173" s="3">
         <v>0.12184780792693525</v>
       </c>
-      <c r="C173" s="9"/>
+      <c r="C173" s="5"/>
       <c r="CG173" s="1"/>
       <c r="CH173" s="1"/>
       <c r="CI173" s="1"/>
@@ -11421,14 +11466,14 @@
       <c r="RM173" s="1"/>
       <c r="RX173" s="1"/>
     </row>
-    <row r="174" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A174" s="6">
+    <row r="174" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A174" s="2">
         <v>39904</v>
       </c>
-      <c r="B174" s="7">
+      <c r="B174" s="3">
         <v>0.1088401890456267</v>
       </c>
-      <c r="C174" s="9"/>
+      <c r="C174" s="5"/>
       <c r="CG174" s="1"/>
       <c r="CH174" s="1"/>
       <c r="CI174" s="1"/>
@@ -11516,14 +11561,14 @@
       <c r="RM174" s="1"/>
       <c r="RX174" s="1"/>
     </row>
-    <row r="175" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A175" s="6">
+    <row r="175" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A175" s="2">
         <v>39934</v>
       </c>
-      <c r="B175" s="7">
+      <c r="B175" s="3">
         <v>0.10207538732969924</v>
       </c>
-      <c r="C175" s="9"/>
+      <c r="C175" s="5"/>
       <c r="CG175" s="1"/>
       <c r="CH175" s="1"/>
       <c r="CI175" s="1"/>
@@ -11611,14 +11656,14 @@
       <c r="RM175" s="1"/>
       <c r="RX175" s="1"/>
     </row>
-    <row r="176" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A176" s="6">
+    <row r="176" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A176" s="2">
         <v>39965</v>
       </c>
-      <c r="B176" s="7">
+      <c r="B176" s="3">
         <v>9.0431157247827659E-2</v>
       </c>
-      <c r="C176" s="9"/>
+      <c r="C176" s="5"/>
       <c r="CG176" s="1"/>
       <c r="CH176" s="1"/>
       <c r="CI176" s="1"/>
@@ -11706,14 +11751,14 @@
       <c r="RM176" s="1"/>
       <c r="RX176" s="1"/>
     </row>
-    <row r="177" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A177" s="6">
+    <row r="177" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A177" s="2">
         <v>39995</v>
       </c>
-      <c r="B177" s="7">
+      <c r="B177" s="3">
         <v>8.8254360455356951E-2</v>
       </c>
-      <c r="C177" s="9"/>
+      <c r="C177" s="5"/>
       <c r="CG177" s="1"/>
       <c r="CH177" s="1"/>
       <c r="CI177" s="1"/>
@@ -11801,14 +11846,14 @@
       <c r="RM177" s="1"/>
       <c r="RX177" s="1"/>
     </row>
-    <row r="178" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A178" s="6">
+    <row r="178" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A178" s="2">
         <v>40026</v>
       </c>
-      <c r="B178" s="7">
+      <c r="B178" s="3">
         <v>8.5062467132288211E-2</v>
       </c>
-      <c r="C178" s="9"/>
+      <c r="C178" s="5"/>
       <c r="CG178" s="1"/>
       <c r="CH178" s="1"/>
       <c r="CI178" s="1"/>
@@ -11896,14 +11941,14 @@
       <c r="RM178" s="1"/>
       <c r="RX178" s="1"/>
     </row>
-    <row r="179" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A179" s="6">
+    <row r="179" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A179" s="2">
         <v>40057</v>
       </c>
-      <c r="B179" s="7">
+      <c r="B179" s="3">
         <v>8.194495980792163E-2</v>
       </c>
-      <c r="C179" s="9"/>
+      <c r="C179" s="5"/>
       <c r="CG179" s="1"/>
       <c r="CH179" s="1"/>
       <c r="CI179" s="1"/>
@@ -11991,14 +12036,14 @@
       <c r="RM179" s="1"/>
       <c r="RX179" s="1"/>
     </row>
-    <row r="180" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A180" s="6">
+    <row r="180" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A180" s="2">
         <v>40087</v>
       </c>
-      <c r="B180" s="7">
+      <c r="B180" s="3">
         <v>8.3103148537463978E-2</v>
       </c>
-      <c r="C180" s="9"/>
+      <c r="C180" s="5"/>
       <c r="CG180" s="1"/>
       <c r="CH180" s="1"/>
       <c r="CI180" s="1"/>
@@ -12086,14 +12131,14 @@
       <c r="RM180" s="1"/>
       <c r="RX180" s="1"/>
     </row>
-    <row r="181" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A181" s="6">
+    <row r="181" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A181" s="2">
         <v>40118</v>
       </c>
-      <c r="B181" s="7">
+      <c r="B181" s="3">
         <v>8.4939307901060079E-2</v>
       </c>
-      <c r="C181" s="9"/>
+      <c r="C181" s="5"/>
       <c r="CG181" s="1"/>
       <c r="CH181" s="1"/>
       <c r="CI181" s="1"/>
@@ -12181,14 +12226,14 @@
       <c r="RM181" s="1"/>
       <c r="RX181" s="1"/>
     </row>
-    <row r="182" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A182" s="6">
+    <row r="182" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A182" s="2">
         <v>40148</v>
       </c>
-      <c r="B182" s="7">
+      <c r="B182" s="3">
         <v>9.1998835222545483E-2</v>
       </c>
-      <c r="C182" s="9"/>
+      <c r="C182" s="5"/>
       <c r="CG182" s="1"/>
       <c r="CH182" s="1"/>
       <c r="CI182" s="1"/>
@@ -12276,14 +12321,14 @@
       <c r="RM182" s="1"/>
       <c r="RX182" s="1"/>
     </row>
-    <row r="183" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A183" s="6">
+    <row r="183" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A183" s="2">
         <v>40179</v>
       </c>
-      <c r="B183" s="7">
+      <c r="B183" s="3">
         <v>9.4406445060834981E-2</v>
       </c>
-      <c r="C183" s="9"/>
+      <c r="C183" s="5"/>
       <c r="CG183" s="1"/>
       <c r="CH183" s="1"/>
       <c r="CI183" s="1"/>
@@ -12371,14 +12416,14 @@
       <c r="RM183" s="1"/>
       <c r="RX183" s="1"/>
     </row>
-    <row r="184" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A184" s="6">
+    <row r="184" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A184" s="2">
         <v>40210</v>
       </c>
-      <c r="B184" s="7">
+      <c r="B184" s="3">
         <v>9.677333010017547E-2</v>
       </c>
-      <c r="C184" s="9"/>
+      <c r="C184" s="5"/>
       <c r="CG184" s="1"/>
       <c r="CH184" s="1"/>
       <c r="CI184" s="1"/>
@@ -12466,14 +12511,14 @@
       <c r="RM184" s="1"/>
       <c r="RX184" s="1"/>
     </row>
-    <row r="185" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A185" s="6">
+    <row r="185" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A185" s="2">
         <v>40238</v>
       </c>
-      <c r="B185" s="7">
+      <c r="B185" s="3">
         <v>0.10525014956324957</v>
       </c>
-      <c r="C185" s="9"/>
+      <c r="C185" s="5"/>
       <c r="CG185" s="1"/>
       <c r="CH185" s="1"/>
       <c r="CI185" s="1"/>
@@ -12561,14 +12606,14 @@
       <c r="RM185" s="1"/>
       <c r="RX185" s="1"/>
     </row>
-    <row r="186" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A186" s="6">
+    <row r="186" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A186" s="2">
         <v>40269</v>
       </c>
-      <c r="B186" s="7">
+      <c r="B186" s="3">
         <v>0.10079451028425426</v>
       </c>
-      <c r="C186" s="9"/>
+      <c r="C186" s="5"/>
       <c r="CG186" s="1"/>
       <c r="CH186" s="1"/>
       <c r="CI186" s="1"/>
@@ -12656,14 +12701,14 @@
       <c r="RM186" s="1"/>
       <c r="RX186" s="1"/>
     </row>
-    <row r="187" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A187" s="6">
+    <row r="187" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A187" s="2">
         <v>40299</v>
       </c>
-      <c r="B187" s="7">
+      <c r="B187" s="3">
         <v>9.7475443102761017E-2</v>
       </c>
-      <c r="C187" s="9"/>
+      <c r="C187" s="5"/>
       <c r="CG187" s="1"/>
       <c r="CH187" s="1"/>
       <c r="CI187" s="1"/>
@@ -12751,14 +12796,14 @@
       <c r="RM187" s="1"/>
       <c r="RX187" s="1"/>
     </row>
-    <row r="188" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A188" s="6">
+    <row r="188" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A188" s="2">
         <v>40330</v>
       </c>
-      <c r="B188" s="7">
+      <c r="B188" s="3">
         <v>0.10575656830811714</v>
       </c>
-      <c r="C188" s="9"/>
+      <c r="C188" s="5"/>
       <c r="CG188" s="1"/>
       <c r="CH188" s="1"/>
       <c r="CI188" s="1"/>
@@ -12846,14 +12891,14 @@
       <c r="RM188" s="1"/>
       <c r="RX188" s="1"/>
     </row>
-    <row r="189" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A189" s="6">
+    <row r="189" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A189" s="2">
         <v>40360</v>
       </c>
-      <c r="B189" s="7">
+      <c r="B189" s="3">
         <v>0.10532947410949854</v>
       </c>
-      <c r="C189" s="9"/>
+      <c r="C189" s="5"/>
       <c r="CG189" s="1"/>
       <c r="CH189" s="1"/>
       <c r="CI189" s="1"/>
@@ -12941,14 +12986,14 @@
       <c r="RM189" s="1"/>
       <c r="RX189" s="1"/>
     </row>
-    <row r="190" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A190" s="6">
+    <row r="190" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A190" s="2">
         <v>40391</v>
       </c>
-      <c r="B190" s="7">
+      <c r="B190" s="3">
         <v>0.10550581781341299</v>
       </c>
-      <c r="C190" s="9"/>
+      <c r="C190" s="5"/>
       <c r="CG190" s="1"/>
       <c r="CH190" s="1"/>
       <c r="CI190" s="1"/>
@@ -13036,14 +13081,14 @@
       <c r="RM190" s="1"/>
       <c r="RX190" s="1"/>
     </row>
-    <row r="191" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A191" s="6">
+    <row r="191" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A191" s="2">
         <v>40422</v>
       </c>
-      <c r="B191" s="7">
+      <c r="B191" s="3">
         <v>0.10964076002117032</v>
       </c>
-      <c r="C191" s="9"/>
+      <c r="C191" s="5"/>
       <c r="CG191" s="1"/>
       <c r="CH191" s="1"/>
       <c r="CI191" s="1"/>
@@ -13131,14 +13176,14 @@
       <c r="RM191" s="1"/>
       <c r="RX191" s="1"/>
     </row>
-    <row r="192" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A192" s="6">
+    <row r="192" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A192" s="2">
         <v>40452</v>
       </c>
-      <c r="B192" s="7">
+      <c r="B192" s="3">
         <v>0.10513412866678648</v>
       </c>
-      <c r="C192" s="9"/>
+      <c r="C192" s="5"/>
       <c r="CG192" s="1"/>
       <c r="CH192" s="1"/>
       <c r="CI192" s="1"/>
@@ -13226,14 +13271,14 @@
       <c r="RM192" s="1"/>
       <c r="RX192" s="1"/>
     </row>
-    <row r="193" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A193" s="6">
+    <row r="193" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A193" s="2">
         <v>40483</v>
       </c>
-      <c r="B193" s="7">
+      <c r="B193" s="3">
         <v>0.10473580686784892</v>
       </c>
-      <c r="C193" s="9"/>
+      <c r="C193" s="5"/>
       <c r="CG193" s="1"/>
       <c r="CH193" s="1"/>
       <c r="CI193" s="1"/>
@@ -13321,14 +13366,14 @@
       <c r="RM193" s="1"/>
       <c r="RX193" s="1"/>
     </row>
-    <row r="194" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A194" s="6">
+    <row r="194" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A194" s="2">
         <v>40513</v>
       </c>
-      <c r="B194" s="7">
+      <c r="B194" s="3">
         <v>9.4346589276028653E-2</v>
       </c>
-      <c r="C194" s="9"/>
+      <c r="C194" s="5"/>
       <c r="CG194" s="1"/>
       <c r="CH194" s="1"/>
       <c r="CI194" s="1"/>
@@ -13416,14 +13461,14 @@
       <c r="RM194" s="1"/>
       <c r="RX194" s="1"/>
     </row>
-    <row r="195" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A195" s="6">
+    <row r="195" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A195" s="2">
         <v>40544</v>
       </c>
-      <c r="B195" s="7">
+      <c r="B195" s="3">
         <v>9.5407238018712093E-2</v>
       </c>
-      <c r="C195" s="9"/>
+      <c r="C195" s="5"/>
       <c r="CG195" s="1"/>
       <c r="CH195" s="1"/>
       <c r="CI195" s="1"/>
@@ -13511,14 +13556,14 @@
       <c r="RM195" s="1"/>
       <c r="RX195" s="1"/>
     </row>
-    <row r="196" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A196" s="6">
+    <row r="196" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A196" s="2">
         <v>40575</v>
       </c>
-      <c r="B196" s="7">
+      <c r="B196" s="3">
         <v>9.3390806727688513E-2</v>
       </c>
-      <c r="C196" s="9"/>
+      <c r="C196" s="5"/>
       <c r="CG196" s="1"/>
       <c r="CH196" s="1"/>
       <c r="CI196" s="1"/>
@@ -13606,14 +13651,14 @@
       <c r="RM196" s="1"/>
       <c r="RX196" s="1"/>
     </row>
-    <row r="197" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A197" s="6">
+    <row r="197" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A197" s="2">
         <v>40603</v>
       </c>
-      <c r="B197" s="7">
+      <c r="B197" s="3">
         <v>9.3441141720405185E-2</v>
       </c>
-      <c r="C197" s="9"/>
+      <c r="C197" s="5"/>
       <c r="CG197" s="1"/>
       <c r="CH197" s="1"/>
       <c r="CI197" s="1"/>
@@ -13701,14 +13746,14 @@
       <c r="RM197" s="1"/>
       <c r="RX197" s="1"/>
     </row>
-    <row r="198" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A198" s="6">
+    <row r="198" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A198" s="2">
         <v>40634</v>
       </c>
-      <c r="B198" s="7">
+      <c r="B198" s="3">
         <v>9.3643791643206381E-2</v>
       </c>
-      <c r="C198" s="9"/>
+      <c r="C198" s="5"/>
       <c r="CG198" s="1"/>
       <c r="CH198" s="1"/>
       <c r="CI198" s="1"/>
@@ -13796,14 +13841,14 @@
       <c r="RM198" s="1"/>
       <c r="RX198" s="1"/>
     </row>
-    <row r="199" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A199" s="6">
+    <row r="199" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A199" s="2">
         <v>40664</v>
       </c>
-      <c r="B199" s="7">
+      <c r="B199" s="3">
         <v>0.10032836280974664</v>
       </c>
-      <c r="C199" s="9"/>
+      <c r="C199" s="5"/>
       <c r="CG199" s="1"/>
       <c r="CH199" s="1"/>
       <c r="CI199" s="1"/>
@@ -13891,14 +13936,14 @@
       <c r="RM199" s="1"/>
       <c r="RX199" s="1"/>
     </row>
-    <row r="200" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A200" s="6">
+    <row r="200" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A200" s="2">
         <v>40695</v>
       </c>
-      <c r="B200" s="7">
+      <c r="B200" s="3">
         <v>9.9388836279557288E-2</v>
       </c>
-      <c r="C200" s="9"/>
+      <c r="C200" s="5"/>
       <c r="CG200" s="1"/>
       <c r="CH200" s="1"/>
       <c r="CI200" s="1"/>
@@ -13986,14 +14031,14 @@
       <c r="RM200" s="1"/>
       <c r="RX200" s="1"/>
     </row>
-    <row r="201" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A201" s="6">
+    <row r="201" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A201" s="2">
         <v>40725</v>
       </c>
-      <c r="B201" s="7">
+      <c r="B201" s="3">
         <v>0.10538607103302287</v>
       </c>
-      <c r="C201" s="9"/>
+      <c r="C201" s="5"/>
       <c r="CG201" s="1"/>
       <c r="CH201" s="1"/>
       <c r="CI201" s="1"/>
@@ -14081,14 +14126,14 @@
       <c r="RM201" s="1"/>
       <c r="RX201" s="1"/>
     </row>
-    <row r="202" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A202" s="6">
+    <row r="202" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A202" s="2">
         <v>40756</v>
       </c>
-      <c r="B202" s="7">
+      <c r="B202" s="3">
         <v>0.11212100068797148</v>
       </c>
-      <c r="C202" s="9"/>
+      <c r="C202" s="5"/>
       <c r="CG202" s="1"/>
       <c r="CH202" s="1"/>
       <c r="CI202" s="1"/>
@@ -14176,14 +14221,14 @@
       <c r="RM202" s="1"/>
       <c r="RX202" s="1"/>
     </row>
-    <row r="203" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A203" s="6">
+    <row r="203" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A203" s="2">
         <v>40787</v>
       </c>
-      <c r="B203" s="7">
+      <c r="B203" s="3">
         <v>0.110785960833959</v>
       </c>
-      <c r="C203" s="9"/>
+      <c r="C203" s="5"/>
       <c r="CG203" s="1"/>
       <c r="CH203" s="1"/>
       <c r="CI203" s="1"/>
@@ -14271,14 +14316,14 @@
       <c r="RM203" s="1"/>
       <c r="RX203" s="1"/>
     </row>
-    <row r="204" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A204" s="6">
+    <row r="204" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A204" s="2">
         <v>40817</v>
       </c>
-      <c r="B204" s="7">
+      <c r="B204" s="3">
         <v>0.10360612595722082</v>
       </c>
-      <c r="C204" s="9"/>
+      <c r="C204" s="5"/>
       <c r="CG204" s="1"/>
       <c r="CH204" s="1"/>
       <c r="CI204" s="1"/>
@@ -14366,14 +14411,14 @@
       <c r="RM204" s="1"/>
       <c r="RX204" s="1"/>
     </row>
-    <row r="205" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A205" s="6">
+    <row r="205" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A205" s="2">
         <v>40848</v>
       </c>
-      <c r="B205" s="7">
+      <c r="B205" s="3">
         <v>0.10488449858019411</v>
       </c>
-      <c r="C205" s="9"/>
+      <c r="C205" s="5"/>
       <c r="CG205" s="1"/>
       <c r="CH205" s="1"/>
       <c r="CI205" s="1"/>
@@ -14461,14 +14506,14 @@
       <c r="RM205" s="1"/>
       <c r="RX205" s="1"/>
     </row>
-    <row r="206" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A206" s="6">
+    <row r="206" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A206" s="2">
         <v>40878</v>
       </c>
-      <c r="B206" s="7">
+      <c r="B206" s="3">
         <v>0.10009455642023066</v>
       </c>
-      <c r="C206" s="9"/>
+      <c r="C206" s="5"/>
       <c r="CG206" s="1"/>
       <c r="CH206" s="1"/>
       <c r="CI206" s="1"/>
@@ -14520,7 +14565,7 @@
       <c r="JL206" s="1"/>
       <c r="JW206" s="1"/>
       <c r="KH206" s="1"/>
-      <c r="KJ206" s="4"/>
+      <c r="KJ206" s="7"/>
       <c r="KS206" s="1"/>
       <c r="LD206" s="1"/>
       <c r="LE206" s="1"/>
@@ -14557,14 +14602,14 @@
       <c r="RM206" s="1"/>
       <c r="RX206" s="1"/>
     </row>
-    <row r="207" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A207" s="6">
+    <row r="207" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A207" s="2">
         <v>40909</v>
       </c>
-      <c r="B207" s="7">
+      <c r="B207" s="3">
         <v>9.6997483527202721E-2</v>
       </c>
-      <c r="C207" s="9"/>
+      <c r="C207" s="5"/>
       <c r="CG207" s="1"/>
       <c r="CH207" s="1"/>
       <c r="CI207" s="1"/>
@@ -14629,7 +14674,7 @@
       <c r="LM207" s="1"/>
       <c r="LO207" s="1"/>
       <c r="LZ207" s="1"/>
-      <c r="MB207" s="4"/>
+      <c r="MB207" s="7"/>
       <c r="MK207" s="1"/>
       <c r="MV207" s="1"/>
       <c r="NG207" s="1"/>
@@ -14653,14 +14698,14 @@
       <c r="RM207" s="1"/>
       <c r="RX207" s="1"/>
     </row>
-    <row r="208" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A208" s="6">
+    <row r="208" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A208" s="2">
         <v>40940</v>
       </c>
-      <c r="B208" s="7">
+      <c r="B208" s="3">
         <v>9.0887604642450229E-2</v>
       </c>
-      <c r="C208" s="9"/>
+      <c r="C208" s="5"/>
       <c r="CG208" s="1"/>
       <c r="CH208" s="1"/>
       <c r="CI208" s="1"/>
@@ -14713,7 +14758,7 @@
       <c r="JW208" s="1"/>
       <c r="KH208" s="1"/>
       <c r="KS208" s="1"/>
-      <c r="KU208" s="4"/>
+      <c r="KU208" s="7"/>
       <c r="LD208" s="1"/>
       <c r="LE208" s="1"/>
       <c r="LF208" s="1"/>
@@ -14727,13 +14772,13 @@
       <c r="LO208" s="1"/>
       <c r="LZ208" s="1"/>
       <c r="MK208" s="1"/>
-      <c r="MM208" s="4"/>
+      <c r="MM208" s="7"/>
       <c r="MV208" s="1"/>
-      <c r="MX208" s="4"/>
+      <c r="MX208" s="7"/>
       <c r="NG208" s="1"/>
       <c r="NR208" s="1"/>
       <c r="OC208" s="1"/>
-      <c r="OE208" s="4"/>
+      <c r="OE208" s="7"/>
       <c r="ON208" s="1"/>
       <c r="OY208" s="1"/>
       <c r="PJ208" s="1"/>
@@ -14752,14 +14797,14 @@
       <c r="RM208" s="1"/>
       <c r="RX208" s="1"/>
     </row>
-    <row r="209" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A209" s="6">
+    <row r="209" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A209" s="2">
         <v>40969</v>
       </c>
-      <c r="B209" s="7">
+      <c r="B209" s="3">
         <v>8.7800298912843522E-2</v>
       </c>
-      <c r="C209" s="9"/>
+      <c r="C209" s="5"/>
       <c r="CG209" s="1"/>
       <c r="CH209" s="1"/>
       <c r="CI209" s="1"/>
@@ -14814,7 +14859,7 @@
       <c r="KS209" s="1"/>
       <c r="LD209" s="1"/>
       <c r="LE209" s="1"/>
-      <c r="LF209" s="4"/>
+      <c r="LF209" s="7"/>
       <c r="LG209" s="1"/>
       <c r="LH209" s="1"/>
       <c r="LI209" s="1"/>
@@ -14832,7 +14877,7 @@
       <c r="ON209" s="1"/>
       <c r="OY209" s="1"/>
       <c r="PJ209" s="1"/>
-      <c r="PL209" s="4"/>
+      <c r="PL209" s="7"/>
       <c r="PU209" s="1"/>
       <c r="PV209" s="1"/>
       <c r="PW209" s="1"/>
@@ -14848,14 +14893,14 @@
       <c r="RM209" s="1"/>
       <c r="RX209" s="1"/>
     </row>
-    <row r="210" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A210" s="6">
+    <row r="210" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A210" s="2">
         <v>41000</v>
       </c>
-      <c r="B210" s="7">
+      <c r="B210" s="3">
         <v>9.5810214550751407E-2</v>
       </c>
-      <c r="C210" s="9"/>
+      <c r="C210" s="5"/>
       <c r="CG210" s="1"/>
       <c r="CH210" s="1"/>
       <c r="CI210" s="1"/>
@@ -14919,18 +14964,18 @@
       <c r="LL210" s="1"/>
       <c r="LM210" s="1"/>
       <c r="LO210" s="1"/>
-      <c r="LQ210" s="4"/>
+      <c r="LQ210" s="7"/>
       <c r="LZ210" s="1"/>
       <c r="MK210" s="1"/>
       <c r="MV210" s="1"/>
       <c r="NG210" s="1"/>
-      <c r="NI210" s="4"/>
+      <c r="NI210" s="7"/>
       <c r="NR210" s="1"/>
-      <c r="NT210" s="4"/>
+      <c r="NT210" s="7"/>
       <c r="OC210" s="1"/>
       <c r="ON210" s="1"/>
       <c r="OY210" s="1"/>
-      <c r="PA210" s="4"/>
+      <c r="PA210" s="7"/>
       <c r="PJ210" s="1"/>
       <c r="PU210" s="1"/>
       <c r="PV210" s="1"/>
@@ -14947,14 +14992,14 @@
       <c r="RM210" s="1"/>
       <c r="RX210" s="1"/>
     </row>
-    <row r="211" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A211" s="6">
+    <row r="211" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A211" s="2">
         <v>41030</v>
       </c>
-      <c r="B211" s="7">
+      <c r="B211" s="3">
         <v>0.10515093938008996</v>
       </c>
-      <c r="C211" s="9"/>
+      <c r="C211" s="5"/>
       <c r="CG211" s="1"/>
       <c r="CH211" s="1"/>
       <c r="CI211" s="1"/>
@@ -15042,14 +15087,14 @@
       <c r="RM211" s="1"/>
       <c r="RX211" s="1"/>
     </row>
-    <row r="212" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A212" s="6">
+    <row r="212" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A212" s="2">
         <v>41061</v>
       </c>
-      <c r="B212" s="7">
+      <c r="B212" s="3">
         <v>9.0817328850805651E-2</v>
       </c>
-      <c r="C212" s="9"/>
+      <c r="C212" s="5"/>
       <c r="CG212" s="1"/>
       <c r="CH212" s="1"/>
       <c r="CI212" s="1"/>
@@ -15120,7 +15165,7 @@
       <c r="NR212" s="1"/>
       <c r="OC212" s="1"/>
       <c r="ON212" s="1"/>
-      <c r="OP212" s="4"/>
+      <c r="OP212" s="7"/>
       <c r="OY212" s="1"/>
       <c r="PJ212" s="1"/>
       <c r="PU212" s="1"/>
@@ -15138,14 +15183,14 @@
       <c r="RM212" s="1"/>
       <c r="RX212" s="1"/>
     </row>
-    <row r="213" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A213" s="6">
+    <row r="213" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A213" s="2">
         <v>41091</v>
       </c>
-      <c r="B213" s="7">
+      <c r="B213" s="3">
         <v>9.198193035468108E-2</v>
       </c>
-      <c r="C213" s="9"/>
+      <c r="C213" s="5"/>
       <c r="CG213" s="1"/>
       <c r="CH213" s="1"/>
       <c r="CI213" s="1"/>
@@ -15233,14 +15278,14 @@
       <c r="RM213" s="1"/>
       <c r="RX213" s="1"/>
     </row>
-    <row r="214" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A214" s="6">
+    <row r="214" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A214" s="2">
         <v>41122</v>
       </c>
-      <c r="B214" s="7">
+      <c r="B214" s="3">
         <v>9.0527591621574741E-2</v>
       </c>
-      <c r="C214" s="9"/>
+      <c r="C214" s="5"/>
       <c r="CG214" s="1"/>
       <c r="CH214" s="1"/>
       <c r="CI214" s="1"/>
@@ -15328,14 +15373,14 @@
       <c r="RM214" s="1"/>
       <c r="RX214" s="1"/>
     </row>
-    <row r="215" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A215" s="6">
+    <row r="215" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A215" s="2">
         <v>41153</v>
       </c>
-      <c r="B215" s="7">
+      <c r="B215" s="3">
         <v>9.321029129473013E-2</v>
       </c>
-      <c r="C215" s="9"/>
+      <c r="C215" s="5"/>
       <c r="CG215" s="1"/>
       <c r="CH215" s="1"/>
       <c r="CI215" s="1"/>
@@ -15410,7 +15455,7 @@
       <c r="PJ215" s="1"/>
       <c r="PU215" s="1"/>
       <c r="PV215" s="1"/>
-      <c r="PW215" s="4"/>
+      <c r="PW215" s="7"/>
       <c r="PX215" s="1"/>
       <c r="PY215" s="1"/>
       <c r="PZ215" s="1"/>
@@ -15423,14 +15468,14 @@
       <c r="RM215" s="1"/>
       <c r="RX215" s="1"/>
     </row>
-    <row r="216" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A216" s="6">
+    <row r="216" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A216" s="2">
         <v>41183</v>
       </c>
-      <c r="B216" s="7">
+      <c r="B216" s="3">
         <v>9.2447998465240086E-2</v>
       </c>
-      <c r="C216" s="9"/>
+      <c r="C216" s="5"/>
       <c r="CG216" s="1"/>
       <c r="CH216" s="1"/>
       <c r="CI216" s="1"/>
@@ -15513,20 +15558,20 @@
       <c r="QB216" s="1"/>
       <c r="QC216" s="1"/>
       <c r="QD216" s="1"/>
-      <c r="QH216" s="4"/>
+      <c r="QH216" s="7"/>
       <c r="QQ216" s="1"/>
       <c r="RB216" s="1"/>
       <c r="RM216" s="1"/>
       <c r="RX216" s="1"/>
     </row>
-    <row r="217" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A217" s="6">
+    <row r="217" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A217" s="2">
         <v>41214</v>
       </c>
-      <c r="B217" s="7">
+      <c r="B217" s="3">
         <v>9.5606034425374312E-2</v>
       </c>
-      <c r="C217" s="9"/>
+      <c r="C217" s="5"/>
       <c r="CG217" s="1"/>
       <c r="CH217" s="1"/>
       <c r="CI217" s="1"/>
@@ -15614,14 +15659,14 @@
       <c r="RM217" s="1"/>
       <c r="RX217" s="1"/>
     </row>
-    <row r="218" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A218" s="6">
+    <row r="218" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A218" s="2">
         <v>41244</v>
       </c>
-      <c r="B218" s="7">
+      <c r="B218" s="3">
         <v>9.1047274906739667E-2</v>
       </c>
-      <c r="C218" s="9"/>
+      <c r="C218" s="5"/>
       <c r="CG218" s="1"/>
       <c r="CH218" s="1"/>
       <c r="CI218" s="1"/>
@@ -15709,14 +15754,14 @@
       <c r="RM218" s="1"/>
       <c r="RX218" s="1"/>
     </row>
-    <row r="219" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A219" s="6">
+    <row r="219" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A219" s="2">
         <v>41275</v>
       </c>
-      <c r="B219" s="7">
+      <c r="B219" s="3">
         <v>8.7449844192482862E-2</v>
       </c>
-      <c r="C219" s="9"/>
+      <c r="C219" s="5"/>
       <c r="CG219" s="1"/>
       <c r="CH219" s="1"/>
       <c r="CI219" s="1"/>
@@ -15804,14 +15849,14 @@
       <c r="RM219" s="1"/>
       <c r="RX219" s="1"/>
     </row>
-    <row r="220" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A220" s="6">
+    <row r="220" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A220" s="2">
         <v>41306</v>
       </c>
-      <c r="B220" s="7">
+      <c r="B220" s="3">
         <v>8.9884574591296298E-2</v>
       </c>
-      <c r="C220" s="9"/>
+      <c r="C220" s="5"/>
       <c r="CG220" s="1"/>
       <c r="CH220" s="1"/>
       <c r="CI220" s="1"/>
@@ -15899,14 +15944,14 @@
       <c r="RM220" s="1"/>
       <c r="RX220" s="1"/>
     </row>
-    <row r="221" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A221" s="6">
+    <row r="221" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A221" s="2">
         <v>41334</v>
       </c>
-      <c r="B221" s="7">
+      <c r="B221" s="3">
         <v>8.3440031175367746E-2</v>
       </c>
-      <c r="C221" s="9"/>
+      <c r="C221" s="5"/>
       <c r="CG221" s="1"/>
       <c r="CH221" s="1"/>
       <c r="CI221" s="1"/>
@@ -15946,11 +15991,11 @@
       <c r="EJ221" s="1"/>
       <c r="EU221" s="1"/>
       <c r="FF221" s="1"/>
-      <c r="FH221" s="4"/>
+      <c r="FH221" s="7"/>
       <c r="FQ221" s="1"/>
-      <c r="FS221" s="4"/>
+      <c r="FS221" s="7"/>
       <c r="GB221" s="1"/>
-      <c r="GD221" s="4"/>
+      <c r="GD221" s="7"/>
       <c r="GM221" s="1"/>
       <c r="GX221" s="1"/>
       <c r="HI221" s="1"/>
@@ -15997,14 +16042,14 @@
       <c r="RM221" s="1"/>
       <c r="RX221" s="1"/>
     </row>
-    <row r="222" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A222" s="6">
+    <row r="222" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A222" s="2">
         <v>41365</v>
       </c>
-      <c r="B222" s="7">
+      <c r="B222" s="3">
         <v>8.4749349865796034E-2</v>
       </c>
-      <c r="C222" s="9"/>
+      <c r="C222" s="5"/>
       <c r="PU222" s="1"/>
       <c r="PV222" s="1"/>
       <c r="PW222" s="1"/>
@@ -16016,14 +16061,14 @@
       <c r="QC222" s="1"/>
       <c r="QD222" s="1"/>
     </row>
-    <row r="223" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A223" s="6">
+    <row r="223" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A223" s="2">
         <v>41395</v>
       </c>
-      <c r="B223" s="7">
+      <c r="B223" s="3">
         <v>8.0522617175596833E-2</v>
       </c>
-      <c r="C223" s="9"/>
+      <c r="C223" s="5"/>
       <c r="PU223" s="1"/>
       <c r="PV223" s="1"/>
       <c r="PW223" s="1"/>
@@ -16035,14 +16080,14 @@
       <c r="QC223" s="1"/>
       <c r="QD223" s="1"/>
     </row>
-    <row r="224" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A224" s="6">
+    <row r="224" spans="1:492" x14ac:dyDescent="0.5">
+      <c r="A224" s="2">
         <v>41426</v>
       </c>
-      <c r="B224" s="7">
+      <c r="B224" s="3">
         <v>7.5014888373605801E-2</v>
       </c>
-      <c r="C224" s="9"/>
+      <c r="C224" s="5"/>
       <c r="PU224" s="1"/>
       <c r="PV224" s="1"/>
       <c r="PW224" s="1"/>
@@ -16054,14 +16099,14 @@
       <c r="QC224" s="1"/>
       <c r="QD224" s="1"/>
     </row>
-    <row r="225" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A225" s="6">
+    <row r="225" spans="1:446" x14ac:dyDescent="0.5">
+      <c r="A225" s="2">
         <v>41456</v>
       </c>
-      <c r="B225" s="7">
+      <c r="B225" s="3">
         <v>7.7769653801373628E-2</v>
       </c>
-      <c r="C225" s="9"/>
+      <c r="C225" s="5"/>
       <c r="PU225" s="1"/>
       <c r="PV225" s="1"/>
       <c r="PW225" s="1"/>
@@ -16073,14 +16118,14 @@
       <c r="QC225" s="1"/>
       <c r="QD225" s="1"/>
     </row>
-    <row r="226" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A226" s="6">
+    <row r="226" spans="1:446" x14ac:dyDescent="0.5">
+      <c r="A226" s="2">
         <v>41487</v>
       </c>
-      <c r="B226" s="7">
+      <c r="B226" s="3">
         <v>7.610915084711764E-2</v>
       </c>
-      <c r="C226" s="9"/>
+      <c r="C226" s="5"/>
       <c r="PU226" s="1"/>
       <c r="PV226" s="1"/>
       <c r="PW226" s="1"/>
@@ -16092,14 +16137,14 @@
       <c r="QC226" s="1"/>
       <c r="QD226" s="1"/>
     </row>
-    <row r="227" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A227" s="6">
+    <row r="227" spans="1:446" x14ac:dyDescent="0.5">
+      <c r="A227" s="2">
         <v>41518</v>
       </c>
-      <c r="B227" s="7">
+      <c r="B227" s="3">
         <v>7.4874558269219044E-2</v>
       </c>
-      <c r="C227" s="9"/>
+      <c r="C227" s="5"/>
       <c r="PU227" s="1"/>
       <c r="PV227" s="1"/>
       <c r="PW227" s="1"/>
@@ -16111,1122 +16156,1213 @@
       <c r="QC227" s="1"/>
       <c r="QD227" s="1"/>
     </row>
-    <row r="228" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A228" s="6">
+    <row r="228" spans="1:446" x14ac:dyDescent="0.5">
+      <c r="A228" s="2">
         <v>41548</v>
       </c>
-      <c r="B228" s="7">
+      <c r="B228" s="3">
         <v>7.3769426049519596E-2</v>
       </c>
-      <c r="C228" s="9"/>
-    </row>
-    <row r="229" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A229" s="6">
+      <c r="C228" s="5"/>
+    </row>
+    <row r="229" spans="1:446" x14ac:dyDescent="0.5">
+      <c r="A229" s="2">
         <v>41579</v>
       </c>
-      <c r="B229" s="7">
+      <c r="B229" s="3">
         <v>7.9046521727427585E-2</v>
       </c>
-      <c r="C229" s="9"/>
-    </row>
-    <row r="230" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A230" s="6">
+      <c r="C229" s="5"/>
+    </row>
+    <row r="230" spans="1:446" x14ac:dyDescent="0.5">
+      <c r="A230" s="2">
         <v>41609</v>
       </c>
-      <c r="B230" s="7">
+      <c r="B230" s="3">
         <v>7.5700418664925911E-2</v>
       </c>
-      <c r="C230" s="9"/>
-    </row>
-    <row r="231" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A231" s="6">
+      <c r="C230" s="5"/>
+    </row>
+    <row r="231" spans="1:446" x14ac:dyDescent="0.5">
+      <c r="A231" s="2">
         <v>41640</v>
       </c>
-      <c r="B231" s="7">
+      <c r="B231" s="3">
         <v>8.4845263579311214E-2</v>
       </c>
-      <c r="C231" s="9"/>
-    </row>
-    <row r="232" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A232" s="6">
+      <c r="C231" s="5"/>
+    </row>
+    <row r="232" spans="1:446" x14ac:dyDescent="0.5">
+      <c r="A232" s="2">
         <v>41671</v>
       </c>
-      <c r="B232" s="7">
+      <c r="B232" s="3">
         <v>8.4096940621738683E-2</v>
       </c>
-      <c r="C232" s="9"/>
-    </row>
-    <row r="233" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A233" s="6">
+      <c r="C232" s="5"/>
+    </row>
+    <row r="233" spans="1:446" x14ac:dyDescent="0.5">
+      <c r="A233" s="2">
         <v>41699</v>
       </c>
-      <c r="B233" s="7">
+      <c r="B233" s="3">
         <v>9.5085723314460191E-2</v>
       </c>
-      <c r="C233" s="9"/>
-    </row>
-    <row r="234" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A234" s="6">
+      <c r="C233" s="5"/>
+    </row>
+    <row r="234" spans="1:446" x14ac:dyDescent="0.5">
+      <c r="A234" s="2">
         <v>41730</v>
       </c>
-      <c r="B234" s="7">
+      <c r="B234" s="3">
         <v>9.6617836562715484E-2</v>
       </c>
-      <c r="C234" s="9"/>
-    </row>
-    <row r="235" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A235" s="6">
+      <c r="C234" s="5"/>
+    </row>
+    <row r="235" spans="1:446" x14ac:dyDescent="0.5">
+      <c r="A235" s="2">
         <v>41760</v>
       </c>
-      <c r="B235" s="7">
+      <c r="B235" s="3">
         <v>9.8701160485128128E-2</v>
       </c>
-      <c r="C235" s="9"/>
-    </row>
-    <row r="236" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A236" s="6">
+      <c r="C235" s="5"/>
+    </row>
+    <row r="236" spans="1:446" x14ac:dyDescent="0.5">
+      <c r="A236" s="2">
         <v>41791</v>
       </c>
-      <c r="B236" s="7">
+      <c r="B236" s="3">
         <v>9.4012780857948633E-2</v>
       </c>
-      <c r="C236" s="9"/>
-    </row>
-    <row r="237" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A237" s="6">
+      <c r="C236" s="5"/>
+    </row>
+    <row r="237" spans="1:446" x14ac:dyDescent="0.5">
+      <c r="A237" s="2">
         <v>41821</v>
       </c>
-      <c r="B237" s="7">
+      <c r="B237" s="3">
         <v>9.5099368892112943E-2</v>
       </c>
-      <c r="C237" s="9"/>
-    </row>
-    <row r="238" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A238" s="6">
+      <c r="C237" s="5"/>
+    </row>
+    <row r="238" spans="1:446" x14ac:dyDescent="0.5">
+      <c r="A238" s="2">
         <v>41852</v>
       </c>
-      <c r="B238" s="7">
+      <c r="B238" s="3">
         <v>9.5412122648390635E-2</v>
       </c>
-      <c r="C238" s="9"/>
-    </row>
-    <row r="239" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A239" s="6">
+      <c r="C238" s="5"/>
+    </row>
+    <row r="239" spans="1:446" x14ac:dyDescent="0.5">
+      <c r="A239" s="2">
         <v>41883</v>
       </c>
-      <c r="B239" s="7">
+      <c r="B239" s="3">
         <v>8.2926779422991759E-2</v>
       </c>
-      <c r="C239" s="9"/>
-    </row>
-    <row r="240" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A240" s="6">
+      <c r="C239" s="5"/>
+    </row>
+    <row r="240" spans="1:446" x14ac:dyDescent="0.5">
+      <c r="A240" s="2">
         <v>41913</v>
       </c>
-      <c r="B240" s="7">
+      <c r="B240" s="3">
         <v>8.7456378540700291E-2</v>
       </c>
-      <c r="C240" s="9"/>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="6">
+      <c r="C240" s="5"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A241" s="2">
         <v>41944</v>
       </c>
-      <c r="B241" s="7">
+      <c r="B241" s="3">
         <v>9.0265236245787389E-2</v>
       </c>
-      <c r="C241" s="9"/>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="6">
+      <c r="C241" s="5"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A242" s="2">
         <v>41974</v>
       </c>
-      <c r="B242" s="7">
+      <c r="B242" s="3">
         <v>9.0600536697358139E-2</v>
       </c>
-      <c r="C242" s="9"/>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="6">
+      <c r="C242" s="5"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A243" s="2">
         <v>42005</v>
       </c>
-      <c r="B243" s="7">
+      <c r="B243" s="3">
         <v>0.10533016732361397</v>
       </c>
-      <c r="C243" s="9"/>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="6">
+      <c r="C243" s="5"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A244" s="2">
         <v>42036</v>
       </c>
-      <c r="B244" s="7">
+      <c r="B244" s="3">
         <v>0.10379332898500528</v>
       </c>
-      <c r="C244" s="9"/>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="6">
+      <c r="C244" s="5"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A245" s="2">
         <v>42064</v>
       </c>
-      <c r="B245" s="7">
+      <c r="B245" s="3">
         <v>0.10646618622058883</v>
       </c>
-      <c r="C245" s="9"/>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="6">
+      <c r="C245" s="5"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A246" s="2">
         <v>42095</v>
       </c>
-      <c r="B246" s="7">
+      <c r="B246" s="3">
         <v>0.10277197692695453</v>
       </c>
-      <c r="C246" s="9"/>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="6">
+      <c r="C246" s="5"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A247" s="2">
         <v>42125</v>
       </c>
-      <c r="B247" s="7">
+      <c r="B247" s="3">
         <v>0.10635981236621354</v>
       </c>
-      <c r="C247" s="9"/>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="6">
+      <c r="C247" s="5"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A248" s="2">
         <v>42156</v>
       </c>
-      <c r="B248" s="7">
+      <c r="B248" s="3">
         <v>0.10243622729858951</v>
       </c>
-      <c r="C248" s="9"/>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="6">
+      <c r="C248" s="5"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A249" s="2">
         <v>42186</v>
       </c>
-      <c r="B249" s="7">
+      <c r="B249" s="3">
         <v>0.10824745812912069</v>
       </c>
-      <c r="C249" s="9"/>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="6">
+      <c r="C249" s="5"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A250" s="2">
         <v>42217</v>
       </c>
-      <c r="B250" s="7">
+      <c r="B250" s="3">
         <v>0.11309406133143306</v>
       </c>
-      <c r="C250" s="9"/>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="6">
+      <c r="C250" s="5"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A251" s="2">
         <v>42248</v>
       </c>
-      <c r="B251" s="7">
+      <c r="B251" s="3">
         <v>9.9532565626062719E-2</v>
       </c>
-      <c r="C251" s="9"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="6">
+      <c r="C251" s="5"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A252" s="2">
         <v>42278</v>
       </c>
-      <c r="B252" s="7">
+      <c r="B252" s="3">
         <v>9.7344609070752625E-2</v>
       </c>
-      <c r="C252" s="9"/>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="6">
+      <c r="C252" s="5"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A253" s="2">
         <v>42309</v>
       </c>
-      <c r="B253" s="7">
+      <c r="B253" s="3">
         <v>9.6030564044979047E-2</v>
       </c>
-      <c r="C253" s="9"/>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="6">
+      <c r="C253" s="5"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A254" s="2">
         <v>42339</v>
       </c>
-      <c r="B254" s="7">
+      <c r="B254" s="3">
         <v>9.7946408382498046E-2</v>
       </c>
-      <c r="C254" s="9"/>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="6">
+      <c r="C254" s="5"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A255" s="2">
         <v>42370</v>
       </c>
-      <c r="B255" s="7">
+      <c r="B255" s="3">
         <v>0.10720725243654623</v>
       </c>
-      <c r="C255" s="9"/>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="6">
+      <c r="C255" s="5"/>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A256" s="2">
         <v>42401</v>
       </c>
-      <c r="B256" s="7">
+      <c r="B256" s="3">
         <v>0.10623913533182294</v>
       </c>
-      <c r="C256" s="9"/>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="6">
+      <c r="C256" s="5"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A257" s="2">
         <v>42430</v>
       </c>
-      <c r="B257" s="7">
+      <c r="B257" s="3">
         <v>9.6613329525373437E-2</v>
       </c>
-      <c r="C257" s="9"/>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="6">
+      <c r="C257" s="5"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A258" s="2">
         <v>42461</v>
       </c>
-      <c r="B258" s="7">
+      <c r="B258" s="3">
         <v>9.07458717712184E-2</v>
       </c>
-      <c r="C258" s="9"/>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="6">
+      <c r="C258" s="5"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A259" s="2">
         <v>42491</v>
       </c>
-      <c r="B259" s="7">
+      <c r="B259" s="3">
         <v>8.1503302413437381E-2</v>
       </c>
-      <c r="C259" s="9"/>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="6">
+      <c r="C259" s="5"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A260" s="2">
         <v>42522</v>
       </c>
-      <c r="B260" s="7">
+      <c r="B260" s="3">
         <v>8.4903302413437381E-2</v>
       </c>
-      <c r="C260" s="9"/>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="6">
+      <c r="C260" s="5"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A261" s="2">
         <v>42552</v>
       </c>
-      <c r="B261" s="7">
+      <c r="B261" s="3">
         <v>7.845432079176308E-2</v>
       </c>
-      <c r="C261" s="9"/>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="6">
+      <c r="C261" s="5"/>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A262" s="2">
         <v>42583</v>
       </c>
-      <c r="B262" s="7">
+      <c r="B262" s="3">
         <v>7.7005107317431515E-2</v>
       </c>
-      <c r="C262" s="9"/>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="6">
+      <c r="C262" s="5"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A263" s="2">
         <v>42614</v>
       </c>
-      <c r="B263" s="7">
+      <c r="B263" s="3">
         <v>7.9062490141365058E-2</v>
       </c>
-      <c r="C263" s="9"/>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="6">
+      <c r="C263" s="5"/>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A264" s="2">
         <v>42644</v>
       </c>
-      <c r="B264" s="7">
+      <c r="B264" s="3">
         <v>9.0803823058582978E-2</v>
       </c>
-      <c r="C264" s="9"/>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="6">
+      <c r="C264" s="5"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A265" s="2">
         <v>42675</v>
       </c>
-      <c r="B265" s="7">
+      <c r="B265" s="3">
         <v>8.1366322142554626E-2</v>
       </c>
-      <c r="C265" s="9"/>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="6">
+      <c r="C265" s="5"/>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A266" s="2">
         <v>42705</v>
       </c>
-      <c r="B266" s="7">
+      <c r="B266" s="3">
         <v>8.5524440182112194E-2</v>
       </c>
-      <c r="C266" s="9"/>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="6">
+      <c r="C266" s="5"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A267" s="2">
         <v>42736</v>
       </c>
-      <c r="B267" s="7">
+      <c r="B267" s="3">
         <v>8.3374527020277533E-2</v>
       </c>
-      <c r="C267" s="9"/>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="6">
+      <c r="C267" s="5"/>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A268" s="2">
         <v>42767</v>
       </c>
-      <c r="B268" s="7">
+      <c r="B268" s="3">
         <v>8.2618737455347563E-2</v>
       </c>
-      <c r="C268" s="9"/>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="6">
+      <c r="C268" s="5"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A269" s="2">
         <v>42795</v>
       </c>
-      <c r="B269" s="7">
+      <c r="B269" s="3">
         <v>8.2301802120567966E-2</v>
       </c>
-      <c r="C269" s="9"/>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="6">
+      <c r="C269" s="5"/>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A270" s="2">
         <v>42826</v>
       </c>
-      <c r="B270" s="7">
+      <c r="B270" s="3">
         <v>7.9480761202343708E-2</v>
       </c>
-      <c r="C270" s="9"/>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="6">
+      <c r="C270" s="5"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A271" s="2">
         <v>42856</v>
       </c>
-      <c r="B271" s="7">
+      <c r="B271" s="3">
         <v>8.3960752894154167E-2</v>
       </c>
-      <c r="C271" s="9"/>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="6">
+      <c r="C271" s="5"/>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A272" s="2">
         <v>42887</v>
       </c>
-      <c r="B272" s="7">
+      <c r="B272" s="3">
         <v>8.2181900156117982E-2</v>
       </c>
-      <c r="C272" s="9"/>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="6">
+      <c r="C272" s="5"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A273" s="2">
         <v>42917</v>
       </c>
-      <c r="B273" s="7">
+      <c r="B273" s="3">
         <v>7.8582383645718207E-2</v>
       </c>
-      <c r="C273" s="9"/>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="6">
+      <c r="C273" s="5"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A274" s="2">
         <v>42948</v>
       </c>
-      <c r="B274" s="7">
+      <c r="B274" s="3">
         <v>7.3514830121311145E-2</v>
       </c>
-      <c r="C274" s="9"/>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="6">
+      <c r="C274" s="5"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A275" s="2">
         <v>42979</v>
       </c>
-      <c r="B275" s="7">
+      <c r="B275" s="3">
         <v>7.1798584083836187E-2</v>
       </c>
-      <c r="C275" s="9"/>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="6">
+      <c r="C275" s="5"/>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A276" s="2">
         <v>43009</v>
       </c>
-      <c r="B276" s="7">
+      <c r="B276" s="3">
         <v>7.0893601810297649E-2</v>
       </c>
-      <c r="C276" s="9"/>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="6">
+      <c r="C276" s="5"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A277" s="2">
         <v>43040</v>
       </c>
-      <c r="B277" s="7">
+      <c r="B277" s="3">
         <v>6.1052757033422195E-2</v>
       </c>
-      <c r="C277" s="9"/>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="6">
+      <c r="C277" s="5"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A278" s="2">
         <v>43070</v>
       </c>
-      <c r="B278" s="7">
+      <c r="B278" s="3">
         <v>6.7122786831106646E-2</v>
       </c>
-      <c r="C278" s="9"/>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="6">
+      <c r="C278" s="5"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A279" s="2">
         <v>43101</v>
       </c>
-      <c r="B279" s="7">
+      <c r="B279" s="3">
         <v>5.7519098552337958E-2</v>
       </c>
-      <c r="C279" s="9"/>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="6">
+      <c r="C279" s="5"/>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A280" s="2">
         <v>43132</v>
       </c>
-      <c r="B280" s="7">
+      <c r="B280" s="3">
         <v>6.5520472026066215E-2</v>
       </c>
-      <c r="C280" s="9"/>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="6">
+      <c r="C280" s="5"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A281" s="2">
         <v>43160</v>
       </c>
-      <c r="B281" s="7">
+      <c r="B281" s="3">
         <v>7.2125770364620007E-2</v>
       </c>
-      <c r="C281" s="9"/>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="6">
+      <c r="C281" s="5"/>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A282" s="2">
         <v>43191</v>
       </c>
-      <c r="B282" s="7">
+      <c r="B282" s="3">
         <v>6.4064244291655609E-2</v>
       </c>
-      <c r="C282" s="9"/>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="6">
+      <c r="C282" s="5"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A283" s="2">
         <v>43221</v>
       </c>
-      <c r="B283" s="7">
+      <c r="B283" s="3">
         <v>7.1824635819149038E-2</v>
       </c>
-      <c r="C283" s="9"/>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="6">
+      <c r="C283" s="5"/>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A284" s="2">
         <v>43252</v>
       </c>
-      <c r="B284" s="7">
+      <c r="B284" s="3">
         <v>7.9775179773577412E-2</v>
       </c>
-      <c r="C284" s="9"/>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="6">
+      <c r="C284" s="5"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A285" s="2">
         <v>43282</v>
       </c>
-      <c r="B285" s="7">
+      <c r="B285" s="3">
         <v>9.1939861515753868E-2</v>
       </c>
-      <c r="C285" s="9"/>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="6">
+      <c r="C285" s="5"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A286" s="2">
         <v>43313</v>
       </c>
-      <c r="B286" s="7">
+      <c r="B286" s="3">
         <v>0.10101989540599204</v>
       </c>
-      <c r="C286" s="9"/>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="6">
+      <c r="C286" s="5"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A287" s="2">
         <v>43344</v>
       </c>
-      <c r="B287" s="7">
+      <c r="B287" s="3">
         <v>0.10496376393363561</v>
       </c>
-      <c r="C287" s="9"/>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="6">
+      <c r="C287" s="5"/>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A288" s="2">
         <v>43374</v>
       </c>
-      <c r="B288" s="7">
+      <c r="B288" s="3">
         <v>6.866534805367612E-2</v>
       </c>
-      <c r="C288" s="9"/>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="6">
+      <c r="C288" s="5"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A289" s="2">
         <v>43405</v>
       </c>
-      <c r="B289" s="7">
+      <c r="B289" s="3">
         <v>7.7599591244769228E-2</v>
       </c>
-      <c r="C289" s="9"/>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="6">
+      <c r="C289" s="5"/>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A290" s="2">
         <v>43435</v>
       </c>
-      <c r="B290" s="7">
+      <c r="B290" s="3">
         <v>7.6296518904752947E-2</v>
       </c>
-      <c r="C290" s="9"/>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="6">
+      <c r="C290" s="5"/>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A291" s="2">
         <v>43466</v>
       </c>
-      <c r="B291" s="7">
+      <c r="B291" s="3">
         <v>7.1150211864005483E-2</v>
       </c>
-      <c r="C291" s="9"/>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="6">
+      <c r="C291" s="5"/>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A292" s="2">
         <v>43497</v>
       </c>
-      <c r="B292" s="7">
+      <c r="B292" s="3">
         <v>7.4978703434071342E-2</v>
       </c>
-      <c r="C292" s="9"/>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="6">
+      <c r="C292" s="5"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A293" s="2">
         <v>43525</v>
       </c>
-      <c r="B293" s="7">
+      <c r="B293" s="3">
         <v>8.1082222580664831E-2</v>
       </c>
-      <c r="C293" s="9"/>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="6">
+      <c r="C293" s="5"/>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A294" s="2">
         <v>43556</v>
       </c>
-      <c r="B294" s="7">
+      <c r="B294" s="3">
         <v>8.0864791172512426E-2</v>
       </c>
-      <c r="C294" s="9"/>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="6">
+      <c r="C294" s="5"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A295" s="2">
         <v>43586</v>
       </c>
-      <c r="B295" s="7">
+      <c r="B295" s="3">
         <v>8.7764304038109517E-2</v>
       </c>
-      <c r="C295" s="9"/>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="6">
+      <c r="C295" s="5"/>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A296" s="2">
         <v>43617</v>
       </c>
-      <c r="B296" s="7">
+      <c r="B296" s="3">
         <v>8.5839178787788323E-2</v>
       </c>
-      <c r="C296" s="9"/>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="6">
+      <c r="C296" s="5"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A297" s="2">
         <v>43647</v>
       </c>
-      <c r="B297" s="7">
+      <c r="B297" s="3">
         <v>8.9544717916765409E-2</v>
       </c>
-      <c r="C297" s="9"/>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="6">
+      <c r="C297" s="5"/>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A298" s="2">
         <v>43678</v>
       </c>
-      <c r="B298" s="7">
+      <c r="B298" s="3">
         <v>9.687272744274146E-2</v>
       </c>
-      <c r="C298" s="9"/>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="6">
+      <c r="C298" s="5"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A299" s="2">
         <v>43709</v>
       </c>
-      <c r="B299" s="7">
+      <c r="B299" s="3">
         <v>9.4565670394992141E-2</v>
       </c>
-      <c r="C299" s="9"/>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="6">
+      <c r="C299" s="5"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A300" s="2">
         <v>43739</v>
       </c>
-      <c r="B300" s="7">
+      <c r="B300" s="3">
         <v>9.5998871332297536E-2</v>
       </c>
-      <c r="C300" s="9"/>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="6">
+      <c r="C300" s="5"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A301" s="2">
         <v>43770</v>
       </c>
-      <c r="B301" s="7">
+      <c r="B301" s="3">
         <v>9.0410180385752506E-2</v>
       </c>
-      <c r="C301" s="9"/>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="6">
+      <c r="C301" s="5"/>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A302" s="2">
         <v>43800</v>
       </c>
-      <c r="B302" s="7">
+      <c r="B302" s="3">
         <v>8.0346430039285821E-2</v>
       </c>
-      <c r="C302" s="9"/>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="6">
+      <c r="C302" s="5"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A303" s="2">
         <v>43831</v>
       </c>
-      <c r="B303" s="7">
+      <c r="B303" s="3">
         <v>8.8138805128154862E-2</v>
       </c>
-      <c r="C303" s="9"/>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="6">
+      <c r="C303" s="5"/>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A304" s="2">
         <v>43862</v>
       </c>
-      <c r="B304" s="7">
+      <c r="B304" s="3">
         <v>9.3984258626188408E-2</v>
       </c>
-      <c r="C304" s="9"/>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="6">
+      <c r="C304" s="5"/>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A305" s="2">
         <v>43891</v>
       </c>
-      <c r="B305" s="7">
+      <c r="B305" s="3">
         <v>0.11444455602995118</v>
       </c>
-      <c r="C305" s="9"/>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="6">
+      <c r="C305" s="5"/>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A306" s="2">
         <v>43922</v>
       </c>
-      <c r="B306" s="7">
+      <c r="B306" s="3">
         <v>0.11883485001315314</v>
       </c>
-      <c r="C306" s="9"/>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="6">
+      <c r="C306" s="5"/>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A307" s="2">
         <v>43952</v>
       </c>
-      <c r="B307" s="7">
+      <c r="B307" s="3">
         <v>0.10802006518576782</v>
       </c>
-      <c r="C307" s="9"/>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="6">
+      <c r="C307" s="5"/>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A308" s="2">
         <v>43983</v>
       </c>
-      <c r="B308" s="7">
+      <c r="B308" s="3">
         <v>0.10150000000000001</v>
       </c>
-      <c r="C308" s="9"/>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="6">
+      <c r="C308" s="5"/>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A309" s="2">
         <v>44013</v>
       </c>
-      <c r="B309" s="7">
+      <c r="B309" s="3">
         <v>0.10394071190796175</v>
       </c>
-      <c r="C309" s="9"/>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="6">
+      <c r="C309" s="5"/>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A310" s="2">
         <v>44044</v>
       </c>
-      <c r="B310" s="7">
+      <c r="B310" s="3">
         <v>9.8747906968658955E-2</v>
       </c>
-      <c r="C310" s="9"/>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="6">
+      <c r="C310" s="5"/>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A311" s="2">
         <v>44075</v>
       </c>
-      <c r="B311" s="7">
+      <c r="B311" s="3">
         <v>0.10280377344670942</v>
       </c>
-      <c r="C311" s="9"/>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="6">
+      <c r="C311" s="5"/>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A312" s="2">
         <v>44105</v>
       </c>
-      <c r="B312" s="7">
+      <c r="B312" s="3">
         <v>0.1003081555378784</v>
       </c>
-      <c r="C312" s="9"/>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="6">
+      <c r="C312" s="5"/>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A313" s="2">
         <v>44136</v>
       </c>
-      <c r="B313" s="7">
+      <c r="B313" s="3">
         <v>9.4781090636132159E-2</v>
       </c>
-      <c r="C313" s="9"/>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="6">
+      <c r="C313" s="5"/>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A314" s="2">
         <v>44166</v>
       </c>
-      <c r="B314" s="7">
+      <c r="B314" s="3">
         <v>9.9688114787269883E-2</v>
       </c>
-      <c r="C314" s="9"/>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="6">
+      <c r="C314" s="5"/>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A315" s="2">
         <v>44197</v>
       </c>
-      <c r="B315" s="7">
+      <c r="B315" s="3">
         <v>0.10345953791176479</v>
       </c>
-      <c r="C315" s="9"/>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="6">
+      <c r="C315" s="5"/>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A316" s="2">
         <v>44228</v>
       </c>
-      <c r="B316" s="7">
+      <c r="B316" s="3">
         <v>9.9036976535253174E-2</v>
       </c>
-      <c r="C316" s="9"/>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="6">
+      <c r="C316" s="5"/>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A317" s="2">
         <v>44256</v>
       </c>
-      <c r="B317" s="7">
+      <c r="B317" s="3">
         <v>0.11202004609682872</v>
       </c>
-      <c r="C317" s="9"/>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="6">
+      <c r="C317" s="5"/>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A318" s="2">
         <v>44287</v>
       </c>
-      <c r="B318" s="7">
+      <c r="B318" s="3">
         <v>0.1105</v>
       </c>
-      <c r="C318" s="9"/>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="6">
+      <c r="C318" s="5"/>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A319" s="2">
         <v>44317</v>
       </c>
-      <c r="B319" s="7">
+      <c r="B319" s="3">
         <v>0.103756060197642</v>
       </c>
-      <c r="C319" s="9"/>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="6">
+      <c r="C319" s="5"/>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A320" s="2">
         <v>44348</v>
       </c>
-      <c r="B320" s="7">
+      <c r="B320" s="3">
         <v>0.11288777024068533</v>
       </c>
-      <c r="C320" s="9"/>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="6">
+      <c r="C320" s="5"/>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A321" s="2">
         <v>44378</v>
       </c>
-      <c r="B321" s="7">
+      <c r="B321" s="3">
         <v>0.1217</v>
       </c>
-      <c r="C321" s="9"/>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="6">
+      <c r="C321" s="5"/>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A322" s="2">
         <v>44409</v>
       </c>
-      <c r="B322" s="7">
+      <c r="B322" s="3">
         <v>0.11860470570232673</v>
       </c>
-      <c r="C322" s="9"/>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="6">
+      <c r="C322" s="5"/>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A323" s="2">
         <v>44440</v>
       </c>
-      <c r="B323" s="7">
+      <c r="B323" s="3">
         <v>0.15321467349306883</v>
       </c>
-      <c r="C323" s="9"/>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="6">
+      <c r="C323" s="5"/>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A324" s="2">
         <v>44470</v>
       </c>
-      <c r="B324" s="7">
+      <c r="B324" s="3">
         <v>0.1565</v>
       </c>
-      <c r="C324" s="9"/>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="6">
+      <c r="C324" s="5"/>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A325" s="2">
         <v>44501</v>
       </c>
-      <c r="B325" s="7">
+      <c r="B325" s="3">
         <v>0.15480116295464194</v>
       </c>
-      <c r="C325" s="9"/>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="6">
+      <c r="C325" s="5"/>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A326" s="2">
         <v>44531</v>
       </c>
-      <c r="B326" s="7">
+      <c r="B326" s="3">
         <v>0.18086975473681763</v>
       </c>
-      <c r="C326" s="9"/>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="6">
+      <c r="C326" s="5"/>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A327" s="2">
         <v>44562</v>
       </c>
-      <c r="B327" s="7">
+      <c r="B327" s="3">
         <v>0.15203711549166959</v>
       </c>
-      <c r="C327" s="9"/>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="6">
+      <c r="C327" s="5"/>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A328" s="2">
         <v>44593</v>
       </c>
-      <c r="B328" s="7">
+      <c r="B328" s="3">
         <v>0.15045086518646858</v>
       </c>
-      <c r="C328" s="9"/>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="6">
+      <c r="C328" s="5"/>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A329" s="2">
         <v>44621</v>
       </c>
-      <c r="B329" s="7">
+      <c r="B329" s="3">
         <v>0.13402699778646815</v>
       </c>
-      <c r="C329" s="9"/>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="6">
+      <c r="C329" s="5"/>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A330" s="2">
         <v>44652</v>
       </c>
-      <c r="B330" s="7">
+      <c r="B330" s="3">
         <v>0.13661550466927599</v>
       </c>
-      <c r="C330" s="9"/>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="6">
+      <c r="C330" s="5"/>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A331" s="2">
         <v>44682</v>
       </c>
-      <c r="B331" s="7">
+      <c r="B331" s="3">
         <v>0.1321</v>
       </c>
-      <c r="C331" s="9"/>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="6">
+      <c r="C331" s="5"/>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A332" s="2">
         <v>44713</v>
       </c>
-      <c r="B332" s="7">
+      <c r="B332" s="3">
         <v>0.16510000000000002</v>
       </c>
-      <c r="C332" s="9"/>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="6">
+      <c r="C332" s="5"/>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A333" s="2">
         <v>44743</v>
       </c>
-      <c r="B333" s="7">
+      <c r="B333" s="3">
         <v>0.1585</v>
       </c>
-      <c r="C333" s="9"/>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="6">
+      <c r="C333" s="5"/>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A334" s="2">
         <v>44774</v>
       </c>
-      <c r="B334" s="7">
+      <c r="B334" s="3">
         <v>0.1331</v>
       </c>
-      <c r="C334" s="9"/>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="6">
+      <c r="C334" s="5"/>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A335" s="2">
         <v>44805</v>
       </c>
-      <c r="B335" s="7">
+      <c r="B335" s="3">
         <v>0.14630000000000001</v>
       </c>
-      <c r="C335" s="9"/>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="6">
+      <c r="C335" s="5"/>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A336" s="2">
         <v>44835</v>
       </c>
-      <c r="B336" s="7">
+      <c r="B336" s="3">
         <v>0.1197</v>
       </c>
-      <c r="C336" s="9"/>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" s="6">
+      <c r="C336" s="5"/>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A337" s="2">
         <v>44866</v>
       </c>
-      <c r="B337" s="7">
+      <c r="B337" s="3">
         <v>0.1177</v>
       </c>
-      <c r="C337" s="9"/>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="6">
+      <c r="C337" s="5"/>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A338" s="2">
         <v>44896</v>
       </c>
-      <c r="B338" s="7">
-        <v>0.1172183756433729</v>
-      </c>
-      <c r="C338" s="9"/>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="6">
+      <c r="B338" s="3">
+        <v>0.119570950843835</v>
+      </c>
+      <c r="C338" s="5"/>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A339" s="2">
         <v>44927</v>
       </c>
-      <c r="B339" s="7">
-        <v>0.112566</v>
-      </c>
-      <c r="C339" s="9"/>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="6">
+      <c r="B339" s="3">
+        <v>0.117893919965138</v>
+      </c>
+      <c r="C339" s="5"/>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A340" s="2">
         <v>44958</v>
       </c>
-      <c r="B340" s="7">
-        <v>0.10406600000000001</v>
-      </c>
-      <c r="C340" s="9"/>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" s="6">
+      <c r="B340" s="3">
+        <v>0.114166215748151</v>
+      </c>
+      <c r="C340" s="5"/>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A341" s="2">
         <v>44986</v>
       </c>
-      <c r="B341" s="7">
-        <v>0.100060632666334</v>
-      </c>
-      <c r="C341" s="9"/>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" s="6">
+      <c r="B341" s="3">
+        <v>0.106506091149822</v>
+      </c>
+      <c r="C341" s="5"/>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A342" s="2">
         <v>45017</v>
       </c>
-      <c r="B342" s="7">
-        <v>9.7161250237506505E-2</v>
-      </c>
-      <c r="C342" s="9"/>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" s="6">
+      <c r="B342" s="3">
+        <v>0.104972619878797</v>
+      </c>
+      <c r="C342" s="5"/>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A343" s="2">
         <v>45047</v>
       </c>
-      <c r="B343" s="7">
-        <v>9.6838061660370997E-2</v>
-      </c>
-      <c r="C343" s="9"/>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="6">
+      <c r="B343" s="3">
+        <v>0.106212619878797</v>
+      </c>
+      <c r="C343" s="5"/>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A344" s="2">
         <v>45078</v>
       </c>
-      <c r="B344" s="7">
-        <v>8.4097029271563706E-2</v>
-      </c>
-      <c r="C344" s="9"/>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="6">
+      <c r="B344" s="3">
+        <v>8.9786943876921502E-2</v>
+      </c>
+      <c r="C344" s="5"/>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A345" s="2">
         <v>45108</v>
       </c>
-      <c r="B345" s="7">
-        <v>7.9421854001553702E-2</v>
-      </c>
-      <c r="C345" s="9"/>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="6">
+      <c r="B345" s="3">
+        <v>8.5042290284176397E-2</v>
+      </c>
+      <c r="C345" s="5"/>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A346" s="2">
         <v>45139</v>
       </c>
-      <c r="B346" s="7">
-        <v>8.8703735811575105E-2</v>
-      </c>
-      <c r="C346" s="9"/>
-      <c r="D346" s="2"/>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="6">
+      <c r="B346" s="3">
+        <v>9.3402828335221205E-2</v>
+      </c>
+      <c r="C346" s="5"/>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A347" s="2">
         <v>45170</v>
       </c>
-      <c r="B347" s="7">
-        <v>8.69610556503468E-2</v>
-      </c>
-      <c r="C347" s="9"/>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="6">
+      <c r="B347" s="3">
+        <v>9.3593759783569305E-2</v>
+      </c>
+      <c r="C347" s="5"/>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A348" s="2">
         <v>45200</v>
       </c>
-      <c r="B348" s="7">
-        <v>8.5154952330852907E-2</v>
-      </c>
-      <c r="C348" s="9"/>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="6">
+      <c r="B348" s="3">
+        <v>8.9448833444429304E-2</v>
+      </c>
+      <c r="C348" s="5"/>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A349" s="2">
         <v>45231</v>
       </c>
-      <c r="B349" s="7">
-        <v>9.2767735220062306E-2</v>
-      </c>
-      <c r="C349" s="9"/>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B352" s="10"/>
-      <c r="C352" s="9"/>
-    </row>
-    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B353" s="10"/>
-      <c r="C353" s="9"/>
-    </row>
-    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B354" s="11"/>
-      <c r="C354" s="9"/>
-    </row>
-    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C355" s="9"/>
-    </row>
-    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C356" s="9"/>
+      <c r="B349" s="3">
+        <v>9.54667785258735E-2</v>
+      </c>
+      <c r="C349" s="5"/>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A350" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B350" s="3">
+        <v>9.2670036787301999E-2</v>
+      </c>
+      <c r="C350" s="5"/>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A351" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B351" s="3">
+        <v>8.9115758120277305E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A352" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B352" s="3">
+        <v>8.9552263562969095E-2</v>
+      </c>
+      <c r="C352" s="5"/>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A353" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B353" s="3">
+        <v>9.1546890323989105E-2</v>
+      </c>
+      <c r="C353" s="5"/>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A354" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B354" s="3">
+        <v>8.8194059924412899E-2</v>
+      </c>
+      <c r="C354" s="5"/>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A355" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B355" s="3">
+        <v>9.31940896021691E-2</v>
+      </c>
+      <c r="C355" s="5"/>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A356" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B356" s="3">
+        <v>9.9626160666037494E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A357" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B357" s="3">
+        <v>9.8254086785083294E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A358" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B358" s="3">
+        <v>9.9822265355109505E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A359" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B359" s="3">
+        <v>8.7638597939404303E-2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A360" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B360" s="3">
+        <v>8.7543885983804498E-2</v>
+      </c>
+      <c r="C360" s="5"/>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A361" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B361" s="3">
+        <v>9.6474622830165099E-2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A362" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B362" s="3">
+        <v>9.7281775111367597E-2</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:B2" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/teaching/financial_strategy/files/epr.xlsx
+++ b/teaching/financial_strategy/files/epr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EEF50E-AA7A-4375-A191-BB95793E54D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E1FB44-058E-47C6-AB1B-B4D2A8009182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="-14730" windowWidth="21600" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$2:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -50,12 +63,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -234,10 +249,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Planilha1!$A$3:$A$378</c:f>
+              <c:f>Planilha1!$A$3:$A$377</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="376"/>
+                <c:ptCount val="375"/>
                 <c:pt idx="0">
                   <c:v>34700</c:v>
                 </c:pt>
@@ -1317,16 +1332,34 @@
                 </c:pt>
                 <c:pt idx="359">
                   <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>45717</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>45809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$3:$B$378</c:f>
+              <c:f>Planilha1!$B$3:$B$377</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="376"/>
+                <c:ptCount val="375"/>
                 <c:pt idx="0">
                   <c:v>3.5906071097335332E-2</c:v>
                 </c:pt>
@@ -2406,6 +2439,24 @@
                 </c:pt>
                 <c:pt idx="359">
                   <c:v>9.7281775111367597E-2</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>9.1050724636227903E-2</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>9.5637638893887003E-2</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>8.6577396608569099E-2</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>8.3840484764512405E-2</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>8.2249927570815506E-2</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>8.12906259190323E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3487,26 +3538,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:RX362"/>
+  <dimension ref="A1:RX368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="A367" sqref="A367:B368"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.46875" customWidth="1"/>
-    <col min="5" max="5" width="12.46875" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="40" max="40" width="9" customWidth="1"/>
-    <col min="498" max="498" width="9.1171875" customWidth="1"/>
+    <col min="498" max="498" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:492" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3545,7 +3596,7 @@
       <c r="RM2" s="1"/>
       <c r="RX2" s="1"/>
     </row>
-    <row r="3" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>34700</v>
       </c>
@@ -3583,7 +3634,7 @@
       <c r="RM3" s="1"/>
       <c r="RX3" s="1"/>
     </row>
-    <row r="4" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>34731</v>
       </c>
@@ -3621,7 +3672,7 @@
       <c r="RM4" s="1"/>
       <c r="RX4" s="1"/>
     </row>
-    <row r="5" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>34759</v>
       </c>
@@ -3658,7 +3709,7 @@
       <c r="RM5" s="1"/>
       <c r="RX5" s="1"/>
     </row>
-    <row r="6" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>34790</v>
       </c>
@@ -3693,7 +3744,7 @@
       <c r="RB6" s="1"/>
       <c r="RM6" s="1"/>
     </row>
-    <row r="7" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>34820</v>
       </c>
@@ -3727,7 +3778,7 @@
       <c r="RB7" s="1"/>
       <c r="RM7" s="1"/>
     </row>
-    <row r="8" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>34851</v>
       </c>
@@ -3761,7 +3812,7 @@
       <c r="RB8" s="1"/>
       <c r="RM8" s="1"/>
     </row>
-    <row r="9" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>34881</v>
       </c>
@@ -3785,7 +3836,7 @@
       <c r="RB9" s="1"/>
       <c r="RM9" s="1"/>
     </row>
-    <row r="10" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>34912</v>
       </c>
@@ -3808,7 +3859,7 @@
       <c r="RB10" s="1"/>
       <c r="RM10" s="1"/>
     </row>
-    <row r="11" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>34943</v>
       </c>
@@ -3831,7 +3882,7 @@
       <c r="RB11" s="1"/>
       <c r="RM11" s="1"/>
     </row>
-    <row r="12" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>34973</v>
       </c>
@@ -3853,7 +3904,7 @@
       <c r="RB12" s="1"/>
       <c r="RM12" s="1"/>
     </row>
-    <row r="13" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>35004</v>
       </c>
@@ -3875,7 +3926,7 @@
       <c r="RB13" s="1"/>
       <c r="RM13" s="1"/>
     </row>
-    <row r="14" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>35034</v>
       </c>
@@ -3895,7 +3946,7 @@
       <c r="CP14" s="1"/>
       <c r="OY14" s="1"/>
     </row>
-    <row r="15" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>35065</v>
       </c>
@@ -3915,7 +3966,7 @@
       <c r="CP15" s="1"/>
       <c r="OY15" s="1"/>
     </row>
-    <row r="16" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>35096</v>
       </c>
@@ -3925,7 +3976,7 @@
       <c r="C16" s="5"/>
       <c r="CP16" s="1"/>
     </row>
-    <row r="17" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>35125</v>
       </c>
@@ -3935,7 +3986,7 @@
       <c r="C17" s="5"/>
       <c r="CP17" s="1"/>
     </row>
-    <row r="18" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>35156</v>
       </c>
@@ -3945,7 +3996,7 @@
       <c r="C18" s="5"/>
       <c r="CP18" s="1"/>
     </row>
-    <row r="19" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>35186</v>
       </c>
@@ -3955,7 +4006,7 @@
       <c r="C19" s="5"/>
       <c r="CP19" s="1"/>
     </row>
-    <row r="20" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>35217</v>
       </c>
@@ -3965,7 +4016,7 @@
       <c r="C20" s="5"/>
       <c r="CP20" s="1"/>
     </row>
-    <row r="21" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>35247</v>
       </c>
@@ -3975,7 +4026,7 @@
       <c r="C21" s="5"/>
       <c r="CP21" s="1"/>
     </row>
-    <row r="22" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>35278</v>
       </c>
@@ -3985,7 +4036,7 @@
       <c r="C22" s="5"/>
       <c r="CP22" s="1"/>
     </row>
-    <row r="23" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>35309</v>
       </c>
@@ -3995,7 +4046,7 @@
       <c r="C23" s="5"/>
       <c r="CP23" s="1"/>
     </row>
-    <row r="24" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>35339</v>
       </c>
@@ -4005,7 +4056,7 @@
       <c r="C24" s="5"/>
       <c r="CP24" s="1"/>
     </row>
-    <row r="25" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>35370</v>
       </c>
@@ -4015,7 +4066,7 @@
       <c r="C25" s="5"/>
       <c r="CP25" s="1"/>
     </row>
-    <row r="26" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>35400</v>
       </c>
@@ -4025,7 +4076,7 @@
       <c r="C26" s="5"/>
       <c r="CP26" s="1"/>
     </row>
-    <row r="27" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>35431</v>
       </c>
@@ -4035,7 +4086,7 @@
       <c r="C27" s="5"/>
       <c r="CP27" s="1"/>
     </row>
-    <row r="28" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>35462</v>
       </c>
@@ -4045,7 +4096,7 @@
       <c r="C28" s="5"/>
       <c r="CP28" s="1"/>
     </row>
-    <row r="29" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>35490</v>
       </c>
@@ -4055,7 +4106,7 @@
       <c r="C29" s="5"/>
       <c r="CP29" s="1"/>
     </row>
-    <row r="30" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>35521</v>
       </c>
@@ -4073,7 +4124,7 @@
       <c r="L30" s="8"/>
       <c r="CP30" s="1"/>
     </row>
-    <row r="31" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>35551</v>
       </c>
@@ -4091,7 +4142,7 @@
       <c r="L31" s="8"/>
       <c r="CP31" s="1"/>
     </row>
-    <row r="32" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>35582</v>
       </c>
@@ -4109,7 +4160,7 @@
       <c r="L32" s="8"/>
       <c r="CP32" s="1"/>
     </row>
-    <row r="33" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>35612</v>
       </c>
@@ -4127,7 +4178,7 @@
       <c r="L33" s="8"/>
       <c r="CP33" s="1"/>
     </row>
-    <row r="34" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>35643</v>
       </c>
@@ -4138,7 +4189,7 @@
       <c r="L34" s="8"/>
       <c r="CP34" s="1"/>
     </row>
-    <row r="35" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>35674</v>
       </c>
@@ -4148,7 +4199,7 @@
       <c r="C35" s="5"/>
       <c r="CP35" s="1"/>
     </row>
-    <row r="36" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35704</v>
       </c>
@@ -4158,7 +4209,7 @@
       <c r="C36" s="5"/>
       <c r="CP36" s="1"/>
     </row>
-    <row r="37" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35735</v>
       </c>
@@ -4168,7 +4219,7 @@
       <c r="C37" s="5"/>
       <c r="CP37" s="1"/>
     </row>
-    <row r="38" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35765</v>
       </c>
@@ -4178,7 +4229,7 @@
       <c r="C38" s="5"/>
       <c r="CP38" s="1"/>
     </row>
-    <row r="39" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>35796</v>
       </c>
@@ -4188,7 +4239,7 @@
       <c r="C39" s="5"/>
       <c r="CP39" s="1"/>
     </row>
-    <row r="40" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>35827</v>
       </c>
@@ -4198,7 +4249,7 @@
       <c r="C40" s="5"/>
       <c r="CP40" s="1"/>
     </row>
-    <row r="41" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>35855</v>
       </c>
@@ -4208,7 +4259,7 @@
       <c r="C41" s="5"/>
       <c r="CP41" s="1"/>
     </row>
-    <row r="42" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>35886</v>
       </c>
@@ -4218,7 +4269,7 @@
       <c r="C42" s="5"/>
       <c r="CP42" s="1"/>
     </row>
-    <row r="43" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>35916</v>
       </c>
@@ -4228,7 +4279,7 @@
       <c r="C43" s="5"/>
       <c r="CP43" s="1"/>
     </row>
-    <row r="44" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>35947</v>
       </c>
@@ -4238,7 +4289,7 @@
       <c r="C44" s="5"/>
       <c r="CP44" s="1"/>
     </row>
-    <row r="45" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>35977</v>
       </c>
@@ -4248,7 +4299,7 @@
       <c r="C45" s="5"/>
       <c r="CP45" s="1"/>
     </row>
-    <row r="46" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>36008</v>
       </c>
@@ -4258,7 +4309,7 @@
       <c r="C46" s="5"/>
       <c r="CP46" s="1"/>
     </row>
-    <row r="47" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>36039</v>
       </c>
@@ -4268,7 +4319,7 @@
       <c r="C47" s="5"/>
       <c r="CP47" s="1"/>
     </row>
-    <row r="48" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>36069</v>
       </c>
@@ -4278,7 +4329,7 @@
       <c r="C48" s="5"/>
       <c r="CP48" s="1"/>
     </row>
-    <row r="49" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>36100</v>
       </c>
@@ -4288,7 +4339,7 @@
       <c r="C49" s="5"/>
       <c r="CP49" s="1"/>
     </row>
-    <row r="50" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>36130</v>
       </c>
@@ -4298,7 +4349,7 @@
       <c r="C50" s="5"/>
       <c r="CP50" s="1"/>
     </row>
-    <row r="51" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>36161</v>
       </c>
@@ -4309,7 +4360,7 @@
       <c r="D51" s="6"/>
       <c r="CP51" s="1"/>
     </row>
-    <row r="52" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>36192</v>
       </c>
@@ -4320,7 +4371,7 @@
       <c r="D52" s="6"/>
       <c r="CP52" s="1"/>
     </row>
-    <row r="53" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>36220</v>
       </c>
@@ -4331,7 +4382,7 @@
       <c r="D53" s="6"/>
       <c r="CP53" s="1"/>
     </row>
-    <row r="54" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>36251</v>
       </c>
@@ -4342,7 +4393,7 @@
       <c r="D54" s="6"/>
       <c r="CP54" s="1"/>
     </row>
-    <row r="55" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>36281</v>
       </c>
@@ -4353,7 +4404,7 @@
       <c r="D55" s="6"/>
       <c r="CP55" s="1"/>
     </row>
-    <row r="56" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>36312</v>
       </c>
@@ -4364,7 +4415,7 @@
       <c r="D56" s="6"/>
       <c r="CP56" s="1"/>
     </row>
-    <row r="57" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>36342</v>
       </c>
@@ -4375,7 +4426,7 @@
       <c r="D57" s="6"/>
       <c r="CP57" s="1"/>
     </row>
-    <row r="58" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>36373</v>
       </c>
@@ -4386,7 +4437,7 @@
       <c r="D58" s="6"/>
       <c r="CP58" s="1"/>
     </row>
-    <row r="59" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>36404</v>
       </c>
@@ -4397,7 +4448,7 @@
       <c r="D59" s="6"/>
       <c r="CP59" s="1"/>
     </row>
-    <row r="60" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>36434</v>
       </c>
@@ -4408,7 +4459,7 @@
       <c r="D60" s="6"/>
       <c r="CP60" s="1"/>
     </row>
-    <row r="61" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>36465</v>
       </c>
@@ -4419,7 +4470,7 @@
       <c r="D61" s="6"/>
       <c r="CP61" s="1"/>
     </row>
-    <row r="62" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>36495</v>
       </c>
@@ -4430,7 +4481,7 @@
       <c r="D62" s="6"/>
       <c r="CP62" s="1"/>
     </row>
-    <row r="63" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>36526</v>
       </c>
@@ -4441,7 +4492,7 @@
       <c r="D63" s="6"/>
       <c r="CP63" s="1"/>
     </row>
-    <row r="64" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>36557</v>
       </c>
@@ -4452,7 +4503,7 @@
       <c r="D64" s="6"/>
       <c r="CP64" s="1"/>
     </row>
-    <row r="65" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>36586</v>
       </c>
@@ -4464,7 +4515,7 @@
       <c r="E65" s="6"/>
       <c r="CP65" s="1"/>
     </row>
-    <row r="66" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>36617</v>
       </c>
@@ -4476,7 +4527,7 @@
       <c r="E66" s="6"/>
       <c r="CP66" s="1"/>
     </row>
-    <row r="67" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>36647</v>
       </c>
@@ -4488,7 +4539,7 @@
       <c r="E67" s="6"/>
       <c r="CP67" s="1"/>
     </row>
-    <row r="68" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>36678</v>
       </c>
@@ -4500,7 +4551,7 @@
       <c r="E68" s="6"/>
       <c r="CP68" s="1"/>
     </row>
-    <row r="69" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>36708</v>
       </c>
@@ -4511,7 +4562,7 @@
       <c r="E69" s="6"/>
       <c r="CP69" s="1"/>
     </row>
-    <row r="70" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>36739</v>
       </c>
@@ -4522,7 +4573,7 @@
       <c r="E70" s="6"/>
       <c r="CP70" s="1"/>
     </row>
-    <row r="71" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>36770</v>
       </c>
@@ -4533,7 +4584,7 @@
       <c r="E71" s="6"/>
       <c r="CP71" s="1"/>
     </row>
-    <row r="72" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>36800</v>
       </c>
@@ -4544,7 +4595,7 @@
       <c r="E72" s="6"/>
       <c r="CP72" s="1"/>
     </row>
-    <row r="73" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>36831</v>
       </c>
@@ -4555,7 +4606,7 @@
       <c r="E73" s="6"/>
       <c r="CP73" s="1"/>
     </row>
-    <row r="74" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>36861</v>
       </c>
@@ -4566,7 +4617,7 @@
       <c r="E74" s="6"/>
       <c r="CP74" s="1"/>
     </row>
-    <row r="75" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>36892</v>
       </c>
@@ -4577,7 +4628,7 @@
       <c r="E75" s="6"/>
       <c r="CP75" s="1"/>
     </row>
-    <row r="76" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>36923</v>
       </c>
@@ -4588,7 +4639,7 @@
       <c r="E76" s="6"/>
       <c r="CP76" s="1"/>
     </row>
-    <row r="77" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>36951</v>
       </c>
@@ -4599,7 +4650,7 @@
       <c r="E77" s="6"/>
       <c r="CP77" s="1"/>
     </row>
-    <row r="78" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>36982</v>
       </c>
@@ -4610,7 +4661,7 @@
       <c r="E78" s="6"/>
       <c r="CP78" s="1"/>
     </row>
-    <row r="79" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>37012</v>
       </c>
@@ -4621,7 +4672,7 @@
       <c r="E79" s="6"/>
       <c r="CP79" s="1"/>
     </row>
-    <row r="80" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>37043</v>
       </c>
@@ -4632,7 +4683,7 @@
       <c r="E80" s="6"/>
       <c r="CP80" s="1"/>
     </row>
-    <row r="81" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>37073</v>
       </c>
@@ -4651,7 +4702,7 @@
       <c r="DJ81" s="1"/>
       <c r="DK81" s="1"/>
     </row>
-    <row r="82" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>37104</v>
       </c>
@@ -4669,7 +4720,7 @@
       <c r="DJ82" s="1"/>
       <c r="DK82" s="1"/>
     </row>
-    <row r="83" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>37135</v>
       </c>
@@ -4688,7 +4739,7 @@
       <c r="DK83" s="1"/>
       <c r="FQ83" s="1"/>
     </row>
-    <row r="84" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>37165</v>
       </c>
@@ -4707,7 +4758,7 @@
       <c r="DK84" s="1"/>
       <c r="FQ84" s="1"/>
     </row>
-    <row r="85" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>37196</v>
       </c>
@@ -4726,7 +4777,7 @@
       <c r="DK85" s="1"/>
       <c r="FQ85" s="1"/>
     </row>
-    <row r="86" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>37226</v>
       </c>
@@ -4745,7 +4796,7 @@
       <c r="DK86" s="1"/>
       <c r="FQ86" s="1"/>
     </row>
-    <row r="87" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>37257</v>
       </c>
@@ -4764,7 +4815,7 @@
       <c r="DK87" s="1"/>
       <c r="FQ87" s="1"/>
     </row>
-    <row r="88" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>37288</v>
       </c>
@@ -4783,7 +4834,7 @@
       <c r="DK88" s="1"/>
       <c r="FQ88" s="1"/>
     </row>
-    <row r="89" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>37316</v>
       </c>
@@ -4803,7 +4854,7 @@
       <c r="EJ89" s="1"/>
       <c r="FQ89" s="1"/>
     </row>
-    <row r="90" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>37347</v>
       </c>
@@ -4823,7 +4874,7 @@
       <c r="EJ90" s="1"/>
       <c r="FQ90" s="1"/>
     </row>
-    <row r="91" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>37377</v>
       </c>
@@ -4843,7 +4894,7 @@
       <c r="EJ91" s="1"/>
       <c r="FQ91" s="1"/>
     </row>
-    <row r="92" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>37408</v>
       </c>
@@ -4864,7 +4915,7 @@
       <c r="EU92" s="1"/>
       <c r="FQ92" s="1"/>
     </row>
-    <row r="93" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>37438</v>
       </c>
@@ -4885,7 +4936,7 @@
       <c r="EU93" s="1"/>
       <c r="FQ93" s="1"/>
     </row>
-    <row r="94" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>37469</v>
       </c>
@@ -4906,7 +4957,7 @@
       <c r="EU94" s="1"/>
       <c r="FQ94" s="1"/>
     </row>
-    <row r="95" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>37500</v>
       </c>
@@ -4928,7 +4979,7 @@
       <c r="FQ95" s="1"/>
       <c r="GX95" s="1"/>
     </row>
-    <row r="96" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>37530</v>
       </c>
@@ -4950,7 +5001,7 @@
       <c r="FQ96" s="1"/>
       <c r="GX96" s="1"/>
     </row>
-    <row r="97" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>37561</v>
       </c>
@@ -4982,7 +5033,7 @@
       <c r="GX97" s="1"/>
       <c r="QQ97" s="1"/>
     </row>
-    <row r="98" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>37591</v>
       </c>
@@ -5014,7 +5065,7 @@
       <c r="GX98" s="1"/>
       <c r="QQ98" s="1"/>
     </row>
-    <row r="99" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>37622</v>
       </c>
@@ -5055,7 +5106,7 @@
       <c r="GX99" s="1"/>
       <c r="QQ99" s="1"/>
     </row>
-    <row r="100" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>37653</v>
       </c>
@@ -5106,7 +5157,7 @@
       <c r="OC100" s="1"/>
       <c r="QQ100" s="1"/>
     </row>
-    <row r="101" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>37681</v>
       </c>
@@ -5158,7 +5209,7 @@
       <c r="OC101" s="1"/>
       <c r="QQ101" s="1"/>
     </row>
-    <row r="102" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>37712</v>
       </c>
@@ -5210,7 +5261,7 @@
       <c r="OC102" s="1"/>
       <c r="QQ102" s="1"/>
     </row>
-    <row r="103" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>37742</v>
       </c>
@@ -5263,7 +5314,7 @@
       <c r="OC103" s="1"/>
       <c r="QQ103" s="1"/>
     </row>
-    <row r="104" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>37773</v>
       </c>
@@ -5317,7 +5368,7 @@
       <c r="OC104" s="1"/>
       <c r="QQ104" s="1"/>
     </row>
-    <row r="105" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>37803</v>
       </c>
@@ -5371,7 +5422,7 @@
       <c r="OC105" s="1"/>
       <c r="QQ105" s="1"/>
     </row>
-    <row r="106" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>37834</v>
       </c>
@@ -5426,7 +5477,7 @@
       <c r="OC106" s="1"/>
       <c r="QQ106" s="1"/>
     </row>
-    <row r="107" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>37865</v>
       </c>
@@ -5485,7 +5536,7 @@
       <c r="QQ107" s="1"/>
       <c r="RX107" s="1"/>
     </row>
-    <row r="108" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>37895</v>
       </c>
@@ -5544,7 +5595,7 @@
       <c r="QQ108" s="1"/>
       <c r="RX108" s="1"/>
     </row>
-    <row r="109" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>37926</v>
       </c>
@@ -5605,7 +5656,7 @@
       <c r="QQ109" s="1"/>
       <c r="RX109" s="1"/>
     </row>
-    <row r="110" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>37956</v>
       </c>
@@ -5668,7 +5719,7 @@
       <c r="QQ110" s="1"/>
       <c r="RX110" s="1"/>
     </row>
-    <row r="111" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>37987</v>
       </c>
@@ -5731,7 +5782,7 @@
       <c r="QQ111" s="1"/>
       <c r="RX111" s="1"/>
     </row>
-    <row r="112" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>38018</v>
       </c>
@@ -5794,7 +5845,7 @@
       <c r="QQ112" s="1"/>
       <c r="RX112" s="1"/>
     </row>
-    <row r="113" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>38047</v>
       </c>
@@ -5859,7 +5910,7 @@
       <c r="QQ113" s="1"/>
       <c r="RX113" s="1"/>
     </row>
-    <row r="114" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>38078</v>
       </c>
@@ -5925,7 +5976,7 @@
       <c r="QQ114" s="1"/>
       <c r="RX114" s="1"/>
     </row>
-    <row r="115" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>38108</v>
       </c>
@@ -6002,7 +6053,7 @@
       <c r="QQ115" s="1"/>
       <c r="RX115" s="1"/>
     </row>
-    <row r="116" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>38139</v>
       </c>
@@ -6090,7 +6141,7 @@
       <c r="QQ116" s="1"/>
       <c r="RX116" s="1"/>
     </row>
-    <row r="117" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>38169</v>
       </c>
@@ -6180,7 +6231,7 @@
       <c r="QQ117" s="1"/>
       <c r="RX117" s="1"/>
     </row>
-    <row r="118" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>38200</v>
       </c>
@@ -6270,7 +6321,7 @@
       <c r="QQ118" s="1"/>
       <c r="RX118" s="1"/>
     </row>
-    <row r="119" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>38231</v>
       </c>
@@ -6360,7 +6411,7 @@
       <c r="QQ119" s="1"/>
       <c r="RX119" s="1"/>
     </row>
-    <row r="120" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>38261</v>
       </c>
@@ -6450,7 +6501,7 @@
       <c r="QQ120" s="1"/>
       <c r="RX120" s="1"/>
     </row>
-    <row r="121" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>38292</v>
       </c>
@@ -6541,7 +6592,7 @@
       <c r="QQ121" s="1"/>
       <c r="RX121" s="1"/>
     </row>
-    <row r="122" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>38322</v>
       </c>
@@ -6632,7 +6683,7 @@
       <c r="QQ122" s="1"/>
       <c r="RX122" s="1"/>
     </row>
-    <row r="123" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>38353</v>
       </c>
@@ -6723,7 +6774,7 @@
       <c r="QQ123" s="1"/>
       <c r="RX123" s="1"/>
     </row>
-    <row r="124" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>38384</v>
       </c>
@@ -6816,7 +6867,7 @@
       <c r="QQ124" s="1"/>
       <c r="RX124" s="1"/>
     </row>
-    <row r="125" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>38412</v>
       </c>
@@ -6909,7 +6960,7 @@
       <c r="QQ125" s="1"/>
       <c r="RX125" s="1"/>
     </row>
-    <row r="126" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>38443</v>
       </c>
@@ -7002,7 +7053,7 @@
       <c r="QQ126" s="1"/>
       <c r="RX126" s="1"/>
     </row>
-    <row r="127" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>38473</v>
       </c>
@@ -7096,7 +7147,7 @@
       <c r="RM127" s="1"/>
       <c r="RX127" s="1"/>
     </row>
-    <row r="128" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>38504</v>
       </c>
@@ -7191,7 +7242,7 @@
       <c r="RM128" s="1"/>
       <c r="RX128" s="1"/>
     </row>
-    <row r="129" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>38534</v>
       </c>
@@ -7286,7 +7337,7 @@
       <c r="RM129" s="1"/>
       <c r="RX129" s="1"/>
     </row>
-    <row r="130" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>38565</v>
       </c>
@@ -7381,7 +7432,7 @@
       <c r="RM130" s="1"/>
       <c r="RX130" s="1"/>
     </row>
-    <row r="131" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>38596</v>
       </c>
@@ -7476,7 +7527,7 @@
       <c r="RM131" s="1"/>
       <c r="RX131" s="1"/>
     </row>
-    <row r="132" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>38626</v>
       </c>
@@ -7571,7 +7622,7 @@
       <c r="RM132" s="1"/>
       <c r="RX132" s="1"/>
     </row>
-    <row r="133" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>38657</v>
       </c>
@@ -7666,7 +7717,7 @@
       <c r="RM133" s="1"/>
       <c r="RX133" s="1"/>
     </row>
-    <row r="134" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>38687</v>
       </c>
@@ -7761,7 +7812,7 @@
       <c r="RM134" s="1"/>
       <c r="RX134" s="1"/>
     </row>
-    <row r="135" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>38718</v>
       </c>
@@ -7856,7 +7907,7 @@
       <c r="RM135" s="1"/>
       <c r="RX135" s="1"/>
     </row>
-    <row r="136" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>38749</v>
       </c>
@@ -7951,7 +8002,7 @@
       <c r="RM136" s="1"/>
       <c r="RX136" s="1"/>
     </row>
-    <row r="137" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>38777</v>
       </c>
@@ -8046,7 +8097,7 @@
       <c r="RM137" s="1"/>
       <c r="RX137" s="1"/>
     </row>
-    <row r="138" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>38808</v>
       </c>
@@ -8141,7 +8192,7 @@
       <c r="RM138" s="1"/>
       <c r="RX138" s="1"/>
     </row>
-    <row r="139" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>38838</v>
       </c>
@@ -8236,7 +8287,7 @@
       <c r="RM139" s="1"/>
       <c r="RX139" s="1"/>
     </row>
-    <row r="140" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>38869</v>
       </c>
@@ -8331,7 +8382,7 @@
       <c r="RM140" s="1"/>
       <c r="RX140" s="1"/>
     </row>
-    <row r="141" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>38899</v>
       </c>
@@ -8426,7 +8477,7 @@
       <c r="RM141" s="1"/>
       <c r="RX141" s="1"/>
     </row>
-    <row r="142" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>38930</v>
       </c>
@@ -8521,7 +8572,7 @@
       <c r="RM142" s="1"/>
       <c r="RX142" s="1"/>
     </row>
-    <row r="143" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>38961</v>
       </c>
@@ -8616,7 +8667,7 @@
       <c r="RM143" s="1"/>
       <c r="RX143" s="1"/>
     </row>
-    <row r="144" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>38991</v>
       </c>
@@ -8711,7 +8762,7 @@
       <c r="RM144" s="1"/>
       <c r="RX144" s="1"/>
     </row>
-    <row r="145" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>39022</v>
       </c>
@@ -8806,7 +8857,7 @@
       <c r="RM145" s="1"/>
       <c r="RX145" s="1"/>
     </row>
-    <row r="146" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>39052</v>
       </c>
@@ -8901,7 +8952,7 @@
       <c r="RM146" s="1"/>
       <c r="RX146" s="1"/>
     </row>
-    <row r="147" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>39083</v>
       </c>
@@ -8996,7 +9047,7 @@
       <c r="RM147" s="1"/>
       <c r="RX147" s="1"/>
     </row>
-    <row r="148" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>39114</v>
       </c>
@@ -9091,7 +9142,7 @@
       <c r="RM148" s="1"/>
       <c r="RX148" s="1"/>
     </row>
-    <row r="149" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>39142</v>
       </c>
@@ -9186,7 +9237,7 @@
       <c r="RM149" s="1"/>
       <c r="RX149" s="1"/>
     </row>
-    <row r="150" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>39173</v>
       </c>
@@ -9281,7 +9332,7 @@
       <c r="RM150" s="1"/>
       <c r="RX150" s="1"/>
     </row>
-    <row r="151" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>39203</v>
       </c>
@@ -9376,7 +9427,7 @@
       <c r="RM151" s="1"/>
       <c r="RX151" s="1"/>
     </row>
-    <row r="152" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>39234</v>
       </c>
@@ -9471,7 +9522,7 @@
       <c r="RM152" s="1"/>
       <c r="RX152" s="1"/>
     </row>
-    <row r="153" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>39264</v>
       </c>
@@ -9566,7 +9617,7 @@
       <c r="RM153" s="1"/>
       <c r="RX153" s="1"/>
     </row>
-    <row r="154" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>39295</v>
       </c>
@@ -9661,7 +9712,7 @@
       <c r="RM154" s="1"/>
       <c r="RX154" s="1"/>
     </row>
-    <row r="155" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>39326</v>
       </c>
@@ -9756,7 +9807,7 @@
       <c r="RM155" s="1"/>
       <c r="RX155" s="1"/>
     </row>
-    <row r="156" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>39356</v>
       </c>
@@ -9851,7 +9902,7 @@
       <c r="RM156" s="1"/>
       <c r="RX156" s="1"/>
     </row>
-    <row r="157" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>39387</v>
       </c>
@@ -9946,7 +9997,7 @@
       <c r="RM157" s="1"/>
       <c r="RX157" s="1"/>
     </row>
-    <row r="158" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>39417</v>
       </c>
@@ -10041,7 +10092,7 @@
       <c r="RM158" s="1"/>
       <c r="RX158" s="1"/>
     </row>
-    <row r="159" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>39448</v>
       </c>
@@ -10136,7 +10187,7 @@
       <c r="RM159" s="1"/>
       <c r="RX159" s="1"/>
     </row>
-    <row r="160" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>39479</v>
       </c>
@@ -10231,7 +10282,7 @@
       <c r="RM160" s="1"/>
       <c r="RX160" s="1"/>
     </row>
-    <row r="161" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>39508</v>
       </c>
@@ -10326,7 +10377,7 @@
       <c r="RM161" s="1"/>
       <c r="RX161" s="1"/>
     </row>
-    <row r="162" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>39539</v>
       </c>
@@ -10421,7 +10472,7 @@
       <c r="RM162" s="1"/>
       <c r="RX162" s="1"/>
     </row>
-    <row r="163" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>39569</v>
       </c>
@@ -10516,7 +10567,7 @@
       <c r="RM163" s="1"/>
       <c r="RX163" s="1"/>
     </row>
-    <row r="164" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>39600</v>
       </c>
@@ -10611,7 +10662,7 @@
       <c r="RM164" s="1"/>
       <c r="RX164" s="1"/>
     </row>
-    <row r="165" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>39630</v>
       </c>
@@ -10706,7 +10757,7 @@
       <c r="RM165" s="1"/>
       <c r="RX165" s="1"/>
     </row>
-    <row r="166" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>39661</v>
       </c>
@@ -10801,7 +10852,7 @@
       <c r="RM166" s="1"/>
       <c r="RX166" s="1"/>
     </row>
-    <row r="167" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>39692</v>
       </c>
@@ -10896,7 +10947,7 @@
       <c r="RM167" s="1"/>
       <c r="RX167" s="1"/>
     </row>
-    <row r="168" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>39722</v>
       </c>
@@ -10991,7 +11042,7 @@
       <c r="RM168" s="1"/>
       <c r="RX168" s="1"/>
     </row>
-    <row r="169" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>39753</v>
       </c>
@@ -11086,7 +11137,7 @@
       <c r="RM169" s="1"/>
       <c r="RX169" s="1"/>
     </row>
-    <row r="170" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>39783</v>
       </c>
@@ -11181,7 +11232,7 @@
       <c r="RM170" s="1"/>
       <c r="RX170" s="1"/>
     </row>
-    <row r="171" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>39814</v>
       </c>
@@ -11276,7 +11327,7 @@
       <c r="RM171" s="1"/>
       <c r="RX171" s="1"/>
     </row>
-    <row r="172" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>39845</v>
       </c>
@@ -11371,7 +11422,7 @@
       <c r="RM172" s="1"/>
       <c r="RX172" s="1"/>
     </row>
-    <row r="173" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>39873</v>
       </c>
@@ -11466,7 +11517,7 @@
       <c r="RM173" s="1"/>
       <c r="RX173" s="1"/>
     </row>
-    <row r="174" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>39904</v>
       </c>
@@ -11561,7 +11612,7 @@
       <c r="RM174" s="1"/>
       <c r="RX174" s="1"/>
     </row>
-    <row r="175" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>39934</v>
       </c>
@@ -11656,7 +11707,7 @@
       <c r="RM175" s="1"/>
       <c r="RX175" s="1"/>
     </row>
-    <row r="176" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>39965</v>
       </c>
@@ -11751,7 +11802,7 @@
       <c r="RM176" s="1"/>
       <c r="RX176" s="1"/>
     </row>
-    <row r="177" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>39995</v>
       </c>
@@ -11846,7 +11897,7 @@
       <c r="RM177" s="1"/>
       <c r="RX177" s="1"/>
     </row>
-    <row r="178" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>40026</v>
       </c>
@@ -11941,7 +11992,7 @@
       <c r="RM178" s="1"/>
       <c r="RX178" s="1"/>
     </row>
-    <row r="179" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>40057</v>
       </c>
@@ -12036,7 +12087,7 @@
       <c r="RM179" s="1"/>
       <c r="RX179" s="1"/>
     </row>
-    <row r="180" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>40087</v>
       </c>
@@ -12131,7 +12182,7 @@
       <c r="RM180" s="1"/>
       <c r="RX180" s="1"/>
     </row>
-    <row r="181" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>40118</v>
       </c>
@@ -12226,7 +12277,7 @@
       <c r="RM181" s="1"/>
       <c r="RX181" s="1"/>
     </row>
-    <row r="182" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>40148</v>
       </c>
@@ -12321,7 +12372,7 @@
       <c r="RM182" s="1"/>
       <c r="RX182" s="1"/>
     </row>
-    <row r="183" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>40179</v>
       </c>
@@ -12416,7 +12467,7 @@
       <c r="RM183" s="1"/>
       <c r="RX183" s="1"/>
     </row>
-    <row r="184" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>40210</v>
       </c>
@@ -12511,7 +12562,7 @@
       <c r="RM184" s="1"/>
       <c r="RX184" s="1"/>
     </row>
-    <row r="185" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>40238</v>
       </c>
@@ -12606,7 +12657,7 @@
       <c r="RM185" s="1"/>
       <c r="RX185" s="1"/>
     </row>
-    <row r="186" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>40269</v>
       </c>
@@ -12701,7 +12752,7 @@
       <c r="RM186" s="1"/>
       <c r="RX186" s="1"/>
     </row>
-    <row r="187" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>40299</v>
       </c>
@@ -12796,7 +12847,7 @@
       <c r="RM187" s="1"/>
       <c r="RX187" s="1"/>
     </row>
-    <row r="188" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>40330</v>
       </c>
@@ -12891,7 +12942,7 @@
       <c r="RM188" s="1"/>
       <c r="RX188" s="1"/>
     </row>
-    <row r="189" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>40360</v>
       </c>
@@ -12986,7 +13037,7 @@
       <c r="RM189" s="1"/>
       <c r="RX189" s="1"/>
     </row>
-    <row r="190" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>40391</v>
       </c>
@@ -13081,7 +13132,7 @@
       <c r="RM190" s="1"/>
       <c r="RX190" s="1"/>
     </row>
-    <row r="191" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>40422</v>
       </c>
@@ -13176,7 +13227,7 @@
       <c r="RM191" s="1"/>
       <c r="RX191" s="1"/>
     </row>
-    <row r="192" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>40452</v>
       </c>
@@ -13271,7 +13322,7 @@
       <c r="RM192" s="1"/>
       <c r="RX192" s="1"/>
     </row>
-    <row r="193" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>40483</v>
       </c>
@@ -13366,7 +13417,7 @@
       <c r="RM193" s="1"/>
       <c r="RX193" s="1"/>
     </row>
-    <row r="194" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>40513</v>
       </c>
@@ -13461,7 +13512,7 @@
       <c r="RM194" s="1"/>
       <c r="RX194" s="1"/>
     </row>
-    <row r="195" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>40544</v>
       </c>
@@ -13556,7 +13607,7 @@
       <c r="RM195" s="1"/>
       <c r="RX195" s="1"/>
     </row>
-    <row r="196" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>40575</v>
       </c>
@@ -13651,7 +13702,7 @@
       <c r="RM196" s="1"/>
       <c r="RX196" s="1"/>
     </row>
-    <row r="197" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>40603</v>
       </c>
@@ -13746,7 +13797,7 @@
       <c r="RM197" s="1"/>
       <c r="RX197" s="1"/>
     </row>
-    <row r="198" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>40634</v>
       </c>
@@ -13841,7 +13892,7 @@
       <c r="RM198" s="1"/>
       <c r="RX198" s="1"/>
     </row>
-    <row r="199" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>40664</v>
       </c>
@@ -13936,7 +13987,7 @@
       <c r="RM199" s="1"/>
       <c r="RX199" s="1"/>
     </row>
-    <row r="200" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>40695</v>
       </c>
@@ -14031,7 +14082,7 @@
       <c r="RM200" s="1"/>
       <c r="RX200" s="1"/>
     </row>
-    <row r="201" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>40725</v>
       </c>
@@ -14126,7 +14177,7 @@
       <c r="RM201" s="1"/>
       <c r="RX201" s="1"/>
     </row>
-    <row r="202" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>40756</v>
       </c>
@@ -14221,7 +14272,7 @@
       <c r="RM202" s="1"/>
       <c r="RX202" s="1"/>
     </row>
-    <row r="203" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>40787</v>
       </c>
@@ -14316,7 +14367,7 @@
       <c r="RM203" s="1"/>
       <c r="RX203" s="1"/>
     </row>
-    <row r="204" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>40817</v>
       </c>
@@ -14411,7 +14462,7 @@
       <c r="RM204" s="1"/>
       <c r="RX204" s="1"/>
     </row>
-    <row r="205" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>40848</v>
       </c>
@@ -14506,7 +14557,7 @@
       <c r="RM205" s="1"/>
       <c r="RX205" s="1"/>
     </row>
-    <row r="206" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>40878</v>
       </c>
@@ -14602,7 +14653,7 @@
       <c r="RM206" s="1"/>
       <c r="RX206" s="1"/>
     </row>
-    <row r="207" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>40909</v>
       </c>
@@ -14698,7 +14749,7 @@
       <c r="RM207" s="1"/>
       <c r="RX207" s="1"/>
     </row>
-    <row r="208" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>40940</v>
       </c>
@@ -14797,7 +14848,7 @@
       <c r="RM208" s="1"/>
       <c r="RX208" s="1"/>
     </row>
-    <row r="209" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>40969</v>
       </c>
@@ -14893,7 +14944,7 @@
       <c r="RM209" s="1"/>
       <c r="RX209" s="1"/>
     </row>
-    <row r="210" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>41000</v>
       </c>
@@ -14992,7 +15043,7 @@
       <c r="RM210" s="1"/>
       <c r="RX210" s="1"/>
     </row>
-    <row r="211" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>41030</v>
       </c>
@@ -15087,7 +15138,7 @@
       <c r="RM211" s="1"/>
       <c r="RX211" s="1"/>
     </row>
-    <row r="212" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>41061</v>
       </c>
@@ -15183,7 +15234,7 @@
       <c r="RM212" s="1"/>
       <c r="RX212" s="1"/>
     </row>
-    <row r="213" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>41091</v>
       </c>
@@ -15278,7 +15329,7 @@
       <c r="RM213" s="1"/>
       <c r="RX213" s="1"/>
     </row>
-    <row r="214" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>41122</v>
       </c>
@@ -15373,7 +15424,7 @@
       <c r="RM214" s="1"/>
       <c r="RX214" s="1"/>
     </row>
-    <row r="215" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>41153</v>
       </c>
@@ -15468,7 +15519,7 @@
       <c r="RM215" s="1"/>
       <c r="RX215" s="1"/>
     </row>
-    <row r="216" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>41183</v>
       </c>
@@ -15564,7 +15615,7 @@
       <c r="RM216" s="1"/>
       <c r="RX216" s="1"/>
     </row>
-    <row r="217" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>41214</v>
       </c>
@@ -15659,7 +15710,7 @@
       <c r="RM217" s="1"/>
       <c r="RX217" s="1"/>
     </row>
-    <row r="218" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>41244</v>
       </c>
@@ -15754,7 +15805,7 @@
       <c r="RM218" s="1"/>
       <c r="RX218" s="1"/>
     </row>
-    <row r="219" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>41275</v>
       </c>
@@ -15849,7 +15900,7 @@
       <c r="RM219" s="1"/>
       <c r="RX219" s="1"/>
     </row>
-    <row r="220" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>41306</v>
       </c>
@@ -15944,7 +15995,7 @@
       <c r="RM220" s="1"/>
       <c r="RX220" s="1"/>
     </row>
-    <row r="221" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>41334</v>
       </c>
@@ -16042,7 +16093,7 @@
       <c r="RM221" s="1"/>
       <c r="RX221" s="1"/>
     </row>
-    <row r="222" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>41365</v>
       </c>
@@ -16061,7 +16112,7 @@
       <c r="QC222" s="1"/>
       <c r="QD222" s="1"/>
     </row>
-    <row r="223" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>41395</v>
       </c>
@@ -16080,7 +16131,7 @@
       <c r="QC223" s="1"/>
       <c r="QD223" s="1"/>
     </row>
-    <row r="224" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>41426</v>
       </c>
@@ -16099,7 +16150,7 @@
       <c r="QC224" s="1"/>
       <c r="QD224" s="1"/>
     </row>
-    <row r="225" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>41456</v>
       </c>
@@ -16118,7 +16169,7 @@
       <c r="QC225" s="1"/>
       <c r="QD225" s="1"/>
     </row>
-    <row r="226" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>41487</v>
       </c>
@@ -16137,7 +16188,7 @@
       <c r="QC226" s="1"/>
       <c r="QD226" s="1"/>
     </row>
-    <row r="227" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>41518</v>
       </c>
@@ -16156,7 +16207,7 @@
       <c r="QC227" s="1"/>
       <c r="QD227" s="1"/>
     </row>
-    <row r="228" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>41548</v>
       </c>
@@ -16165,7 +16216,7 @@
       </c>
       <c r="C228" s="5"/>
     </row>
-    <row r="229" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>41579</v>
       </c>
@@ -16174,7 +16225,7 @@
       </c>
       <c r="C229" s="5"/>
     </row>
-    <row r="230" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>41609</v>
       </c>
@@ -16183,7 +16234,7 @@
       </c>
       <c r="C230" s="5"/>
     </row>
-    <row r="231" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>41640</v>
       </c>
@@ -16192,7 +16243,7 @@
       </c>
       <c r="C231" s="5"/>
     </row>
-    <row r="232" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>41671</v>
       </c>
@@ -16201,7 +16252,7 @@
       </c>
       <c r="C232" s="5"/>
     </row>
-    <row r="233" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>41699</v>
       </c>
@@ -16210,7 +16261,7 @@
       </c>
       <c r="C233" s="5"/>
     </row>
-    <row r="234" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>41730</v>
       </c>
@@ -16219,7 +16270,7 @@
       </c>
       <c r="C234" s="5"/>
     </row>
-    <row r="235" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>41760</v>
       </c>
@@ -16228,7 +16279,7 @@
       </c>
       <c r="C235" s="5"/>
     </row>
-    <row r="236" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>41791</v>
       </c>
@@ -16237,7 +16288,7 @@
       </c>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>41821</v>
       </c>
@@ -16246,7 +16297,7 @@
       </c>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>41852</v>
       </c>
@@ -16255,7 +16306,7 @@
       </c>
       <c r="C238" s="5"/>
     </row>
-    <row r="239" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>41883</v>
       </c>
@@ -16264,7 +16315,7 @@
       </c>
       <c r="C239" s="5"/>
     </row>
-    <row r="240" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>41913</v>
       </c>
@@ -16273,7 +16324,7 @@
       </c>
       <c r="C240" s="5"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>41944</v>
       </c>
@@ -16282,7 +16333,7 @@
       </c>
       <c r="C241" s="5"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>41974</v>
       </c>
@@ -16291,7 +16342,7 @@
       </c>
       <c r="C242" s="5"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>42005</v>
       </c>
@@ -16300,7 +16351,7 @@
       </c>
       <c r="C243" s="5"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>42036</v>
       </c>
@@ -16309,7 +16360,7 @@
       </c>
       <c r="C244" s="5"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>42064</v>
       </c>
@@ -16318,7 +16369,7 @@
       </c>
       <c r="C245" s="5"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>42095</v>
       </c>
@@ -16327,7 +16378,7 @@
       </c>
       <c r="C246" s="5"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>42125</v>
       </c>
@@ -16336,7 +16387,7 @@
       </c>
       <c r="C247" s="5"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>42156</v>
       </c>
@@ -16345,7 +16396,7 @@
       </c>
       <c r="C248" s="5"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>42186</v>
       </c>
@@ -16354,7 +16405,7 @@
       </c>
       <c r="C249" s="5"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>42217</v>
       </c>
@@ -16363,7 +16414,7 @@
       </c>
       <c r="C250" s="5"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>42248</v>
       </c>
@@ -16372,7 +16423,7 @@
       </c>
       <c r="C251" s="5"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>42278</v>
       </c>
@@ -16381,7 +16432,7 @@
       </c>
       <c r="C252" s="5"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>42309</v>
       </c>
@@ -16390,7 +16441,7 @@
       </c>
       <c r="C253" s="5"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>42339</v>
       </c>
@@ -16399,7 +16450,7 @@
       </c>
       <c r="C254" s="5"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>42370</v>
       </c>
@@ -16408,7 +16459,7 @@
       </c>
       <c r="C255" s="5"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>42401</v>
       </c>
@@ -16417,7 +16468,7 @@
       </c>
       <c r="C256" s="5"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>42430</v>
       </c>
@@ -16426,7 +16477,7 @@
       </c>
       <c r="C257" s="5"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>42461</v>
       </c>
@@ -16435,7 +16486,7 @@
       </c>
       <c r="C258" s="5"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>42491</v>
       </c>
@@ -16444,7 +16495,7 @@
       </c>
       <c r="C259" s="5"/>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>42522</v>
       </c>
@@ -16453,7 +16504,7 @@
       </c>
       <c r="C260" s="5"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>42552</v>
       </c>
@@ -16462,7 +16513,7 @@
       </c>
       <c r="C261" s="5"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>42583</v>
       </c>
@@ -16471,7 +16522,7 @@
       </c>
       <c r="C262" s="5"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>42614</v>
       </c>
@@ -16480,7 +16531,7 @@
       </c>
       <c r="C263" s="5"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>42644</v>
       </c>
@@ -16489,7 +16540,7 @@
       </c>
       <c r="C264" s="5"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>42675</v>
       </c>
@@ -16498,7 +16549,7 @@
       </c>
       <c r="C265" s="5"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>42705</v>
       </c>
@@ -16507,7 +16558,7 @@
       </c>
       <c r="C266" s="5"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>42736</v>
       </c>
@@ -16516,7 +16567,7 @@
       </c>
       <c r="C267" s="5"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>42767</v>
       </c>
@@ -16525,7 +16576,7 @@
       </c>
       <c r="C268" s="5"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>42795</v>
       </c>
@@ -16534,7 +16585,7 @@
       </c>
       <c r="C269" s="5"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>42826</v>
       </c>
@@ -16543,7 +16594,7 @@
       </c>
       <c r="C270" s="5"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>42856</v>
       </c>
@@ -16552,7 +16603,7 @@
       </c>
       <c r="C271" s="5"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>42887</v>
       </c>
@@ -16561,7 +16612,7 @@
       </c>
       <c r="C272" s="5"/>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>42917</v>
       </c>
@@ -16570,7 +16621,7 @@
       </c>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>42948</v>
       </c>
@@ -16579,7 +16630,7 @@
       </c>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>42979</v>
       </c>
@@ -16588,7 +16639,7 @@
       </c>
       <c r="C275" s="5"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>43009</v>
       </c>
@@ -16597,7 +16648,7 @@
       </c>
       <c r="C276" s="5"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>43040</v>
       </c>
@@ -16606,7 +16657,7 @@
       </c>
       <c r="C277" s="5"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>43070</v>
       </c>
@@ -16615,7 +16666,7 @@
       </c>
       <c r="C278" s="5"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>43101</v>
       </c>
@@ -16624,7 +16675,7 @@
       </c>
       <c r="C279" s="5"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>43132</v>
       </c>
@@ -16633,7 +16684,7 @@
       </c>
       <c r="C280" s="5"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>43160</v>
       </c>
@@ -16642,7 +16693,7 @@
       </c>
       <c r="C281" s="5"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>43191</v>
       </c>
@@ -16651,7 +16702,7 @@
       </c>
       <c r="C282" s="5"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>43221</v>
       </c>
@@ -16660,7 +16711,7 @@
       </c>
       <c r="C283" s="5"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>43252</v>
       </c>
@@ -16669,7 +16720,7 @@
       </c>
       <c r="C284" s="5"/>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>43282</v>
       </c>
@@ -16678,7 +16729,7 @@
       </c>
       <c r="C285" s="5"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>43313</v>
       </c>
@@ -16687,7 +16738,7 @@
       </c>
       <c r="C286" s="5"/>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>43344</v>
       </c>
@@ -16696,7 +16747,7 @@
       </c>
       <c r="C287" s="5"/>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>43374</v>
       </c>
@@ -16705,7 +16756,7 @@
       </c>
       <c r="C288" s="5"/>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>43405</v>
       </c>
@@ -16714,7 +16765,7 @@
       </c>
       <c r="C289" s="5"/>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>43435</v>
       </c>
@@ -16723,7 +16774,7 @@
       </c>
       <c r="C290" s="5"/>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>43466</v>
       </c>
@@ -16732,7 +16783,7 @@
       </c>
       <c r="C291" s="5"/>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>43497</v>
       </c>
@@ -16741,7 +16792,7 @@
       </c>
       <c r="C292" s="5"/>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>43525</v>
       </c>
@@ -16750,7 +16801,7 @@
       </c>
       <c r="C293" s="5"/>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>43556</v>
       </c>
@@ -16759,7 +16810,7 @@
       </c>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>43586</v>
       </c>
@@ -16768,7 +16819,7 @@
       </c>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>43617</v>
       </c>
@@ -16777,7 +16828,7 @@
       </c>
       <c r="C296" s="5"/>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>43647</v>
       </c>
@@ -16786,7 +16837,7 @@
       </c>
       <c r="C297" s="5"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>43678</v>
       </c>
@@ -16795,7 +16846,7 @@
       </c>
       <c r="C298" s="5"/>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>43709</v>
       </c>
@@ -16804,7 +16855,7 @@
       </c>
       <c r="C299" s="5"/>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>43739</v>
       </c>
@@ -16813,7 +16864,7 @@
       </c>
       <c r="C300" s="5"/>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>43770</v>
       </c>
@@ -16822,7 +16873,7 @@
       </c>
       <c r="C301" s="5"/>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>43800</v>
       </c>
@@ -16831,7 +16882,7 @@
       </c>
       <c r="C302" s="5"/>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>43831</v>
       </c>
@@ -16840,7 +16891,7 @@
       </c>
       <c r="C303" s="5"/>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>43862</v>
       </c>
@@ -16849,7 +16900,7 @@
       </c>
       <c r="C304" s="5"/>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>43891</v>
       </c>
@@ -16858,7 +16909,7 @@
       </c>
       <c r="C305" s="5"/>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>43922</v>
       </c>
@@ -16867,7 +16918,7 @@
       </c>
       <c r="C306" s="5"/>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>43952</v>
       </c>
@@ -16876,7 +16927,7 @@
       </c>
       <c r="C307" s="5"/>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>43983</v>
       </c>
@@ -16885,7 +16936,7 @@
       </c>
       <c r="C308" s="5"/>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>44013</v>
       </c>
@@ -16894,7 +16945,7 @@
       </c>
       <c r="C309" s="5"/>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>44044</v>
       </c>
@@ -16903,7 +16954,7 @@
       </c>
       <c r="C310" s="5"/>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>44075</v>
       </c>
@@ -16912,7 +16963,7 @@
       </c>
       <c r="C311" s="5"/>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>44105</v>
       </c>
@@ -16921,7 +16972,7 @@
       </c>
       <c r="C312" s="5"/>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>44136</v>
       </c>
@@ -16930,7 +16981,7 @@
       </c>
       <c r="C313" s="5"/>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>44166</v>
       </c>
@@ -16939,7 +16990,7 @@
       </c>
       <c r="C314" s="5"/>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>44197</v>
       </c>
@@ -16948,7 +16999,7 @@
       </c>
       <c r="C315" s="5"/>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>44228</v>
       </c>
@@ -16957,7 +17008,7 @@
       </c>
       <c r="C316" s="5"/>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>44256</v>
       </c>
@@ -16966,7 +17017,7 @@
       </c>
       <c r="C317" s="5"/>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>44287</v>
       </c>
@@ -16975,7 +17026,7 @@
       </c>
       <c r="C318" s="5"/>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>44317</v>
       </c>
@@ -16984,7 +17035,7 @@
       </c>
       <c r="C319" s="5"/>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>44348</v>
       </c>
@@ -16993,7 +17044,7 @@
       </c>
       <c r="C320" s="5"/>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>44378</v>
       </c>
@@ -17002,7 +17053,7 @@
       </c>
       <c r="C321" s="5"/>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>44409</v>
       </c>
@@ -17011,7 +17062,7 @@
       </c>
       <c r="C322" s="5"/>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>44440</v>
       </c>
@@ -17020,7 +17071,7 @@
       </c>
       <c r="C323" s="5"/>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>44470</v>
       </c>
@@ -17029,7 +17080,7 @@
       </c>
       <c r="C324" s="5"/>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>44501</v>
       </c>
@@ -17038,7 +17089,7 @@
       </c>
       <c r="C325" s="5"/>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>44531</v>
       </c>
@@ -17047,7 +17098,7 @@
       </c>
       <c r="C326" s="5"/>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>44562</v>
       </c>
@@ -17056,7 +17107,7 @@
       </c>
       <c r="C327" s="5"/>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>44593</v>
       </c>
@@ -17065,7 +17116,7 @@
       </c>
       <c r="C328" s="5"/>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>44621</v>
       </c>
@@ -17074,7 +17125,7 @@
       </c>
       <c r="C329" s="5"/>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>44652</v>
       </c>
@@ -17083,7 +17134,7 @@
       </c>
       <c r="C330" s="5"/>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>44682</v>
       </c>
@@ -17092,7 +17143,7 @@
       </c>
       <c r="C331" s="5"/>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>44713</v>
       </c>
@@ -17101,7 +17152,7 @@
       </c>
       <c r="C332" s="5"/>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>44743</v>
       </c>
@@ -17110,7 +17161,7 @@
       </c>
       <c r="C333" s="5"/>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>44774</v>
       </c>
@@ -17119,7 +17170,7 @@
       </c>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>44805</v>
       </c>
@@ -17128,7 +17179,7 @@
       </c>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>44835</v>
       </c>
@@ -17137,7 +17188,7 @@
       </c>
       <c r="C336" s="5"/>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>44866</v>
       </c>
@@ -17146,7 +17197,7 @@
       </c>
       <c r="C337" s="5"/>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>44896</v>
       </c>
@@ -17155,7 +17206,7 @@
       </c>
       <c r="C338" s="5"/>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>44927</v>
       </c>
@@ -17164,7 +17215,7 @@
       </c>
       <c r="C339" s="5"/>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>44958</v>
       </c>
@@ -17173,7 +17224,7 @@
       </c>
       <c r="C340" s="5"/>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>44986</v>
       </c>
@@ -17182,7 +17233,7 @@
       </c>
       <c r="C341" s="5"/>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>45017</v>
       </c>
@@ -17191,7 +17242,7 @@
       </c>
       <c r="C342" s="5"/>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>45047</v>
       </c>
@@ -17200,7 +17251,7 @@
       </c>
       <c r="C343" s="5"/>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>45078</v>
       </c>
@@ -17209,7 +17260,7 @@
       </c>
       <c r="C344" s="5"/>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>45108</v>
       </c>
@@ -17218,7 +17269,7 @@
       </c>
       <c r="C345" s="5"/>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>45139</v>
       </c>
@@ -17227,7 +17278,7 @@
       </c>
       <c r="C346" s="5"/>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>45170</v>
       </c>
@@ -17236,7 +17287,7 @@
       </c>
       <c r="C347" s="5"/>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>45200</v>
       </c>
@@ -17245,7 +17296,7 @@
       </c>
       <c r="C348" s="5"/>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>45231</v>
       </c>
@@ -17254,7 +17305,7 @@
       </c>
       <c r="C349" s="5"/>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>45261</v>
       </c>
@@ -17263,7 +17314,7 @@
       </c>
       <c r="C350" s="5"/>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>45292</v>
       </c>
@@ -17271,7 +17322,7 @@
         <v>8.9115758120277305E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>45323</v>
       </c>
@@ -17280,7 +17331,7 @@
       </c>
       <c r="C352" s="5"/>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>45352</v>
       </c>
@@ -17289,7 +17340,7 @@
       </c>
       <c r="C353" s="5"/>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>45383</v>
       </c>
@@ -17298,7 +17349,7 @@
       </c>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>45413</v>
       </c>
@@ -17307,7 +17358,7 @@
       </c>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>45444</v>
       </c>
@@ -17315,7 +17366,7 @@
         <v>9.9626160666037494E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>45474</v>
       </c>
@@ -17323,7 +17374,7 @@
         <v>9.8254086785083294E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>45505</v>
       </c>
@@ -17331,7 +17382,7 @@
         <v>9.9822265355109505E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>45536</v>
       </c>
@@ -17339,7 +17390,7 @@
         <v>8.7638597939404303E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>45566</v>
       </c>
@@ -17348,7 +17399,7 @@
       </c>
       <c r="C360" s="5"/>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>45597</v>
       </c>
@@ -17356,12 +17407,60 @@
         <v>9.6474622830165099E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>45627</v>
       </c>
       <c r="B362" s="3">
         <v>9.7281775111367597E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="2">
+        <v>45658</v>
+      </c>
+      <c r="B363" s="3">
+        <v>9.1050724636227903E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="2">
+        <v>45689</v>
+      </c>
+      <c r="B364" s="3">
+        <v>9.5637638893887003E-2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="2">
+        <v>45717</v>
+      </c>
+      <c r="B365" s="3">
+        <v>8.6577396608569099E-2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B366" s="3">
+        <v>8.3840484764512405E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="2">
+        <v>45778</v>
+      </c>
+      <c r="B367" s="3">
+        <v>8.2249927570815506E-2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="2">
+        <v>45809</v>
+      </c>
+      <c r="B368" s="3">
+        <v>8.12906259190323E-2</v>
       </c>
     </row>
   </sheetData>
